--- a/game.xlsx
+++ b/game.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apcom\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\venv\yoda\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="1000" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="1000" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Нации" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="852">
   <si>
     <t>Камень</t>
   </si>
@@ -2550,6 +2550,51 @@
   </si>
   <si>
     <t>Приз за победу</t>
+  </si>
+  <si>
+    <t>Раса</t>
+  </si>
+  <si>
+    <t>Способность</t>
+  </si>
+  <si>
+    <t>Орки</t>
+  </si>
+  <si>
+    <t>Некромант</t>
+  </si>
+  <si>
+    <t>Демон</t>
+  </si>
+  <si>
+    <t>Маг</t>
+  </si>
+  <si>
+    <t>Эльф</t>
+  </si>
+  <si>
+    <t>Гном</t>
+  </si>
+  <si>
+    <t>Призывает на поле боя мечника 1/1</t>
+  </si>
+  <si>
+    <t>Наносит 2 ед урона отряду противника</t>
+  </si>
+  <si>
+    <t>Применяет случайное заклинание</t>
+  </si>
+  <si>
+    <t>Наносит 1 ед урона любому отряду или персонажу</t>
+  </si>
+  <si>
+    <t>Увеличивает здоровье юнита на 2 ед</t>
+  </si>
+  <si>
+    <t>Дает +1/+1 персонажу на текущий ход</t>
+  </si>
+  <si>
+    <t>Наносит себе 2 ед урона и берет нового юнита</t>
   </si>
 </sst>
 </file>
@@ -4840,7 +4885,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4852,10 +4900,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7008,9 +7053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -8931,32 +8976,74 @@
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="216"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="216"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="216"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="216"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="216"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="216"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="216"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="216"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="216"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="216"/>
+    <row r="88" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="316" t="s">
+        <v>837</v>
+      </c>
+      <c r="B88" s="317" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="B89" s="219" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="B90" s="219" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="B91" s="219" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="B92" s="219" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="B93" s="219" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="B94" s="219" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="B95" s="219" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="216"/>
@@ -14017,7 +14104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>147</v>
       </c>
@@ -14307,7 +14394,7 @@
       </c>
       <c r="D7" s="79"/>
     </row>
-    <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="94" t="s">
         <v>4</v>
       </c>
@@ -15194,7 +15281,7 @@
         <v>16350</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>180</v>
       </c>
@@ -15374,7 +15461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -16840,116 +16927,116 @@
       <c r="E1" s="288"/>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="431" t="s">
+      <c r="A2" s="427" t="s">
         <v>574</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="428">
+      <c r="C2" s="429">
         <v>5</v>
       </c>
-      <c r="D2" s="427" t="s">
+      <c r="D2" s="432" t="s">
         <v>831</v>
       </c>
       <c r="E2" s="289"/>
     </row>
     <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="432"/>
+      <c r="A3" s="428"/>
       <c r="B3" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="429"/>
-      <c r="D3" s="427"/>
+      <c r="C3" s="430"/>
+      <c r="D3" s="432"/>
       <c r="E3" s="289"/>
     </row>
     <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="432"/>
+      <c r="A4" s="428"/>
       <c r="B4" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C4" s="429"/>
-      <c r="D4" s="427"/>
+      <c r="C4" s="430"/>
+      <c r="D4" s="432"/>
       <c r="E4" s="289"/>
     </row>
     <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="432"/>
+      <c r="A5" s="428"/>
       <c r="B5" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C5" s="429"/>
-      <c r="D5" s="427"/>
+      <c r="C5" s="430"/>
+      <c r="D5" s="432"/>
       <c r="E5" s="289"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="432"/>
+      <c r="A6" s="428"/>
       <c r="B6" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C6" s="429"/>
+      <c r="C6" s="430"/>
       <c r="D6" s="292"/>
       <c r="E6" s="289"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="432"/>
+      <c r="A7" s="428"/>
       <c r="B7" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="429"/>
+      <c r="C7" s="430"/>
       <c r="D7" s="292"/>
       <c r="E7" s="289"/>
     </row>
     <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="432"/>
+      <c r="A8" s="428"/>
       <c r="B8" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C8" s="429"/>
+      <c r="C8" s="430"/>
       <c r="D8" s="292"/>
       <c r="E8" s="289"/>
     </row>
     <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="432"/>
+      <c r="A9" s="428"/>
       <c r="B9" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C9" s="429"/>
+      <c r="C9" s="430"/>
       <c r="D9" s="292"/>
       <c r="E9" s="289"/>
     </row>
     <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="432"/>
+      <c r="A10" s="428"/>
       <c r="B10" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C10" s="429"/>
+      <c r="C10" s="430"/>
       <c r="D10" s="292"/>
       <c r="E10" s="289"/>
     </row>
     <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="432"/>
+      <c r="A11" s="428"/>
       <c r="B11" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="429"/>
+      <c r="C11" s="430"/>
       <c r="D11" s="292"/>
       <c r="E11" s="289"/>
     </row>
     <row r="12" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="432"/>
+      <c r="A12" s="428"/>
       <c r="B12" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C12" s="429"/>
+      <c r="C12" s="430"/>
       <c r="D12" s="292"/>
       <c r="E12" s="289"/>
     </row>
     <row r="13" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="432"/>
+      <c r="A13" s="428"/>
       <c r="B13" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C13" s="429"/>
+      <c r="C13" s="430"/>
       <c r="D13" s="292"/>
       <c r="E13" s="289"/>
     </row>
@@ -16958,71 +17045,71 @@
       <c r="B14" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C14" s="430"/>
+      <c r="C14" s="431"/>
       <c r="D14" s="292"/>
       <c r="E14" s="289"/>
     </row>
     <row r="15" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="431" t="s">
+      <c r="A15" s="427" t="s">
         <v>591</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C15" s="428">
+      <c r="C15" s="429">
         <v>5</v>
       </c>
       <c r="D15" s="293"/>
       <c r="E15" s="289"/>
     </row>
     <row r="16" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="432"/>
+      <c r="A16" s="428"/>
       <c r="B16" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C16" s="429"/>
+      <c r="C16" s="430"/>
       <c r="D16" s="293"/>
       <c r="E16" s="289"/>
     </row>
     <row r="17" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="432"/>
+      <c r="A17" s="428"/>
       <c r="B17" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C17" s="429"/>
+      <c r="C17" s="430"/>
       <c r="E17" s="289"/>
     </row>
     <row r="18" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="432"/>
+      <c r="A18" s="428"/>
       <c r="B18" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C18" s="429"/>
+      <c r="C18" s="430"/>
       <c r="D18" s="293"/>
       <c r="E18" s="289"/>
     </row>
     <row r="19" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="432"/>
+      <c r="A19" s="428"/>
       <c r="B19" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C19" s="429"/>
+      <c r="C19" s="430"/>
       <c r="E19" s="289"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="432"/>
+      <c r="A20" s="428"/>
       <c r="B20" s="303" t="s">
         <v>431</v>
       </c>
-      <c r="C20" s="429"/>
+      <c r="C20" s="430"/>
       <c r="E20" s="289"/>
     </row>
     <row r="21" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="432"/>
+      <c r="A21" s="428"/>
       <c r="B21" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="C21" s="429"/>
+      <c r="C21" s="430"/>
       <c r="E21" s="289"/>
     </row>
     <row r="22" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -17030,59 +17117,59 @@
       <c r="B22" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="C22" s="430"/>
+      <c r="C22" s="431"/>
       <c r="E22" s="289"/>
     </row>
     <row r="23" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="431" t="s">
+      <c r="A23" s="427" t="s">
         <v>592</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C23" s="428">
+      <c r="C23" s="429">
         <v>5</v>
       </c>
       <c r="E23" s="289"/>
     </row>
     <row r="24" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="432"/>
+      <c r="A24" s="428"/>
       <c r="B24" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C24" s="429"/>
+      <c r="C24" s="430"/>
       <c r="E24" s="289"/>
     </row>
     <row r="25" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="432"/>
+      <c r="A25" s="428"/>
       <c r="B25" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="C25" s="429"/>
+      <c r="C25" s="430"/>
       <c r="E25" s="289"/>
     </row>
     <row r="26" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="432"/>
+      <c r="A26" s="428"/>
       <c r="B26" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C26" s="429"/>
+      <c r="C26" s="430"/>
       <c r="E26" s="289"/>
     </row>
     <row r="27" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="432"/>
+      <c r="A27" s="428"/>
       <c r="B27" s="303" t="s">
         <v>428</v>
       </c>
-      <c r="C27" s="429"/>
+      <c r="C27" s="430"/>
       <c r="E27" s="289"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A28" s="432"/>
+      <c r="A28" s="428"/>
       <c r="B28" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="C28" s="429"/>
+      <c r="C28" s="430"/>
       <c r="E28" s="289"/>
     </row>
     <row r="29" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -17090,61 +17177,61 @@
       <c r="B29" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="C29" s="430"/>
+      <c r="C29" s="431"/>
       <c r="D29" s="293"/>
       <c r="E29" s="289"/>
     </row>
     <row r="30" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="431" t="s">
+      <c r="A30" s="427" t="s">
         <v>607</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C30" s="428">
+      <c r="C30" s="429">
         <v>5</v>
       </c>
       <c r="D30" s="293"/>
       <c r="E30" s="289"/>
     </row>
     <row r="31" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="432"/>
+      <c r="A31" s="428"/>
       <c r="B31" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C31" s="429"/>
+      <c r="C31" s="430"/>
       <c r="E31" s="289"/>
     </row>
     <row r="32" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A32" s="432"/>
+      <c r="A32" s="428"/>
       <c r="B32" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C32" s="429"/>
+      <c r="C32" s="430"/>
       <c r="E32" s="289"/>
     </row>
     <row r="33" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="432"/>
+      <c r="A33" s="428"/>
       <c r="B33" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C33" s="429"/>
+      <c r="C33" s="430"/>
       <c r="E33" s="289"/>
     </row>
     <row r="34" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A34" s="432"/>
+      <c r="A34" s="428"/>
       <c r="B34" s="303" t="s">
         <v>432</v>
       </c>
-      <c r="C34" s="429"/>
+      <c r="C34" s="430"/>
       <c r="E34" s="289"/>
     </row>
     <row r="35" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="432"/>
+      <c r="A35" s="428"/>
       <c r="B35" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="C35" s="429"/>
+      <c r="C35" s="430"/>
       <c r="E35" s="289"/>
     </row>
     <row r="36" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -17152,69 +17239,69 @@
       <c r="B36" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="C36" s="430"/>
+      <c r="C36" s="431"/>
       <c r="D36" s="293"/>
       <c r="E36" s="289"/>
     </row>
     <row r="37" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="431" t="s">
+      <c r="A37" s="427" t="s">
         <v>593</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C37" s="428">
+      <c r="C37" s="429">
         <v>5</v>
       </c>
       <c r="E37" s="289"/>
     </row>
     <row r="38" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A38" s="432"/>
+      <c r="A38" s="428"/>
       <c r="B38" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C38" s="429"/>
+      <c r="C38" s="430"/>
       <c r="D38" s="293"/>
       <c r="E38" s="289"/>
     </row>
     <row r="39" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A39" s="432"/>
+      <c r="A39" s="428"/>
       <c r="B39" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="C39" s="429"/>
+      <c r="C39" s="430"/>
       <c r="E39" s="289"/>
     </row>
     <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="432"/>
+      <c r="A40" s="428"/>
       <c r="B40" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="C40" s="429"/>
+      <c r="C40" s="430"/>
       <c r="E40" s="289"/>
     </row>
     <row r="41" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="432"/>
+      <c r="A41" s="428"/>
       <c r="B41" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="C41" s="429"/>
+      <c r="C41" s="430"/>
       <c r="E41" s="289"/>
     </row>
     <row r="42" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="432"/>
+      <c r="A42" s="428"/>
       <c r="B42" s="303" t="s">
         <v>569</v>
       </c>
-      <c r="C42" s="429"/>
+      <c r="C42" s="430"/>
       <c r="E42" s="289"/>
     </row>
     <row r="43" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A43" s="432"/>
+      <c r="A43" s="428"/>
       <c r="B43" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="C43" s="429"/>
+      <c r="C43" s="430"/>
       <c r="E43" s="289"/>
     </row>
     <row r="44" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -17222,7 +17309,7 @@
       <c r="B44" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="C44" s="430"/>
+      <c r="C44" s="431"/>
       <c r="E44" s="289"/>
     </row>
     <row r="45" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -17232,7 +17319,7 @@
       <c r="B45" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C45" s="428">
+      <c r="C45" s="429">
         <v>5</v>
       </c>
       <c r="E45" s="289"/>
@@ -17242,7 +17329,7 @@
       <c r="B46" s="303" t="s">
         <v>434</v>
       </c>
-      <c r="C46" s="429"/>
+      <c r="C46" s="430"/>
       <c r="E46" s="289"/>
     </row>
     <row r="47" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -17250,7 +17337,7 @@
       <c r="B47" s="303" t="s">
         <v>427</v>
       </c>
-      <c r="C47" s="429"/>
+      <c r="C47" s="430"/>
       <c r="E47" s="289"/>
     </row>
     <row r="48" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -17258,7 +17345,7 @@
       <c r="B48" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="C48" s="429"/>
+      <c r="C48" s="430"/>
       <c r="E48" s="289"/>
     </row>
     <row r="49" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -17266,7 +17353,7 @@
       <c r="B49" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="C49" s="429"/>
+      <c r="C49" s="430"/>
       <c r="E49" s="289"/>
     </row>
     <row r="50" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -17274,7 +17361,7 @@
       <c r="B50" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="C50" s="429"/>
+      <c r="C50" s="430"/>
       <c r="E50" s="289"/>
     </row>
     <row r="51" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17282,14 +17369,14 @@
       <c r="B51" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="C51" s="429"/>
+      <c r="C51" s="430"/>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="421"/>
       <c r="B52" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="C52" s="430"/>
+      <c r="C52" s="431"/>
       <c r="D52" s="293"/>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17299,7 +17386,7 @@
       <c r="B53" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C53" s="428">
+      <c r="C53" s="429">
         <v>5</v>
       </c>
       <c r="D53" s="293"/>
@@ -17309,7 +17396,7 @@
       <c r="B54" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C54" s="429"/>
+      <c r="C54" s="430"/>
       <c r="D54" s="293"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -17317,7 +17404,7 @@
       <c r="B55" s="303" t="s">
         <v>429</v>
       </c>
-      <c r="C55" s="429"/>
+      <c r="C55" s="430"/>
       <c r="D55" s="293"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -17325,7 +17412,7 @@
       <c r="B56" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="C56" s="429"/>
+      <c r="C56" s="430"/>
       <c r="D56" s="293"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -17333,7 +17420,7 @@
       <c r="B57" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="C57" s="429"/>
+      <c r="C57" s="430"/>
       <c r="D57" s="293"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -17341,7 +17428,7 @@
       <c r="B58" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="C58" s="429"/>
+      <c r="C58" s="430"/>
       <c r="D58" s="293"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -17349,7 +17436,7 @@
       <c r="B59" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="C59" s="429"/>
+      <c r="C59" s="430"/>
       <c r="D59" s="293"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -17357,7 +17444,7 @@
       <c r="B60" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="C60" s="430"/>
+      <c r="C60" s="431"/>
       <c r="D60" s="293"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -17367,7 +17454,7 @@
       <c r="B61" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C61" s="428">
+      <c r="C61" s="429">
         <v>5</v>
       </c>
       <c r="D61" s="293"/>
@@ -17377,35 +17464,35 @@
       <c r="B62" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C62" s="429"/>
+      <c r="C62" s="430"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="421"/>
       <c r="B63" s="303" t="s">
         <v>433</v>
       </c>
-      <c r="C63" s="429"/>
+      <c r="C63" s="430"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="421"/>
       <c r="B64" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="C64" s="429"/>
+      <c r="C64" s="430"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="421"/>
       <c r="B65" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="C65" s="429"/>
+      <c r="C65" s="430"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="421"/>
       <c r="B66" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="C66" s="430"/>
+      <c r="C66" s="431"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
@@ -17571,10 +17658,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="A53:A60"/>
     <mergeCell ref="A61:A66"/>
     <mergeCell ref="C45:C52"/>
     <mergeCell ref="C53:C60"/>
@@ -17583,11 +17666,15 @@
     <mergeCell ref="C30:C36"/>
     <mergeCell ref="A37:A44"/>
     <mergeCell ref="C37:C44"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A53:A60"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="C2:C14"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="C15:C22"/>
-    <mergeCell ref="A23:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/game.xlsx
+++ b/game.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="1000" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Нации" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="905">
   <si>
     <t>Камень</t>
   </si>
@@ -2595,6 +2595,165 @@
   </si>
   <si>
     <t>Наносит себе 2 ед урона и берет нового юнита</t>
+  </si>
+  <si>
+    <t>Священник</t>
+  </si>
+  <si>
+    <t>Крестоносец</t>
+  </si>
+  <si>
+    <t>Ангел</t>
+  </si>
+  <si>
+    <t>Стрелок. Боевой клич: Наносит 1 ед урона</t>
+  </si>
+  <si>
+    <t>Юниты на выбранной линии получают +1/+1</t>
+  </si>
+  <si>
+    <t>Может наносить урон сквозь противников (в два раза меньший урон)</t>
+  </si>
+  <si>
+    <t>Восстанавливает 2 ед здоровья герою</t>
+  </si>
+  <si>
+    <t>За каждый поврежденный вражеский юнит вы получите по 1 ед веры</t>
+  </si>
+  <si>
+    <t>Светлые эльфы</t>
+  </si>
+  <si>
+    <t>Фея</t>
+  </si>
+  <si>
+    <t>Друид</t>
+  </si>
+  <si>
+    <t>Единорог</t>
+  </si>
+  <si>
+    <t>Алмазный дракон</t>
+  </si>
+  <si>
+    <t>В конце вашего хода насылает на противника случайное заклинание за 1 ярости</t>
+  </si>
+  <si>
+    <t>Урон от заклинания +1</t>
+  </si>
+  <si>
+    <t>Стрелок. Двойной выстрел</t>
+  </si>
+  <si>
+    <t>Энт</t>
+  </si>
+  <si>
+    <t>Дриада</t>
+  </si>
+  <si>
+    <t>Опутывает юнита, которого атакует, тем самым пропуская его ход</t>
+  </si>
+  <si>
+    <t>Боевой клич: наносит 2 ед урона случайным противникам</t>
+  </si>
+  <si>
+    <t>Гномы</t>
+  </si>
+  <si>
+    <t>Взрыватель</t>
+  </si>
+  <si>
+    <t>Гном-защитник</t>
+  </si>
+  <si>
+    <t>Огненный дракон</t>
+  </si>
+  <si>
+    <t>Жрец рун</t>
+  </si>
+  <si>
+    <t>Викинг</t>
+  </si>
+  <si>
+    <t>Наездник на медведе</t>
+  </si>
+  <si>
+    <t>Наносит 1 ед урона во время призыва и после смерти</t>
+  </si>
+  <si>
+    <t>Когда получает урон, вы получаете случайное заклинание рун</t>
+  </si>
+  <si>
+    <t>Получает +1/+1 при использовании заклинаний рун</t>
+  </si>
+  <si>
+    <t>Уничтожает существа, которым наносит урон</t>
+  </si>
+  <si>
+    <t>Гоблин</t>
+  </si>
+  <si>
+    <t>Орк-воин</t>
+  </si>
+  <si>
+    <t>Огр</t>
+  </si>
+  <si>
+    <t>Циклоп</t>
+  </si>
+  <si>
+    <t>Орк-арбалетчик</t>
+  </si>
+  <si>
+    <t>Орк-шаман</t>
+  </si>
+  <si>
+    <t>В конце каждого вашего хода наносит 1 ед урона случайному существу противника</t>
+  </si>
+  <si>
+    <t>Когда существо получает урон, он получает +1 к атаке</t>
+  </si>
+  <si>
+    <t>Последнее желание: уничтожает случайное существо на поле боя</t>
+  </si>
+  <si>
+    <t>Стрелок. Рождение: наносит 1 ед урона всем существам противника</t>
+  </si>
+  <si>
+    <t>Скелет</t>
+  </si>
+  <si>
+    <t>Зомби</t>
+  </si>
+  <si>
+    <t>Лич</t>
+  </si>
+  <si>
+    <t>Привидение</t>
+  </si>
+  <si>
+    <t>Вампир</t>
+  </si>
+  <si>
+    <t>Рыцарь смерти</t>
+  </si>
+  <si>
+    <t>Костяной дракон</t>
+  </si>
+  <si>
+    <t>Шанс 30%, что противник промахнется</t>
+  </si>
+  <si>
+    <t>Когда другие существа получают урон, восстанавливает себе +1 здоровья</t>
+  </si>
+  <si>
+    <t>Эффект страха на атакуемое существо</t>
+  </si>
+  <si>
+    <t>Все вражеские существа получают страх. Рывок</t>
+  </si>
+  <si>
+    <t>Всех, кого зомби убил, превращаются в мертвецов 0/1</t>
   </si>
 </sst>
 </file>
@@ -2844,7 +3003,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3076,6 +3235,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5A66D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3751,7 +3916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="450">
+  <cellXfs count="482">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4796,6 +4961,80 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4963,6 +5202,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC5A66D"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFDEBDFF"/>
       <color rgb="FFFF5050"/>
@@ -4972,7 +5212,6 @@
       <color rgb="FFFF99FF"/>
       <color rgb="FF9999FF"/>
       <color rgb="FF96A6BC"/>
-      <color rgb="FF556A85"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5681,8 +5920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -5713,503 +5952,503 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="400">
-        <v>1</v>
-      </c>
-      <c r="B2" s="402" t="s">
+      <c r="A2" s="432">
+        <v>1</v>
+      </c>
+      <c r="B2" s="434" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="436" t="s">
         <v>466</v>
       </c>
       <c r="D2" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="406" t="s">
+      <c r="H2" s="438" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="401"/>
-      <c r="B3" s="403"/>
-      <c r="C3" s="405"/>
+      <c r="A3" s="433"/>
+      <c r="B3" s="435"/>
+      <c r="C3" s="437"/>
       <c r="D3" s="155" t="s">
         <v>214</v>
       </c>
       <c r="E3" s="213">
         <v>75</v>
       </c>
-      <c r="H3" s="406"/>
+      <c r="H3" s="438"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="400">
+      <c r="A4" s="432">
         <v>2</v>
       </c>
-      <c r="B4" s="402" t="s">
+      <c r="B4" s="434" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="404" t="s">
+      <c r="C4" s="436" t="s">
         <v>463</v>
       </c>
       <c r="D4" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="H4" s="407" t="s">
+      <c r="H4" s="439" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="401"/>
-      <c r="B5" s="403"/>
-      <c r="C5" s="405"/>
+      <c r="A5" s="433"/>
+      <c r="B5" s="435"/>
+      <c r="C5" s="437"/>
       <c r="D5" s="155" t="s">
         <v>215</v>
       </c>
       <c r="E5" s="213">
         <v>80</v>
       </c>
-      <c r="H5" s="408"/>
+      <c r="H5" s="440"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="400">
+      <c r="A6" s="432">
         <v>3</v>
       </c>
-      <c r="B6" s="402" t="s">
+      <c r="B6" s="434" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="404" t="s">
+      <c r="C6" s="436" t="s">
         <v>464</v>
       </c>
       <c r="D6" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="407" t="s">
+      <c r="H6" s="439" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="401"/>
-      <c r="B7" s="403"/>
-      <c r="C7" s="405"/>
+      <c r="A7" s="433"/>
+      <c r="B7" s="435"/>
+      <c r="C7" s="437"/>
       <c r="D7" s="155" t="s">
         <v>216</v>
       </c>
       <c r="E7" s="213">
         <v>125</v>
       </c>
-      <c r="H7" s="408"/>
+      <c r="H7" s="440"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="400">
+      <c r="A8" s="432">
         <v>4</v>
       </c>
-      <c r="B8" s="402" t="s">
+      <c r="B8" s="434" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="404" t="s">
+      <c r="C8" s="436" t="s">
         <v>465</v>
       </c>
       <c r="D8" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="409" t="s">
+      <c r="H8" s="441" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="401"/>
-      <c r="B9" s="403"/>
-      <c r="C9" s="405"/>
+      <c r="A9" s="433"/>
+      <c r="B9" s="435"/>
+      <c r="C9" s="437"/>
       <c r="D9" s="155" t="s">
         <v>217</v>
       </c>
       <c r="E9" s="213">
         <v>150</v>
       </c>
-      <c r="H9" s="410"/>
+      <c r="H9" s="442"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="400">
+      <c r="A10" s="432">
         <v>5</v>
       </c>
-      <c r="B10" s="402" t="s">
+      <c r="B10" s="434" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="404" t="s">
+      <c r="C10" s="436" t="s">
         <v>195</v>
       </c>
       <c r="D10" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="411" t="s">
+      <c r="H10" s="443" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="401"/>
-      <c r="B11" s="403"/>
-      <c r="C11" s="405"/>
+      <c r="A11" s="433"/>
+      <c r="B11" s="435"/>
+      <c r="C11" s="437"/>
       <c r="D11" s="155" t="s">
         <v>817</v>
       </c>
       <c r="E11" s="213">
         <v>130</v>
       </c>
-      <c r="H11" s="412"/>
+      <c r="H11" s="444"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="400">
+      <c r="A12" s="432">
         <v>6</v>
       </c>
-      <c r="B12" s="402" t="s">
+      <c r="B12" s="434" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="404" t="s">
+      <c r="C12" s="436" t="s">
         <v>196</v>
       </c>
       <c r="D12" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="409" t="s">
+      <c r="H12" s="441" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="401"/>
-      <c r="B13" s="403"/>
-      <c r="C13" s="405"/>
+      <c r="A13" s="433"/>
+      <c r="B13" s="435"/>
+      <c r="C13" s="437"/>
       <c r="D13" s="155" t="s">
         <v>816</v>
       </c>
       <c r="E13" s="213">
         <v>220</v>
       </c>
-      <c r="H13" s="410"/>
+      <c r="H13" s="442"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="400">
+      <c r="A14" s="432">
         <v>7</v>
       </c>
-      <c r="B14" s="402" t="s">
+      <c r="B14" s="434" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="404" t="s">
+      <c r="C14" s="436" t="s">
         <v>467</v>
       </c>
       <c r="D14" s="154" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="413" t="s">
+      <c r="H14" s="445" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="401"/>
-      <c r="B15" s="403"/>
-      <c r="C15" s="405"/>
+      <c r="A15" s="433"/>
+      <c r="B15" s="435"/>
+      <c r="C15" s="437"/>
       <c r="D15" s="155" t="s">
         <v>218</v>
       </c>
       <c r="E15" s="213">
         <v>200</v>
       </c>
-      <c r="H15" s="414"/>
+      <c r="H15" s="446"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="400">
+      <c r="A16" s="432">
         <v>8</v>
       </c>
-      <c r="B16" s="402" t="s">
+      <c r="B16" s="434" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="404" t="s">
+      <c r="C16" s="436" t="s">
         <v>468</v>
       </c>
       <c r="D16" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="411" t="s">
+      <c r="H16" s="443" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="401"/>
-      <c r="B17" s="403"/>
-      <c r="C17" s="405"/>
+      <c r="A17" s="433"/>
+      <c r="B17" s="435"/>
+      <c r="C17" s="437"/>
       <c r="D17" s="155" t="s">
         <v>219</v>
       </c>
       <c r="E17" s="213">
         <v>300</v>
       </c>
-      <c r="H17" s="412"/>
+      <c r="H17" s="444"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="400">
+      <c r="A18" s="432">
         <v>9</v>
       </c>
-      <c r="B18" s="402" t="s">
+      <c r="B18" s="434" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="404" t="s">
+      <c r="C18" s="436" t="s">
         <v>197</v>
       </c>
       <c r="D18" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="413" t="s">
+      <c r="H18" s="445" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="401"/>
-      <c r="B19" s="403"/>
-      <c r="C19" s="405"/>
+      <c r="A19" s="433"/>
+      <c r="B19" s="435"/>
+      <c r="C19" s="437"/>
       <c r="D19" s="155" t="s">
         <v>220</v>
       </c>
       <c r="E19" s="213">
         <v>270</v>
       </c>
-      <c r="H19" s="414"/>
+      <c r="H19" s="446"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="400">
+      <c r="A20" s="432">
         <v>10</v>
       </c>
-      <c r="B20" s="402" t="s">
+      <c r="B20" s="434" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="404" t="s">
+      <c r="C20" s="436" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="409" t="s">
+      <c r="H20" s="441" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="401"/>
-      <c r="B21" s="403"/>
-      <c r="C21" s="405"/>
+      <c r="A21" s="433"/>
+      <c r="B21" s="435"/>
+      <c r="C21" s="437"/>
       <c r="D21" s="155" t="s">
         <v>221</v>
       </c>
       <c r="E21" s="213">
         <v>175</v>
       </c>
-      <c r="H21" s="410"/>
+      <c r="H21" s="442"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="400">
+      <c r="A22" s="432">
         <v>11</v>
       </c>
-      <c r="B22" s="402" t="s">
+      <c r="B22" s="434" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="404" t="s">
+      <c r="C22" s="436" t="s">
         <v>469</v>
       </c>
       <c r="D22" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="407" t="s">
+      <c r="H22" s="439" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="401"/>
-      <c r="B23" s="403"/>
-      <c r="C23" s="405"/>
+      <c r="A23" s="433"/>
+      <c r="B23" s="435"/>
+      <c r="C23" s="437"/>
       <c r="D23" s="155" t="s">
         <v>224</v>
       </c>
       <c r="E23" s="213">
         <v>240</v>
       </c>
-      <c r="H23" s="408"/>
+      <c r="H23" s="440"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="400">
+      <c r="A24" s="432">
         <v>12</v>
       </c>
-      <c r="B24" s="402" t="s">
+      <c r="B24" s="434" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="404" t="s">
+      <c r="C24" s="436" t="s">
         <v>470</v>
       </c>
       <c r="D24" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="409" t="s">
+      <c r="H24" s="441" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="401"/>
-      <c r="B25" s="403"/>
-      <c r="C25" s="405"/>
+      <c r="A25" s="433"/>
+      <c r="B25" s="435"/>
+      <c r="C25" s="437"/>
       <c r="D25" s="155" t="s">
         <v>93</v>
       </c>
       <c r="E25" s="213">
         <v>250</v>
       </c>
-      <c r="H25" s="410"/>
+      <c r="H25" s="442"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="400">
+      <c r="A26" s="432">
         <v>13</v>
       </c>
-      <c r="B26" s="402" t="s">
+      <c r="B26" s="434" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="404" t="s">
+      <c r="C26" s="436" t="s">
         <v>198</v>
       </c>
       <c r="D26" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="413" t="s">
+      <c r="H26" s="445" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="401"/>
-      <c r="B27" s="403"/>
-      <c r="C27" s="405"/>
+      <c r="A27" s="433"/>
+      <c r="B27" s="435"/>
+      <c r="C27" s="437"/>
       <c r="D27" s="155" t="s">
         <v>120</v>
       </c>
       <c r="E27" s="213">
         <v>320</v>
       </c>
-      <c r="H27" s="414"/>
+      <c r="H27" s="446"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="400">
+      <c r="A28" s="432">
         <v>14</v>
       </c>
-      <c r="B28" s="402" t="s">
+      <c r="B28" s="434" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="404" t="s">
+      <c r="C28" s="436" t="s">
         <v>472</v>
       </c>
       <c r="D28" s="154" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="411" t="s">
+      <c r="H28" s="443" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="401"/>
-      <c r="B29" s="403"/>
-      <c r="C29" s="405"/>
+      <c r="A29" s="433"/>
+      <c r="B29" s="435"/>
+      <c r="C29" s="437"/>
       <c r="D29" s="155" t="s">
         <v>223</v>
       </c>
       <c r="E29" s="213">
         <v>250</v>
       </c>
-      <c r="H29" s="412"/>
+      <c r="H29" s="444"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="400">
+      <c r="A30" s="432">
         <v>15</v>
       </c>
-      <c r="B30" s="402" t="s">
+      <c r="B30" s="434" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="404" t="s">
+      <c r="C30" s="436" t="s">
         <v>471</v>
       </c>
       <c r="D30" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="409" t="s">
+      <c r="H30" s="441" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="401"/>
-      <c r="B31" s="403"/>
-      <c r="C31" s="405"/>
+      <c r="A31" s="433"/>
+      <c r="B31" s="435"/>
+      <c r="C31" s="437"/>
       <c r="D31" s="155" t="s">
         <v>225</v>
       </c>
       <c r="E31" s="213">
         <v>230</v>
       </c>
-      <c r="H31" s="410"/>
+      <c r="H31" s="442"/>
     </row>
     <row r="33" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="34" spans="2:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="398" t="s">
+      <c r="C34" s="430" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="399"/>
+      <c r="D34" s="431"/>
     </row>
     <row r="35" spans="2:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="398" t="s">
+      <c r="C35" s="430" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="399"/>
+      <c r="D35" s="431"/>
     </row>
     <row r="36" spans="2:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="398" t="s">
+      <c r="C36" s="430" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="399"/>
+      <c r="D36" s="431"/>
     </row>
     <row r="37" spans="2:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="398" t="s">
+      <c r="C37" s="430" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="399"/>
+      <c r="D37" s="431"/>
     </row>
     <row r="38" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="398" t="s">
+      <c r="C38" s="430" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="399"/>
+      <c r="D38" s="431"/>
     </row>
     <row r="39" spans="2:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="398" t="s">
+      <c r="C39" s="430" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="399"/>
+      <c r="D39" s="431"/>
     </row>
     <row r="40" spans="2:4" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C40" s="398" t="s">
+      <c r="C40" s="430" t="s">
         <v>333</v>
       </c>
-      <c r="D40" s="399"/>
+      <c r="D40" s="431"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="2"/>
@@ -7051,11 +7290,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -9045,77 +9284,1097 @@
         <v>629</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="216"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="216"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="216"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="216"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="216"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="216"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="216"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="216"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="216"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="216"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="216"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="216"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="216"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="216"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="216"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="216"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="216"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="216"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="216"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="216"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="216"/>
-    </row>
-    <row r="118" spans="1:1" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="A118" s="215"/>
-    </row>
-    <row r="119" spans="1:1" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="A119" s="215"/>
-    </row>
-    <row r="120" spans="1:1" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="A120" s="215"/>
+    <row r="99" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="398"/>
+      <c r="B99" s="227"/>
+      <c r="C99" s="399"/>
+      <c r="D99" s="400"/>
+      <c r="E99" s="401"/>
+      <c r="F99" s="402"/>
+      <c r="G99" s="403"/>
+      <c r="H99" s="404"/>
+      <c r="I99" s="405"/>
+      <c r="J99" s="406"/>
+      <c r="K99" s="407"/>
+      <c r="L99" s="407"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="410" t="s">
+        <v>657</v>
+      </c>
+      <c r="B100" s="230"/>
+      <c r="C100" s="411"/>
+      <c r="D100" s="412"/>
+      <c r="E100" s="413"/>
+      <c r="F100" s="414"/>
+      <c r="G100" s="415"/>
+      <c r="H100" s="416"/>
+      <c r="I100" s="417"/>
+      <c r="J100" s="418"/>
+      <c r="K100" s="419"/>
+      <c r="L100" s="420"/>
+    </row>
+    <row r="101" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
+      <c r="A101" s="337" t="s">
+        <v>641</v>
+      </c>
+      <c r="C101" s="305">
+        <v>2</v>
+      </c>
+      <c r="D101" s="306">
+        <v>2</v>
+      </c>
+      <c r="E101" s="307"/>
+      <c r="F101" s="308"/>
+      <c r="G101" s="309">
+        <v>1</v>
+      </c>
+      <c r="H101" s="408">
+        <f>8*C101+5*D101+100*L101+10*(G101-1)</f>
+        <v>26</v>
+      </c>
+      <c r="I101" s="311"/>
+      <c r="J101" s="314"/>
+      <c r="K101" s="409"/>
+      <c r="L101" s="338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.5">
+      <c r="A102" s="337" t="s">
+        <v>655</v>
+      </c>
+      <c r="B102" s="219" t="s">
+        <v>855</v>
+      </c>
+      <c r="C102" s="305">
+        <v>1</v>
+      </c>
+      <c r="D102" s="306">
+        <v>1</v>
+      </c>
+      <c r="E102" s="307"/>
+      <c r="F102" s="308"/>
+      <c r="G102" s="309">
+        <v>1</v>
+      </c>
+      <c r="H102" s="408">
+        <f t="shared" ref="H102:H107" si="1">8*C102+5*D102+100*L102+10*(G102-1)</f>
+        <v>28</v>
+      </c>
+      <c r="I102" s="311"/>
+      <c r="J102" s="314"/>
+      <c r="K102" s="409"/>
+      <c r="L102" s="338">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="45" x14ac:dyDescent="0.5">
+      <c r="A103" s="337" t="s">
+        <v>638</v>
+      </c>
+      <c r="B103" s="219" t="s">
+        <v>857</v>
+      </c>
+      <c r="C103" s="305">
+        <v>2</v>
+      </c>
+      <c r="D103" s="306">
+        <v>3</v>
+      </c>
+      <c r="E103" s="307"/>
+      <c r="F103" s="308"/>
+      <c r="G103" s="309">
+        <v>2</v>
+      </c>
+      <c r="H103" s="408">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="I103" s="311"/>
+      <c r="J103" s="314"/>
+      <c r="K103" s="409"/>
+      <c r="L103" s="338">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.5">
+      <c r="A104" s="337" t="s">
+        <v>852</v>
+      </c>
+      <c r="B104" s="219" t="s">
+        <v>858</v>
+      </c>
+      <c r="C104" s="305">
+        <v>2</v>
+      </c>
+      <c r="D104" s="306">
+        <v>2</v>
+      </c>
+      <c r="E104" s="307"/>
+      <c r="F104" s="308"/>
+      <c r="G104" s="309">
+        <v>2</v>
+      </c>
+      <c r="H104" s="408">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="I104" s="311"/>
+      <c r="J104" s="314"/>
+      <c r="K104" s="409"/>
+      <c r="L104" s="338">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="45" x14ac:dyDescent="0.5">
+      <c r="A105" s="337" t="s">
+        <v>853</v>
+      </c>
+      <c r="B105" s="219" t="s">
+        <v>859</v>
+      </c>
+      <c r="C105" s="305">
+        <v>4</v>
+      </c>
+      <c r="D105" s="306">
+        <v>5</v>
+      </c>
+      <c r="E105" s="307"/>
+      <c r="F105" s="308"/>
+      <c r="G105" s="309">
+        <v>3</v>
+      </c>
+      <c r="H105" s="408">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="I105" s="311"/>
+      <c r="J105" s="314"/>
+      <c r="K105" s="409"/>
+      <c r="L105" s="338">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
+      <c r="A106" s="337" t="s">
+        <v>657</v>
+      </c>
+      <c r="B106" s="219" t="s">
+        <v>772</v>
+      </c>
+      <c r="C106" s="305">
+        <v>6</v>
+      </c>
+      <c r="D106" s="306">
+        <v>6</v>
+      </c>
+      <c r="E106" s="307"/>
+      <c r="F106" s="308"/>
+      <c r="G106" s="309">
+        <v>4</v>
+      </c>
+      <c r="H106" s="408">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="I106" s="311"/>
+      <c r="J106" s="314"/>
+      <c r="K106" s="409"/>
+      <c r="L106" s="338">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="421" t="s">
+        <v>854</v>
+      </c>
+      <c r="B107" s="232" t="s">
+        <v>856</v>
+      </c>
+      <c r="C107" s="339">
+        <v>7</v>
+      </c>
+      <c r="D107" s="340">
+        <v>7</v>
+      </c>
+      <c r="E107" s="341"/>
+      <c r="F107" s="342"/>
+      <c r="G107" s="343">
+        <v>5</v>
+      </c>
+      <c r="H107" s="422">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+      <c r="I107" s="344"/>
+      <c r="J107" s="345"/>
+      <c r="K107" s="423"/>
+      <c r="L107" s="346">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="410" t="s">
+        <v>860</v>
+      </c>
+      <c r="B108" s="230"/>
+      <c r="C108" s="411"/>
+      <c r="D108" s="412"/>
+      <c r="E108" s="413"/>
+      <c r="F108" s="414"/>
+      <c r="G108" s="415"/>
+      <c r="H108" s="416"/>
+      <c r="I108" s="417"/>
+      <c r="J108" s="418"/>
+      <c r="K108" s="419"/>
+      <c r="L108" s="420"/>
+    </row>
+    <row r="109" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
+      <c r="A109" s="384" t="s">
+        <v>861</v>
+      </c>
+      <c r="B109" s="219" t="s">
+        <v>758</v>
+      </c>
+      <c r="C109" s="305">
+        <v>1</v>
+      </c>
+      <c r="D109" s="306">
+        <v>1</v>
+      </c>
+      <c r="E109" s="307"/>
+      <c r="F109" s="308"/>
+      <c r="G109" s="309">
+        <v>1</v>
+      </c>
+      <c r="H109" s="408">
+        <f>8*C109+5*D109+100*L109+10*(G109-1)</f>
+        <v>28</v>
+      </c>
+      <c r="I109" s="311"/>
+      <c r="J109" s="314"/>
+      <c r="K109" s="409"/>
+      <c r="L109" s="338">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
+      <c r="A110" s="384" t="s">
+        <v>869</v>
+      </c>
+      <c r="C110" s="305">
+        <v>2</v>
+      </c>
+      <c r="D110" s="306">
+        <v>1</v>
+      </c>
+      <c r="E110" s="307"/>
+      <c r="F110" s="308"/>
+      <c r="G110" s="309">
+        <v>1</v>
+      </c>
+      <c r="H110" s="408">
+        <f t="shared" ref="H110:H115" si="2">8*C110+5*D110+100*L110+10*(G110-1)</f>
+        <v>21</v>
+      </c>
+      <c r="I110" s="311"/>
+      <c r="J110" s="314"/>
+      <c r="K110" s="409"/>
+      <c r="L110" s="338"/>
+    </row>
+    <row r="111" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
+      <c r="A111" s="384" t="s">
+        <v>843</v>
+      </c>
+      <c r="B111" s="219" t="s">
+        <v>867</v>
+      </c>
+      <c r="C111" s="305">
+        <v>2</v>
+      </c>
+      <c r="D111" s="306">
+        <v>3</v>
+      </c>
+      <c r="E111" s="307"/>
+      <c r="F111" s="308"/>
+      <c r="G111" s="309">
+        <v>2</v>
+      </c>
+      <c r="H111" s="408">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="I111" s="311"/>
+      <c r="J111" s="314"/>
+      <c r="K111" s="409"/>
+      <c r="L111" s="338">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="45" x14ac:dyDescent="0.5">
+      <c r="A112" s="384" t="s">
+        <v>868</v>
+      </c>
+      <c r="B112" s="219" t="s">
+        <v>870</v>
+      </c>
+      <c r="C112" s="305">
+        <v>3</v>
+      </c>
+      <c r="D112" s="306">
+        <v>3</v>
+      </c>
+      <c r="E112" s="307"/>
+      <c r="F112" s="308"/>
+      <c r="G112" s="309">
+        <v>2</v>
+      </c>
+      <c r="H112" s="408">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="I112" s="311"/>
+      <c r="J112" s="314"/>
+      <c r="K112" s="409"/>
+      <c r="L112" s="338">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.5">
+      <c r="A113" s="384" t="s">
+        <v>862</v>
+      </c>
+      <c r="B113" s="219" t="s">
+        <v>871</v>
+      </c>
+      <c r="C113" s="305">
+        <v>2</v>
+      </c>
+      <c r="D113" s="306">
+        <v>4</v>
+      </c>
+      <c r="E113" s="307"/>
+      <c r="F113" s="308"/>
+      <c r="G113" s="309">
+        <v>3</v>
+      </c>
+      <c r="H113" s="408">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="I113" s="311"/>
+      <c r="J113" s="314"/>
+      <c r="K113" s="409"/>
+      <c r="L113" s="338">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="45" x14ac:dyDescent="0.5">
+      <c r="A114" s="384" t="s">
+        <v>863</v>
+      </c>
+      <c r="B114" s="219" t="s">
+        <v>865</v>
+      </c>
+      <c r="C114" s="305">
+        <v>3</v>
+      </c>
+      <c r="D114" s="306">
+        <v>5</v>
+      </c>
+      <c r="E114" s="307"/>
+      <c r="F114" s="308"/>
+      <c r="G114" s="309">
+        <v>4</v>
+      </c>
+      <c r="H114" s="408">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="I114" s="311"/>
+      <c r="J114" s="314"/>
+      <c r="K114" s="409"/>
+      <c r="L114" s="338">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="385" t="s">
+        <v>864</v>
+      </c>
+      <c r="B115" s="232" t="s">
+        <v>866</v>
+      </c>
+      <c r="C115" s="339">
+        <v>4</v>
+      </c>
+      <c r="D115" s="340">
+        <v>10</v>
+      </c>
+      <c r="E115" s="341"/>
+      <c r="F115" s="342"/>
+      <c r="G115" s="343">
+        <v>5</v>
+      </c>
+      <c r="H115" s="422">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="I115" s="344"/>
+      <c r="J115" s="345"/>
+      <c r="K115" s="423"/>
+      <c r="L115" s="346">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="410" t="s">
+        <v>872</v>
+      </c>
+      <c r="B116" s="230"/>
+      <c r="C116" s="411"/>
+      <c r="D116" s="412"/>
+      <c r="E116" s="413"/>
+      <c r="F116" s="414"/>
+      <c r="G116" s="415"/>
+      <c r="H116" s="416"/>
+      <c r="I116" s="417"/>
+      <c r="J116" s="418"/>
+      <c r="K116" s="419"/>
+      <c r="L116" s="420"/>
+    </row>
+    <row r="117" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
+      <c r="A117" s="426" t="s">
+        <v>874</v>
+      </c>
+      <c r="C117" s="305">
+        <v>0</v>
+      </c>
+      <c r="D117" s="306">
+        <v>4</v>
+      </c>
+      <c r="E117" s="307"/>
+      <c r="F117" s="308"/>
+      <c r="G117" s="309">
+        <v>1</v>
+      </c>
+      <c r="H117" s="408">
+        <f>8*C117+5*D117+100*L117+10*(G117-1)</f>
+        <v>20</v>
+      </c>
+      <c r="I117" s="311"/>
+      <c r="J117" s="314"/>
+      <c r="K117" s="409"/>
+      <c r="L117" s="338"/>
+    </row>
+    <row r="118" spans="1:12" ht="30" x14ac:dyDescent="0.5">
+      <c r="A118" s="426" t="s">
+        <v>873</v>
+      </c>
+      <c r="B118" s="219" t="s">
+        <v>879</v>
+      </c>
+      <c r="C118" s="305">
+        <v>1</v>
+      </c>
+      <c r="D118" s="306">
+        <v>1</v>
+      </c>
+      <c r="E118" s="307"/>
+      <c r="F118" s="308"/>
+      <c r="G118" s="309">
+        <v>1</v>
+      </c>
+      <c r="H118" s="408">
+        <f t="shared" ref="H118:H123" si="3">8*C118+5*D118+100*L118+10*(G118-1)</f>
+        <v>33</v>
+      </c>
+      <c r="I118" s="311"/>
+      <c r="J118" s="314"/>
+      <c r="K118" s="409"/>
+      <c r="L118" s="338">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
+      <c r="A119" s="426" t="s">
+        <v>659</v>
+      </c>
+      <c r="B119" s="219" t="s">
+        <v>635</v>
+      </c>
+      <c r="C119" s="305">
+        <v>1</v>
+      </c>
+      <c r="D119" s="306">
+        <v>5</v>
+      </c>
+      <c r="E119" s="307"/>
+      <c r="F119" s="308"/>
+      <c r="G119" s="309">
+        <v>2</v>
+      </c>
+      <c r="H119" s="408">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="I119" s="311"/>
+      <c r="J119" s="314"/>
+      <c r="K119" s="409"/>
+      <c r="L119" s="338">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.5">
+      <c r="A120" s="426" t="s">
+        <v>876</v>
+      </c>
+      <c r="B120" s="219" t="s">
+        <v>880</v>
+      </c>
+      <c r="C120" s="305">
+        <v>2</v>
+      </c>
+      <c r="D120" s="306">
+        <v>2</v>
+      </c>
+      <c r="E120" s="307"/>
+      <c r="F120" s="308"/>
+      <c r="G120" s="309">
+        <v>2</v>
+      </c>
+      <c r="H120" s="408">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="I120" s="311"/>
+      <c r="J120" s="314"/>
+      <c r="K120" s="409"/>
+      <c r="L120" s="338">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
+      <c r="A121" s="426" t="s">
+        <v>877</v>
+      </c>
+      <c r="B121" s="219" t="s">
+        <v>758</v>
+      </c>
+      <c r="C121" s="305">
+        <v>4</v>
+      </c>
+      <c r="D121" s="306">
+        <v>2</v>
+      </c>
+      <c r="E121" s="307"/>
+      <c r="F121" s="308"/>
+      <c r="G121" s="309">
+        <v>3</v>
+      </c>
+      <c r="H121" s="408">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="I121" s="311"/>
+      <c r="J121" s="314"/>
+      <c r="K121" s="409"/>
+      <c r="L121" s="338">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.5">
+      <c r="A122" s="426" t="s">
+        <v>878</v>
+      </c>
+      <c r="B122" s="219" t="s">
+        <v>881</v>
+      </c>
+      <c r="C122" s="305">
+        <v>3</v>
+      </c>
+      <c r="D122" s="306">
+        <v>3</v>
+      </c>
+      <c r="E122" s="307"/>
+      <c r="F122" s="308"/>
+      <c r="G122" s="309">
+        <v>4</v>
+      </c>
+      <c r="H122" s="408">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="I122" s="311"/>
+      <c r="J122" s="314"/>
+      <c r="K122" s="409"/>
+      <c r="L122" s="338">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="427" t="s">
+        <v>875</v>
+      </c>
+      <c r="B123" s="232" t="s">
+        <v>882</v>
+      </c>
+      <c r="C123" s="339">
+        <v>5</v>
+      </c>
+      <c r="D123" s="340">
+        <v>5</v>
+      </c>
+      <c r="E123" s="341"/>
+      <c r="F123" s="342"/>
+      <c r="G123" s="343">
+        <v>5</v>
+      </c>
+      <c r="H123" s="422">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="I123" s="344"/>
+      <c r="J123" s="345"/>
+      <c r="K123" s="423"/>
+      <c r="L123" s="346">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="410" t="s">
+        <v>839</v>
+      </c>
+      <c r="B124" s="230"/>
+      <c r="C124" s="411"/>
+      <c r="D124" s="412"/>
+      <c r="E124" s="413"/>
+      <c r="F124" s="414"/>
+      <c r="G124" s="415"/>
+      <c r="H124" s="416"/>
+      <c r="I124" s="417"/>
+      <c r="J124" s="418"/>
+      <c r="K124" s="419"/>
+      <c r="L124" s="420"/>
+    </row>
+    <row r="125" spans="1:12" ht="45" x14ac:dyDescent="0.5">
+      <c r="A125" s="428" t="s">
+        <v>883</v>
+      </c>
+      <c r="B125" s="219" t="s">
+        <v>889</v>
+      </c>
+      <c r="C125" s="305">
+        <v>1</v>
+      </c>
+      <c r="D125" s="306">
+        <v>1</v>
+      </c>
+      <c r="E125" s="307"/>
+      <c r="F125" s="308"/>
+      <c r="G125" s="309">
+        <v>1</v>
+      </c>
+      <c r="H125" s="408">
+        <f>8*C125+5*D125+100*L125+10*(G125-1)</f>
+        <v>28</v>
+      </c>
+      <c r="I125" s="311"/>
+      <c r="J125" s="314"/>
+      <c r="K125" s="409"/>
+      <c r="L125" s="338">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="30" x14ac:dyDescent="0.5">
+      <c r="A126" s="428" t="s">
+        <v>884</v>
+      </c>
+      <c r="B126" s="219" t="s">
+        <v>890</v>
+      </c>
+      <c r="C126" s="305">
+        <v>1</v>
+      </c>
+      <c r="D126" s="306">
+        <v>3</v>
+      </c>
+      <c r="E126" s="307"/>
+      <c r="F126" s="308"/>
+      <c r="G126" s="309">
+        <v>1</v>
+      </c>
+      <c r="H126" s="408">
+        <f t="shared" ref="H126:H131" si="4">8*C126+5*D126+100*L126+10*(G126-1)</f>
+        <v>38</v>
+      </c>
+      <c r="I126" s="311"/>
+      <c r="J126" s="314"/>
+      <c r="K126" s="409"/>
+      <c r="L126" s="338">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
+      <c r="A127" s="428" t="s">
+        <v>632</v>
+      </c>
+      <c r="B127" s="219" t="s">
+        <v>758</v>
+      </c>
+      <c r="C127" s="305">
+        <v>3</v>
+      </c>
+      <c r="D127" s="306">
+        <v>2</v>
+      </c>
+      <c r="E127" s="307"/>
+      <c r="F127" s="308"/>
+      <c r="G127" s="309">
+        <v>2</v>
+      </c>
+      <c r="H127" s="408">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="I127" s="311"/>
+      <c r="J127" s="314"/>
+      <c r="K127" s="409"/>
+      <c r="L127" s="338">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
+      <c r="A128" s="428" t="s">
+        <v>887</v>
+      </c>
+      <c r="B128" s="219" t="s">
+        <v>635</v>
+      </c>
+      <c r="C128" s="305">
+        <v>2</v>
+      </c>
+      <c r="D128" s="306">
+        <v>4</v>
+      </c>
+      <c r="E128" s="307"/>
+      <c r="F128" s="308"/>
+      <c r="G128" s="309">
+        <v>2</v>
+      </c>
+      <c r="H128" s="408">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="I128" s="311"/>
+      <c r="J128" s="314"/>
+      <c r="K128" s="409"/>
+      <c r="L128" s="338">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
+      <c r="A129" s="428" t="s">
+        <v>885</v>
+      </c>
+      <c r="C129" s="305">
+        <v>6</v>
+      </c>
+      <c r="D129" s="306">
+        <v>5</v>
+      </c>
+      <c r="E129" s="307"/>
+      <c r="F129" s="308"/>
+      <c r="G129" s="309">
+        <v>3</v>
+      </c>
+      <c r="H129" s="408">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="I129" s="311"/>
+      <c r="J129" s="314"/>
+      <c r="K129" s="409"/>
+      <c r="L129" s="338"/>
+    </row>
+    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.5">
+      <c r="A130" s="428" t="s">
+        <v>888</v>
+      </c>
+      <c r="B130" s="219" t="s">
+        <v>891</v>
+      </c>
+      <c r="C130" s="305">
+        <v>3</v>
+      </c>
+      <c r="D130" s="306">
+        <v>3</v>
+      </c>
+      <c r="E130" s="307"/>
+      <c r="F130" s="308"/>
+      <c r="G130" s="309">
+        <v>4</v>
+      </c>
+      <c r="H130" s="408">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="I130" s="311"/>
+      <c r="J130" s="314"/>
+      <c r="K130" s="409"/>
+      <c r="L130" s="338">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="429" t="s">
+        <v>886</v>
+      </c>
+      <c r="B131" s="232" t="s">
+        <v>892</v>
+      </c>
+      <c r="C131" s="339">
+        <v>5</v>
+      </c>
+      <c r="D131" s="340">
+        <v>4</v>
+      </c>
+      <c r="E131" s="341"/>
+      <c r="F131" s="342"/>
+      <c r="G131" s="343">
+        <v>5</v>
+      </c>
+      <c r="H131" s="422">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="I131" s="344"/>
+      <c r="J131" s="345"/>
+      <c r="K131" s="423"/>
+      <c r="L131" s="346">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="410" t="s">
+        <v>840</v>
+      </c>
+      <c r="B132" s="230"/>
+      <c r="C132" s="411"/>
+      <c r="D132" s="412"/>
+      <c r="E132" s="413"/>
+      <c r="F132" s="414"/>
+      <c r="G132" s="415"/>
+      <c r="H132" s="416"/>
+      <c r="I132" s="417"/>
+      <c r="J132" s="418"/>
+      <c r="K132" s="419"/>
+      <c r="L132" s="420"/>
+    </row>
+    <row r="133" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
+      <c r="A133" s="424" t="s">
+        <v>893</v>
+      </c>
+      <c r="C133" s="305">
+        <v>1</v>
+      </c>
+      <c r="D133" s="306">
+        <v>1</v>
+      </c>
+      <c r="E133" s="307"/>
+      <c r="F133" s="308"/>
+      <c r="G133" s="309">
+        <v>1</v>
+      </c>
+      <c r="H133" s="408">
+        <f>8*C133+5*D133+100*L133+10*(G133-1)</f>
+        <v>13</v>
+      </c>
+      <c r="I133" s="311"/>
+      <c r="J133" s="314"/>
+      <c r="K133" s="409"/>
+      <c r="L133" s="338"/>
+    </row>
+    <row r="134" spans="1:12" ht="30" x14ac:dyDescent="0.5">
+      <c r="A134" s="424" t="s">
+        <v>894</v>
+      </c>
+      <c r="B134" s="219" t="s">
+        <v>904</v>
+      </c>
+      <c r="C134" s="305">
+        <v>2</v>
+      </c>
+      <c r="D134" s="306">
+        <v>4</v>
+      </c>
+      <c r="E134" s="307"/>
+      <c r="F134" s="308"/>
+      <c r="G134" s="309">
+        <v>1</v>
+      </c>
+      <c r="H134" s="408">
+        <f t="shared" ref="H134:H139" si="5">8*C134+5*D134+100*L134+10*(G134-1)</f>
+        <v>26</v>
+      </c>
+      <c r="I134" s="311"/>
+      <c r="J134" s="314"/>
+      <c r="K134" s="409"/>
+      <c r="L134" s="338">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.5">
+      <c r="A135" s="424" t="s">
+        <v>896</v>
+      </c>
+      <c r="B135" s="219" t="s">
+        <v>900</v>
+      </c>
+      <c r="C135" s="305">
+        <v>1</v>
+      </c>
+      <c r="D135" s="306">
+        <v>3</v>
+      </c>
+      <c r="E135" s="307"/>
+      <c r="F135" s="308"/>
+      <c r="G135" s="309">
+        <v>2</v>
+      </c>
+      <c r="H135" s="408">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="I135" s="311"/>
+      <c r="J135" s="314"/>
+      <c r="K135" s="409"/>
+      <c r="L135" s="338">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="45" x14ac:dyDescent="0.5">
+      <c r="A136" s="424" t="s">
+        <v>897</v>
+      </c>
+      <c r="B136" s="219" t="s">
+        <v>901</v>
+      </c>
+      <c r="C136" s="305">
+        <v>2</v>
+      </c>
+      <c r="D136" s="306">
+        <v>6</v>
+      </c>
+      <c r="E136" s="307"/>
+      <c r="F136" s="308"/>
+      <c r="G136" s="309">
+        <v>2</v>
+      </c>
+      <c r="H136" s="408">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="I136" s="311"/>
+      <c r="J136" s="314"/>
+      <c r="K136" s="409"/>
+      <c r="L136" s="338">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
+      <c r="A137" s="424" t="s">
+        <v>895</v>
+      </c>
+      <c r="B137" s="219" t="s">
+        <v>635</v>
+      </c>
+      <c r="C137" s="305">
+        <v>3</v>
+      </c>
+      <c r="D137" s="306">
+        <v>5</v>
+      </c>
+      <c r="E137" s="307"/>
+      <c r="F137" s="308"/>
+      <c r="G137" s="309">
+        <v>3</v>
+      </c>
+      <c r="H137" s="408">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="I137" s="311"/>
+      <c r="J137" s="314"/>
+      <c r="K137" s="409"/>
+      <c r="L137" s="338">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="30" x14ac:dyDescent="0.5">
+      <c r="A138" s="424" t="s">
+        <v>898</v>
+      </c>
+      <c r="B138" s="219" t="s">
+        <v>902</v>
+      </c>
+      <c r="C138" s="305">
+        <v>5</v>
+      </c>
+      <c r="D138" s="306">
+        <v>6</v>
+      </c>
+      <c r="E138" s="307"/>
+      <c r="F138" s="308"/>
+      <c r="G138" s="309">
+        <v>4</v>
+      </c>
+      <c r="H138" s="408">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="I138" s="311"/>
+      <c r="J138" s="314"/>
+      <c r="K138" s="409"/>
+      <c r="L138" s="338">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="425" t="s">
+        <v>899</v>
+      </c>
+      <c r="B139" s="232" t="s">
+        <v>903</v>
+      </c>
+      <c r="C139" s="339">
+        <v>7</v>
+      </c>
+      <c r="D139" s="340">
+        <v>1</v>
+      </c>
+      <c r="E139" s="341"/>
+      <c r="F139" s="342"/>
+      <c r="G139" s="343">
+        <v>5</v>
+      </c>
+      <c r="H139" s="422">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+      <c r="I139" s="344"/>
+      <c r="J139" s="345"/>
+      <c r="K139" s="423"/>
+      <c r="L139" s="346">
+        <v>0.35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9702,12 +10961,12 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="439" t="s">
+      <c r="A2" s="471" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="440"/>
-      <c r="C2" s="441"/>
-      <c r="D2" s="436">
+      <c r="B2" s="472"/>
+      <c r="C2" s="473"/>
+      <c r="D2" s="468">
         <f>AVERAGE(C3,C25,C46)</f>
         <v>0.26914682539682538</v>
       </c>
@@ -9720,11 +10979,11 @@
       <c r="B3" s="258">
         <v>1</v>
       </c>
-      <c r="C3" s="438">
+      <c r="C3" s="470">
         <f>AVERAGE(B3:B23)</f>
         <v>0.47619047619047616</v>
       </c>
-      <c r="D3" s="437"/>
+      <c r="D3" s="469"/>
       <c r="J3" s="255"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9734,8 +10993,8 @@
       <c r="B4" s="258">
         <v>1</v>
       </c>
-      <c r="C4" s="438"/>
-      <c r="D4" s="437"/>
+      <c r="C4" s="470"/>
+      <c r="D4" s="469"/>
       <c r="J4" s="255"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9745,8 +11004,8 @@
       <c r="B5" s="258">
         <v>1</v>
       </c>
-      <c r="C5" s="438"/>
-      <c r="D5" s="437"/>
+      <c r="C5" s="470"/>
+      <c r="D5" s="469"/>
       <c r="J5" s="255"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9756,8 +11015,8 @@
       <c r="B6" s="258">
         <v>1</v>
       </c>
-      <c r="C6" s="438"/>
-      <c r="D6" s="437"/>
+      <c r="C6" s="470"/>
+      <c r="D6" s="469"/>
       <c r="J6" s="255"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -9767,8 +11026,8 @@
       <c r="B7" s="258">
         <v>0</v>
       </c>
-      <c r="C7" s="438"/>
-      <c r="D7" s="437"/>
+      <c r="C7" s="470"/>
+      <c r="D7" s="469"/>
       <c r="J7" s="255"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -9778,8 +11037,8 @@
       <c r="B8" s="258">
         <v>1</v>
       </c>
-      <c r="C8" s="438"/>
-      <c r="D8" s="437"/>
+      <c r="C8" s="470"/>
+      <c r="D8" s="469"/>
       <c r="J8" s="255"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -9789,8 +11048,8 @@
       <c r="B9" s="258">
         <v>1</v>
       </c>
-      <c r="C9" s="438"/>
-      <c r="D9" s="437"/>
+      <c r="C9" s="470"/>
+      <c r="D9" s="469"/>
       <c r="J9" s="255"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -9800,8 +11059,8 @@
       <c r="B10" s="258">
         <v>1</v>
       </c>
-      <c r="C10" s="438"/>
-      <c r="D10" s="437"/>
+      <c r="C10" s="470"/>
+      <c r="D10" s="469"/>
       <c r="J10" s="255"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9811,8 +11070,8 @@
       <c r="B11" s="258">
         <v>1</v>
       </c>
-      <c r="C11" s="438"/>
-      <c r="D11" s="437"/>
+      <c r="C11" s="470"/>
+      <c r="D11" s="469"/>
       <c r="J11" s="255"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -9822,8 +11081,8 @@
       <c r="B12" s="258">
         <v>1</v>
       </c>
-      <c r="C12" s="438"/>
-      <c r="D12" s="437"/>
+      <c r="C12" s="470"/>
+      <c r="D12" s="469"/>
       <c r="J12" s="255"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -9833,8 +11092,8 @@
       <c r="B13" s="258">
         <v>1</v>
       </c>
-      <c r="C13" s="438"/>
-      <c r="D13" s="437"/>
+      <c r="C13" s="470"/>
+      <c r="D13" s="469"/>
       <c r="J13" s="255"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -9844,8 +11103,8 @@
       <c r="B14" s="258">
         <v>0</v>
       </c>
-      <c r="C14" s="438"/>
-      <c r="D14" s="437"/>
+      <c r="C14" s="470"/>
+      <c r="D14" s="469"/>
       <c r="J14" s="255"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -9855,8 +11114,8 @@
       <c r="B15" s="258">
         <v>0</v>
       </c>
-      <c r="C15" s="438"/>
-      <c r="D15" s="437"/>
+      <c r="C15" s="470"/>
+      <c r="D15" s="469"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="116" t="s">
@@ -9865,8 +11124,8 @@
       <c r="B16" s="258">
         <v>0</v>
       </c>
-      <c r="C16" s="438"/>
-      <c r="D16" s="437"/>
+      <c r="C16" s="470"/>
+      <c r="D16" s="469"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="116" t="s">
@@ -9875,8 +11134,8 @@
       <c r="B17" s="258">
         <v>0</v>
       </c>
-      <c r="C17" s="438"/>
-      <c r="D17" s="437"/>
+      <c r="C17" s="470"/>
+      <c r="D17" s="469"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="116" t="s">
@@ -9885,8 +11144,8 @@
       <c r="B18" s="258">
         <v>0</v>
       </c>
-      <c r="C18" s="438"/>
-      <c r="D18" s="437"/>
+      <c r="C18" s="470"/>
+      <c r="D18" s="469"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
@@ -9895,8 +11154,8 @@
       <c r="B19" s="258">
         <v>0</v>
       </c>
-      <c r="C19" s="438"/>
-      <c r="D19" s="437"/>
+      <c r="C19" s="470"/>
+      <c r="D19" s="469"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="116" t="s">
@@ -9905,8 +11164,8 @@
       <c r="B20" s="258">
         <v>0</v>
       </c>
-      <c r="C20" s="438"/>
-      <c r="D20" s="437"/>
+      <c r="C20" s="470"/>
+      <c r="D20" s="469"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="116" t="s">
@@ -9915,8 +11174,8 @@
       <c r="B21" s="258">
         <v>0</v>
       </c>
-      <c r="C21" s="438"/>
-      <c r="D21" s="437"/>
+      <c r="C21" s="470"/>
+      <c r="D21" s="469"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="116" t="s">
@@ -9925,8 +11184,8 @@
       <c r="B22" s="258">
         <v>0</v>
       </c>
-      <c r="C22" s="438"/>
-      <c r="D22" s="437"/>
+      <c r="C22" s="470"/>
+      <c r="D22" s="469"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="116" t="s">
@@ -9935,16 +11194,16 @@
       <c r="B23" s="258">
         <v>0</v>
       </c>
-      <c r="C23" s="438"/>
-      <c r="D23" s="437"/>
+      <c r="C23" s="470"/>
+      <c r="D23" s="469"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="442" t="s">
+      <c r="A24" s="474" t="s">
         <v>474</v>
       </c>
-      <c r="B24" s="442"/>
-      <c r="C24" s="442"/>
-      <c r="D24" s="437"/>
+      <c r="B24" s="474"/>
+      <c r="C24" s="474"/>
+      <c r="D24" s="469"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="260" t="s">
@@ -9953,11 +11212,11 @@
       <c r="B25" s="258">
         <v>1</v>
       </c>
-      <c r="C25" s="438">
+      <c r="C25" s="470">
         <f>AVERAGE(B25:B44)</f>
         <v>0.05</v>
       </c>
-      <c r="D25" s="437"/>
+      <c r="D25" s="469"/>
       <c r="J25" s="7" t="s">
         <v>56</v>
       </c>
@@ -9969,8 +11228,8 @@
       <c r="B26" s="258">
         <v>0</v>
       </c>
-      <c r="C26" s="438"/>
-      <c r="D26" s="437"/>
+      <c r="C26" s="470"/>
+      <c r="D26" s="469"/>
       <c r="J26" s="7" t="s">
         <v>247</v>
       </c>
@@ -9982,8 +11241,8 @@
       <c r="B27" s="258">
         <v>0</v>
       </c>
-      <c r="C27" s="438"/>
-      <c r="D27" s="437"/>
+      <c r="C27" s="470"/>
+      <c r="D27" s="469"/>
       <c r="J27" s="7" t="s">
         <v>248</v>
       </c>
@@ -9995,8 +11254,8 @@
       <c r="B28" s="258">
         <v>0</v>
       </c>
-      <c r="C28" s="438"/>
-      <c r="D28" s="437"/>
+      <c r="C28" s="470"/>
+      <c r="D28" s="469"/>
       <c r="J28" s="7" t="s">
         <v>249</v>
       </c>
@@ -10008,8 +11267,8 @@
       <c r="B29" s="258">
         <v>0</v>
       </c>
-      <c r="C29" s="438"/>
-      <c r="D29" s="437"/>
+      <c r="C29" s="470"/>
+      <c r="D29" s="469"/>
       <c r="J29" s="7" t="s">
         <v>250</v>
       </c>
@@ -10021,8 +11280,8 @@
       <c r="B30" s="258">
         <v>0</v>
       </c>
-      <c r="C30" s="438"/>
-      <c r="D30" s="437"/>
+      <c r="C30" s="470"/>
+      <c r="D30" s="469"/>
       <c r="J30" s="7" t="s">
         <v>261</v>
       </c>
@@ -10034,8 +11293,8 @@
       <c r="B31" s="258">
         <v>0</v>
       </c>
-      <c r="C31" s="438"/>
-      <c r="D31" s="437"/>
+      <c r="C31" s="470"/>
+      <c r="D31" s="469"/>
       <c r="J31" s="7" t="s">
         <v>57</v>
       </c>
@@ -10047,8 +11306,8 @@
       <c r="B32" s="258">
         <v>0</v>
       </c>
-      <c r="C32" s="438"/>
-      <c r="D32" s="437"/>
+      <c r="C32" s="470"/>
+      <c r="D32" s="469"/>
       <c r="J32" s="7" t="s">
         <v>58</v>
       </c>
@@ -10060,8 +11319,8 @@
       <c r="B33" s="258">
         <v>0</v>
       </c>
-      <c r="C33" s="438"/>
-      <c r="D33" s="437"/>
+      <c r="C33" s="470"/>
+      <c r="D33" s="469"/>
       <c r="J33" s="7" t="s">
         <v>1</v>
       </c>
@@ -10073,8 +11332,8 @@
       <c r="B34" s="258">
         <v>0</v>
       </c>
-      <c r="C34" s="438"/>
-      <c r="D34" s="437"/>
+      <c r="C34" s="470"/>
+      <c r="D34" s="469"/>
       <c r="J34" s="7" t="s">
         <v>59</v>
       </c>
@@ -10086,8 +11345,8 @@
       <c r="B35" s="258">
         <v>0</v>
       </c>
-      <c r="C35" s="438"/>
-      <c r="D35" s="437"/>
+      <c r="C35" s="470"/>
+      <c r="D35" s="469"/>
       <c r="J35" s="7" t="s">
         <v>61</v>
       </c>
@@ -10099,8 +11358,8 @@
       <c r="B36" s="258">
         <v>0</v>
       </c>
-      <c r="C36" s="438"/>
-      <c r="D36" s="437"/>
+      <c r="C36" s="470"/>
+      <c r="D36" s="469"/>
       <c r="J36" s="7" t="s">
         <v>62</v>
       </c>
@@ -10112,8 +11371,8 @@
       <c r="B37" s="258">
         <v>0</v>
       </c>
-      <c r="C37" s="438"/>
-      <c r="D37" s="437"/>
+      <c r="C37" s="470"/>
+      <c r="D37" s="469"/>
       <c r="J37" s="7" t="s">
         <v>63</v>
       </c>
@@ -10125,8 +11384,8 @@
       <c r="B38" s="258">
         <v>0</v>
       </c>
-      <c r="C38" s="438"/>
-      <c r="D38" s="437"/>
+      <c r="C38" s="470"/>
+      <c r="D38" s="469"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="260" t="s">
@@ -10135,8 +11394,8 @@
       <c r="B39" s="258">
         <v>0</v>
       </c>
-      <c r="C39" s="438"/>
-      <c r="D39" s="437"/>
+      <c r="C39" s="470"/>
+      <c r="D39" s="469"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="260" t="s">
@@ -10145,8 +11404,8 @@
       <c r="B40" s="258">
         <v>0</v>
       </c>
-      <c r="C40" s="438"/>
-      <c r="D40" s="437"/>
+      <c r="C40" s="470"/>
+      <c r="D40" s="469"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="260" t="s">
@@ -10155,8 +11414,8 @@
       <c r="B41" s="258">
         <v>0</v>
       </c>
-      <c r="C41" s="438"/>
-      <c r="D41" s="437"/>
+      <c r="C41" s="470"/>
+      <c r="D41" s="469"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="260" t="s">
@@ -10165,8 +11424,8 @@
       <c r="B42" s="258">
         <v>0</v>
       </c>
-      <c r="C42" s="438"/>
-      <c r="D42" s="437"/>
+      <c r="C42" s="470"/>
+      <c r="D42" s="469"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="260" t="s">
@@ -10175,8 +11434,8 @@
       <c r="B43" s="258">
         <v>0</v>
       </c>
-      <c r="C43" s="438"/>
-      <c r="D43" s="437"/>
+      <c r="C43" s="470"/>
+      <c r="D43" s="469"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="260" t="s">
@@ -10185,16 +11444,16 @@
       <c r="B44" s="258">
         <v>0</v>
       </c>
-      <c r="C44" s="438"/>
-      <c r="D44" s="437"/>
+      <c r="C44" s="470"/>
+      <c r="D44" s="469"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="442" t="s">
+      <c r="A45" s="474" t="s">
         <v>495</v>
       </c>
-      <c r="B45" s="442"/>
-      <c r="C45" s="442"/>
-      <c r="D45" s="437"/>
+      <c r="B45" s="474"/>
+      <c r="C45" s="474"/>
+      <c r="D45" s="469"/>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="260" t="s">
@@ -10203,11 +11462,11 @@
       <c r="B46" s="258">
         <v>1</v>
       </c>
-      <c r="C46" s="433">
+      <c r="C46" s="465">
         <f>AVERAGE(B46:B109)</f>
         <v>0.28125</v>
       </c>
-      <c r="D46" s="437"/>
+      <c r="D46" s="469"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="260" t="s">
@@ -10216,8 +11475,8 @@
       <c r="B47" s="258">
         <v>1</v>
       </c>
-      <c r="C47" s="434"/>
-      <c r="D47" s="437"/>
+      <c r="C47" s="466"/>
+      <c r="D47" s="469"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="260" t="s">
@@ -10226,8 +11485,8 @@
       <c r="B48" s="258">
         <v>0</v>
       </c>
-      <c r="C48" s="434"/>
-      <c r="D48" s="437"/>
+      <c r="C48" s="466"/>
+      <c r="D48" s="469"/>
       <c r="J48" s="255"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -10237,8 +11496,8 @@
       <c r="B49" s="258">
         <v>0</v>
       </c>
-      <c r="C49" s="434"/>
-      <c r="D49" s="437"/>
+      <c r="C49" s="466"/>
+      <c r="D49" s="469"/>
       <c r="J49" s="255"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -10248,8 +11507,8 @@
       <c r="B50" s="258">
         <v>0</v>
       </c>
-      <c r="C50" s="434"/>
-      <c r="D50" s="437"/>
+      <c r="C50" s="466"/>
+      <c r="D50" s="469"/>
       <c r="J50" s="255"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -10259,8 +11518,8 @@
       <c r="B51" s="258">
         <v>1</v>
       </c>
-      <c r="C51" s="434"/>
-      <c r="D51" s="437"/>
+      <c r="C51" s="466"/>
+      <c r="D51" s="469"/>
       <c r="J51" s="255"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -10270,8 +11529,8 @@
       <c r="B52" s="258">
         <v>1</v>
       </c>
-      <c r="C52" s="434"/>
-      <c r="D52" s="437"/>
+      <c r="C52" s="466"/>
+      <c r="D52" s="469"/>
       <c r="J52" s="255"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -10281,8 +11540,8 @@
       <c r="B53" s="258">
         <v>0</v>
       </c>
-      <c r="C53" s="434"/>
-      <c r="D53" s="437"/>
+      <c r="C53" s="466"/>
+      <c r="D53" s="469"/>
       <c r="J53" s="255"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -10292,8 +11551,8 @@
       <c r="B54" s="258">
         <v>0</v>
       </c>
-      <c r="C54" s="434"/>
-      <c r="D54" s="437"/>
+      <c r="C54" s="466"/>
+      <c r="D54" s="469"/>
       <c r="J54" s="255"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -10303,8 +11562,8 @@
       <c r="B55" s="258">
         <v>1</v>
       </c>
-      <c r="C55" s="434"/>
-      <c r="D55" s="437"/>
+      <c r="C55" s="466"/>
+      <c r="D55" s="469"/>
       <c r="J55" s="255"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -10314,8 +11573,8 @@
       <c r="B56" s="258">
         <v>1</v>
       </c>
-      <c r="C56" s="434"/>
-      <c r="D56" s="437"/>
+      <c r="C56" s="466"/>
+      <c r="D56" s="469"/>
       <c r="J56" s="255"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -10325,8 +11584,8 @@
       <c r="B57" s="258">
         <v>0</v>
       </c>
-      <c r="C57" s="434"/>
-      <c r="D57" s="437"/>
+      <c r="C57" s="466"/>
+      <c r="D57" s="469"/>
       <c r="J57" s="255"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -10336,8 +11595,8 @@
       <c r="B58" s="258">
         <v>0</v>
       </c>
-      <c r="C58" s="434"/>
-      <c r="D58" s="437"/>
+      <c r="C58" s="466"/>
+      <c r="D58" s="469"/>
       <c r="J58" s="255"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -10347,8 +11606,8 @@
       <c r="B59" s="258">
         <v>1</v>
       </c>
-      <c r="C59" s="434"/>
-      <c r="D59" s="437"/>
+      <c r="C59" s="466"/>
+      <c r="D59" s="469"/>
       <c r="J59" s="255"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -10358,8 +11617,8 @@
       <c r="B60" s="258">
         <v>0</v>
       </c>
-      <c r="C60" s="434"/>
-      <c r="D60" s="437"/>
+      <c r="C60" s="466"/>
+      <c r="D60" s="469"/>
       <c r="J60" s="255"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -10369,8 +11628,8 @@
       <c r="B61" s="258">
         <v>0</v>
       </c>
-      <c r="C61" s="434"/>
-      <c r="D61" s="437"/>
+      <c r="C61" s="466"/>
+      <c r="D61" s="469"/>
       <c r="J61" s="255"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -10380,8 +11639,8 @@
       <c r="B62" s="258">
         <v>0</v>
       </c>
-      <c r="C62" s="434"/>
-      <c r="D62" s="437"/>
+      <c r="C62" s="466"/>
+      <c r="D62" s="469"/>
       <c r="J62" s="255"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -10391,8 +11650,8 @@
       <c r="B63" s="258">
         <v>1</v>
       </c>
-      <c r="C63" s="434"/>
-      <c r="D63" s="437"/>
+      <c r="C63" s="466"/>
+      <c r="D63" s="469"/>
       <c r="J63" s="255"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -10402,8 +11661,8 @@
       <c r="B64" s="258">
         <v>0</v>
       </c>
-      <c r="C64" s="434"/>
-      <c r="D64" s="437"/>
+      <c r="C64" s="466"/>
+      <c r="D64" s="469"/>
       <c r="J64" s="255"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -10413,8 +11672,8 @@
       <c r="B65" s="258">
         <v>0</v>
       </c>
-      <c r="C65" s="434"/>
-      <c r="D65" s="437"/>
+      <c r="C65" s="466"/>
+      <c r="D65" s="469"/>
       <c r="J65" s="255"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10424,8 +11683,8 @@
       <c r="B66" s="258">
         <v>0</v>
       </c>
-      <c r="C66" s="434"/>
-      <c r="D66" s="437"/>
+      <c r="C66" s="466"/>
+      <c r="D66" s="469"/>
       <c r="J66" s="255"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -10435,8 +11694,8 @@
       <c r="B67" s="258">
         <v>1</v>
       </c>
-      <c r="C67" s="434"/>
-      <c r="D67" s="437"/>
+      <c r="C67" s="466"/>
+      <c r="D67" s="469"/>
       <c r="J67" s="255"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -10446,8 +11705,8 @@
       <c r="B68" s="258">
         <v>1</v>
       </c>
-      <c r="C68" s="434"/>
-      <c r="D68" s="437"/>
+      <c r="C68" s="466"/>
+      <c r="D68" s="469"/>
       <c r="J68" s="255"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -10457,8 +11716,8 @@
       <c r="B69" s="258">
         <v>0</v>
       </c>
-      <c r="C69" s="434"/>
-      <c r="D69" s="437"/>
+      <c r="C69" s="466"/>
+      <c r="D69" s="469"/>
       <c r="J69" s="255"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -10468,8 +11727,8 @@
       <c r="B70" s="258">
         <v>1</v>
       </c>
-      <c r="C70" s="434"/>
-      <c r="D70" s="437"/>
+      <c r="C70" s="466"/>
+      <c r="D70" s="469"/>
       <c r="J70" s="255"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -10479,8 +11738,8 @@
       <c r="B71" s="258">
         <v>1</v>
       </c>
-      <c r="C71" s="434"/>
-      <c r="D71" s="437"/>
+      <c r="C71" s="466"/>
+      <c r="D71" s="469"/>
       <c r="J71" s="255"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -10490,8 +11749,8 @@
       <c r="B72" s="258">
         <v>0</v>
       </c>
-      <c r="C72" s="434"/>
-      <c r="D72" s="437"/>
+      <c r="C72" s="466"/>
+      <c r="D72" s="469"/>
       <c r="J72" s="255"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -10501,8 +11760,8 @@
       <c r="B73" s="258">
         <v>1</v>
       </c>
-      <c r="C73" s="434"/>
-      <c r="D73" s="437"/>
+      <c r="C73" s="466"/>
+      <c r="D73" s="469"/>
       <c r="J73" s="255"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -10512,8 +11771,8 @@
       <c r="B74" s="258">
         <v>1</v>
       </c>
-      <c r="C74" s="434"/>
-      <c r="D74" s="437"/>
+      <c r="C74" s="466"/>
+      <c r="D74" s="469"/>
       <c r="J74" s="255"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -10523,8 +11782,8 @@
       <c r="B75" s="258">
         <v>0</v>
       </c>
-      <c r="C75" s="434"/>
-      <c r="D75" s="437"/>
+      <c r="C75" s="466"/>
+      <c r="D75" s="469"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="260" t="s">
@@ -10533,8 +11792,8 @@
       <c r="B76" s="258">
         <v>1</v>
       </c>
-      <c r="C76" s="434"/>
-      <c r="D76" s="437"/>
+      <c r="C76" s="466"/>
+      <c r="D76" s="469"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="260" t="s">
@@ -10543,8 +11802,8 @@
       <c r="B77" s="258">
         <v>0</v>
       </c>
-      <c r="C77" s="434"/>
-      <c r="D77" s="437"/>
+      <c r="C77" s="466"/>
+      <c r="D77" s="469"/>
       <c r="J77" s="256"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -10554,8 +11813,8 @@
       <c r="B78" s="258">
         <v>0</v>
       </c>
-      <c r="C78" s="434"/>
-      <c r="D78" s="437"/>
+      <c r="C78" s="466"/>
+      <c r="D78" s="469"/>
       <c r="J78" s="257"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -10565,8 +11824,8 @@
       <c r="B79" s="258">
         <v>0</v>
       </c>
-      <c r="C79" s="434"/>
-      <c r="D79" s="437"/>
+      <c r="C79" s="466"/>
+      <c r="D79" s="469"/>
       <c r="J79" s="256"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -10576,8 +11835,8 @@
       <c r="B80" s="258">
         <v>0</v>
       </c>
-      <c r="C80" s="434"/>
-      <c r="D80" s="437"/>
+      <c r="C80" s="466"/>
+      <c r="D80" s="469"/>
       <c r="J80" s="257"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -10587,8 +11846,8 @@
       <c r="B81" s="258">
         <v>0</v>
       </c>
-      <c r="C81" s="434"/>
-      <c r="D81" s="437"/>
+      <c r="C81" s="466"/>
+      <c r="D81" s="469"/>
       <c r="J81" s="256"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -10598,8 +11857,8 @@
       <c r="B82" s="258">
         <v>0</v>
       </c>
-      <c r="C82" s="434"/>
-      <c r="D82" s="437"/>
+      <c r="C82" s="466"/>
+      <c r="D82" s="469"/>
       <c r="J82" s="257"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -10609,8 +11868,8 @@
       <c r="B83" s="258">
         <v>0</v>
       </c>
-      <c r="C83" s="434"/>
-      <c r="D83" s="437"/>
+      <c r="C83" s="466"/>
+      <c r="D83" s="469"/>
       <c r="J83" s="256"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -10620,8 +11879,8 @@
       <c r="B84" s="258">
         <v>0</v>
       </c>
-      <c r="C84" s="434"/>
-      <c r="D84" s="437"/>
+      <c r="C84" s="466"/>
+      <c r="D84" s="469"/>
       <c r="J84" s="257"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -10631,8 +11890,8 @@
       <c r="B85" s="258">
         <v>0</v>
       </c>
-      <c r="C85" s="434"/>
-      <c r="D85" s="437"/>
+      <c r="C85" s="466"/>
+      <c r="D85" s="469"/>
       <c r="J85" s="256"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -10642,8 +11901,8 @@
       <c r="B86" s="259">
         <v>0</v>
       </c>
-      <c r="C86" s="434"/>
-      <c r="D86" s="437"/>
+      <c r="C86" s="466"/>
+      <c r="D86" s="469"/>
       <c r="J86" s="257"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -10653,8 +11912,8 @@
       <c r="B87" s="259">
         <v>0</v>
       </c>
-      <c r="C87" s="434"/>
-      <c r="D87" s="437"/>
+      <c r="C87" s="466"/>
+      <c r="D87" s="469"/>
       <c r="J87" s="256"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -10664,8 +11923,8 @@
       <c r="B88" s="259">
         <v>0</v>
       </c>
-      <c r="C88" s="434"/>
-      <c r="D88" s="437"/>
+      <c r="C88" s="466"/>
+      <c r="D88" s="469"/>
       <c r="J88" s="257"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -10675,8 +11934,8 @@
       <c r="B89" s="259">
         <v>0</v>
       </c>
-      <c r="C89" s="434"/>
-      <c r="D89" s="437"/>
+      <c r="C89" s="466"/>
+      <c r="D89" s="469"/>
       <c r="J89" s="256"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -10686,8 +11945,8 @@
       <c r="B90" s="259">
         <v>0</v>
       </c>
-      <c r="C90" s="434"/>
-      <c r="D90" s="437"/>
+      <c r="C90" s="466"/>
+      <c r="D90" s="469"/>
       <c r="J90" s="257"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -10697,8 +11956,8 @@
       <c r="B91" s="259">
         <v>0</v>
       </c>
-      <c r="C91" s="434"/>
-      <c r="D91" s="437"/>
+      <c r="C91" s="466"/>
+      <c r="D91" s="469"/>
       <c r="J91" s="256"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -10708,8 +11967,8 @@
       <c r="B92" s="259">
         <v>0</v>
       </c>
-      <c r="C92" s="434"/>
-      <c r="D92" s="437"/>
+      <c r="C92" s="466"/>
+      <c r="D92" s="469"/>
       <c r="J92" s="257"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -10719,8 +11978,8 @@
       <c r="B93" s="259">
         <v>0</v>
       </c>
-      <c r="C93" s="434"/>
-      <c r="D93" s="437"/>
+      <c r="C93" s="466"/>
+      <c r="D93" s="469"/>
       <c r="J93" s="256"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -10730,8 +11989,8 @@
       <c r="B94" s="259">
         <v>0</v>
       </c>
-      <c r="C94" s="434"/>
-      <c r="D94" s="437"/>
+      <c r="C94" s="466"/>
+      <c r="D94" s="469"/>
       <c r="J94" s="257"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -10741,8 +12000,8 @@
       <c r="B95" s="259">
         <v>0</v>
       </c>
-      <c r="C95" s="434"/>
-      <c r="D95" s="437"/>
+      <c r="C95" s="466"/>
+      <c r="D95" s="469"/>
       <c r="J95" s="256"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -10752,8 +12011,8 @@
       <c r="B96" s="259">
         <v>0</v>
       </c>
-      <c r="C96" s="434"/>
-      <c r="D96" s="437"/>
+      <c r="C96" s="466"/>
+      <c r="D96" s="469"/>
       <c r="J96" s="257"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -10763,8 +12022,8 @@
       <c r="B97" s="259">
         <v>1</v>
       </c>
-      <c r="C97" s="434"/>
-      <c r="D97" s="437"/>
+      <c r="C97" s="466"/>
+      <c r="D97" s="469"/>
       <c r="J97" s="255"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -10774,8 +12033,8 @@
       <c r="B98" s="259">
         <v>1</v>
       </c>
-      <c r="C98" s="434"/>
-      <c r="D98" s="437"/>
+      <c r="C98" s="466"/>
+      <c r="D98" s="469"/>
       <c r="J98" s="255"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -10785,8 +12044,8 @@
       <c r="B99" s="259">
         <v>0</v>
       </c>
-      <c r="C99" s="434"/>
-      <c r="D99" s="437"/>
+      <c r="C99" s="466"/>
+      <c r="D99" s="469"/>
       <c r="J99" s="255"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -10796,8 +12055,8 @@
       <c r="B100" s="259">
         <v>0</v>
       </c>
-      <c r="C100" s="434"/>
-      <c r="D100" s="437"/>
+      <c r="C100" s="466"/>
+      <c r="D100" s="469"/>
       <c r="J100" s="255"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -10807,8 +12066,8 @@
       <c r="B101" s="259">
         <v>0</v>
       </c>
-      <c r="C101" s="434"/>
-      <c r="D101" s="437"/>
+      <c r="C101" s="466"/>
+      <c r="D101" s="469"/>
       <c r="J101" s="255"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -10818,8 +12077,8 @@
       <c r="B102" s="259">
         <v>0</v>
       </c>
-      <c r="C102" s="434"/>
-      <c r="D102" s="437"/>
+      <c r="C102" s="466"/>
+      <c r="D102" s="469"/>
       <c r="J102" s="255"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -10829,8 +12088,8 @@
       <c r="B103" s="259">
         <v>0</v>
       </c>
-      <c r="C103" s="434"/>
-      <c r="D103" s="437"/>
+      <c r="C103" s="466"/>
+      <c r="D103" s="469"/>
       <c r="J103" s="255"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -10840,8 +12099,8 @@
       <c r="B104" s="259">
         <v>1</v>
       </c>
-      <c r="C104" s="434"/>
-      <c r="D104" s="437"/>
+      <c r="C104" s="466"/>
+      <c r="D104" s="469"/>
       <c r="J104" s="255"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -10851,8 +12110,8 @@
       <c r="B105" s="259">
         <v>0</v>
       </c>
-      <c r="C105" s="434"/>
-      <c r="D105" s="437"/>
+      <c r="C105" s="466"/>
+      <c r="D105" s="469"/>
       <c r="J105" s="255"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -10862,8 +12121,8 @@
       <c r="B106" s="259">
         <v>0</v>
       </c>
-      <c r="C106" s="434"/>
-      <c r="D106" s="437"/>
+      <c r="C106" s="466"/>
+      <c r="D106" s="469"/>
       <c r="J106" s="255"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -10873,8 +12132,8 @@
       <c r="B107" s="259">
         <v>0</v>
       </c>
-      <c r="C107" s="434"/>
-      <c r="D107" s="437"/>
+      <c r="C107" s="466"/>
+      <c r="D107" s="469"/>
       <c r="J107" s="255"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -10884,8 +12143,8 @@
       <c r="B108" s="259">
         <v>0</v>
       </c>
-      <c r="C108" s="434"/>
-      <c r="D108" s="437"/>
+      <c r="C108" s="466"/>
+      <c r="D108" s="469"/>
       <c r="J108" s="255"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -10895,8 +12154,8 @@
       <c r="B109" s="259">
         <v>0</v>
       </c>
-      <c r="C109" s="435"/>
-      <c r="D109" s="437"/>
+      <c r="C109" s="467"/>
+      <c r="D109" s="469"/>
       <c r="J109" s="255"/>
     </row>
   </sheetData>
@@ -11330,10 +12589,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="445" t="s">
+      <c r="A2" s="477" t="s">
         <v>793</v>
       </c>
-      <c r="B2" s="443" t="s">
+      <c r="B2" s="475" t="s">
         <v>732</v>
       </c>
       <c r="C2" s="214" t="s">
@@ -11341,17 +12600,17 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="446"/>
-      <c r="B3" s="444"/>
+      <c r="A3" s="478"/>
+      <c r="B3" s="476"/>
       <c r="C3" s="214" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="445" t="s">
+      <c r="A4" s="477" t="s">
         <v>794</v>
       </c>
-      <c r="B4" s="443" t="s">
+      <c r="B4" s="475" t="s">
         <v>796</v>
       </c>
       <c r="C4" s="214" t="s">
@@ -11359,31 +12618,31 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="448"/>
-      <c r="B5" s="447"/>
+      <c r="A5" s="480"/>
+      <c r="B5" s="479"/>
       <c r="C5" s="214" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="448"/>
-      <c r="B6" s="447"/>
+      <c r="A6" s="480"/>
+      <c r="B6" s="479"/>
       <c r="C6" s="214" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="446"/>
-      <c r="B7" s="444"/>
+      <c r="A7" s="478"/>
+      <c r="B7" s="476"/>
       <c r="C7" s="214" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="445" t="s">
+      <c r="A8" s="477" t="s">
         <v>795</v>
       </c>
-      <c r="B8" s="443" t="s">
+      <c r="B8" s="475" t="s">
         <v>810</v>
       </c>
       <c r="C8" s="214" t="s">
@@ -11391,57 +12650,57 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="448"/>
-      <c r="B9" s="447"/>
+      <c r="A9" s="480"/>
+      <c r="B9" s="479"/>
       <c r="C9" s="214" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="448"/>
-      <c r="B10" s="447"/>
+      <c r="A10" s="480"/>
+      <c r="B10" s="479"/>
       <c r="C10" s="214" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="448"/>
-      <c r="B11" s="447"/>
+      <c r="A11" s="480"/>
+      <c r="B11" s="479"/>
       <c r="C11" s="214" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="448"/>
-      <c r="B12" s="447"/>
+      <c r="A12" s="480"/>
+      <c r="B12" s="479"/>
       <c r="C12" s="214" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="448"/>
-      <c r="B13" s="447"/>
+      <c r="A13" s="480"/>
+      <c r="B13" s="479"/>
       <c r="C13" s="214" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="448"/>
-      <c r="B14" s="447"/>
+      <c r="A14" s="480"/>
+      <c r="B14" s="479"/>
       <c r="C14" s="214" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="448"/>
-      <c r="B15" s="447"/>
+      <c r="A15" s="480"/>
+      <c r="B15" s="479"/>
       <c r="C15" s="214" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="446"/>
-      <c r="B16" s="444"/>
+      <c r="A16" s="478"/>
+      <c r="B16" s="476"/>
       <c r="C16" s="214" t="s">
         <v>809</v>
       </c>
@@ -11476,10 +12735,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="449" t="s">
+      <c r="A1" s="481" t="s">
         <v>732</v>
       </c>
-      <c r="B1" s="449"/>
+      <c r="B1" s="481"/>
       <c r="C1" s="389"/>
       <c r="D1" s="389"/>
       <c r="E1" s="389"/>
@@ -15741,7 +17000,7 @@
       <c r="C2" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D2" s="421" t="s">
+      <c r="D2" s="453" t="s">
         <v>86</v>
       </c>
       <c r="E2" s="235">
@@ -15767,7 +17026,7 @@
       <c r="C3" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D3" s="422"/>
+      <c r="D3" s="454"/>
       <c r="E3" s="235">
         <v>50</v>
       </c>
@@ -15791,7 +17050,7 @@
       <c r="C4" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D4" s="422"/>
+      <c r="D4" s="454"/>
       <c r="E4" s="235">
         <v>50</v>
       </c>
@@ -15815,7 +17074,7 @@
       <c r="C5" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D5" s="422"/>
+      <c r="D5" s="454"/>
       <c r="E5" s="235">
         <v>50</v>
       </c>
@@ -15839,7 +17098,7 @@
       <c r="C6" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D6" s="422"/>
+      <c r="D6" s="454"/>
       <c r="E6" s="235">
         <v>50</v>
       </c>
@@ -15861,7 +17120,7 @@
       <c r="C7" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D7" s="422"/>
+      <c r="D7" s="454"/>
       <c r="E7" s="235">
         <v>50</v>
       </c>
@@ -15876,7 +17135,7 @@
       <c r="C8" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D8" s="422"/>
+      <c r="D8" s="454"/>
       <c r="E8" s="235">
         <v>50</v>
       </c>
@@ -15891,7 +17150,7 @@
       <c r="C9" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D9" s="422"/>
+      <c r="D9" s="454"/>
       <c r="E9" s="235">
         <v>50</v>
       </c>
@@ -15906,7 +17165,7 @@
       <c r="C10" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D10" s="422"/>
+      <c r="D10" s="454"/>
       <c r="E10" s="235">
         <v>50</v>
       </c>
@@ -15921,7 +17180,7 @@
       <c r="C11" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D11" s="422"/>
+      <c r="D11" s="454"/>
       <c r="E11" s="235">
         <v>50</v>
       </c>
@@ -15936,7 +17195,7 @@
       <c r="C12" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D12" s="422"/>
+      <c r="D12" s="454"/>
       <c r="E12" s="235">
         <v>50</v>
       </c>
@@ -15951,7 +17210,7 @@
       <c r="C13" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D13" s="422"/>
+      <c r="D13" s="454"/>
       <c r="E13" s="235">
         <v>50</v>
       </c>
@@ -15966,7 +17225,7 @@
       <c r="C14" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D14" s="422"/>
+      <c r="D14" s="454"/>
       <c r="E14" s="235">
         <v>50</v>
       </c>
@@ -15981,7 +17240,7 @@
       <c r="C15" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D15" s="422"/>
+      <c r="D15" s="454"/>
       <c r="E15" s="235">
         <v>15</v>
       </c>
@@ -15996,7 +17255,7 @@
       <c r="C16" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D16" s="422"/>
+      <c r="D16" s="454"/>
       <c r="E16" s="235">
         <v>15</v>
       </c>
@@ -16011,7 +17270,7 @@
       <c r="C17" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D17" s="422"/>
+      <c r="D17" s="454"/>
       <c r="E17" s="235">
         <v>15</v>
       </c>
@@ -16026,7 +17285,7 @@
       <c r="C18" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D18" s="422"/>
+      <c r="D18" s="454"/>
       <c r="E18" s="235">
         <v>15</v>
       </c>
@@ -16041,7 +17300,7 @@
       <c r="C19" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D19" s="422"/>
+      <c r="D19" s="454"/>
       <c r="E19" s="235">
         <v>15</v>
       </c>
@@ -16056,7 +17315,7 @@
       <c r="C20" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D20" s="422"/>
+      <c r="D20" s="454"/>
       <c r="E20" s="235">
         <v>15</v>
       </c>
@@ -16071,7 +17330,7 @@
       <c r="C21" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D21" s="422"/>
+      <c r="D21" s="454"/>
       <c r="E21" s="235">
         <v>15</v>
       </c>
@@ -16086,7 +17345,7 @@
       <c r="C22" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D22" s="422"/>
+      <c r="D22" s="454"/>
       <c r="E22" s="235">
         <v>15</v>
       </c>
@@ -16101,7 +17360,7 @@
       <c r="C23" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D23" s="422"/>
+      <c r="D23" s="454"/>
       <c r="E23" s="235">
         <v>15</v>
       </c>
@@ -16116,7 +17375,7 @@
       <c r="C24" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D24" s="422"/>
+      <c r="D24" s="454"/>
       <c r="E24" s="235">
         <v>15</v>
       </c>
@@ -16131,7 +17390,7 @@
       <c r="C25" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D25" s="422"/>
+      <c r="D25" s="454"/>
       <c r="E25" s="235">
         <v>15</v>
       </c>
@@ -16146,7 +17405,7 @@
       <c r="C26" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D26" s="422"/>
+      <c r="D26" s="454"/>
       <c r="E26" s="235">
         <v>15</v>
       </c>
@@ -16161,7 +17420,7 @@
       <c r="C27" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D27" s="422"/>
+      <c r="D27" s="454"/>
       <c r="E27" s="235">
         <v>15</v>
       </c>
@@ -16176,7 +17435,7 @@
       <c r="C28" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D28" s="422"/>
+      <c r="D28" s="454"/>
       <c r="E28" s="235">
         <v>15</v>
       </c>
@@ -16191,7 +17450,7 @@
       <c r="C29" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D29" s="422"/>
+      <c r="D29" s="454"/>
       <c r="E29" s="235">
         <v>15</v>
       </c>
@@ -16206,7 +17465,7 @@
       <c r="C30" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D30" s="422"/>
+      <c r="D30" s="454"/>
       <c r="E30" s="235">
         <v>15</v>
       </c>
@@ -16221,7 +17480,7 @@
       <c r="C31" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D31" s="422"/>
+      <c r="D31" s="454"/>
       <c r="E31" s="235">
         <v>15</v>
       </c>
@@ -16236,7 +17495,7 @@
       <c r="C32" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D32" s="422"/>
+      <c r="D32" s="454"/>
       <c r="E32" s="235">
         <v>15</v>
       </c>
@@ -16251,7 +17510,7 @@
       <c r="C33" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D33" s="422"/>
+      <c r="D33" s="454"/>
       <c r="E33" s="235">
         <v>15</v>
       </c>
@@ -16266,7 +17525,7 @@
       <c r="C34" s="228" t="s">
         <v>385</v>
       </c>
-      <c r="D34" s="423"/>
+      <c r="D34" s="455"/>
       <c r="E34" s="235">
         <v>15</v>
       </c>
@@ -16281,7 +17540,7 @@
       <c r="C35" s="231" t="s">
         <v>406</v>
       </c>
-      <c r="D35" s="418" t="s">
+      <c r="D35" s="450" t="s">
         <v>730</v>
       </c>
       <c r="E35" s="235">
@@ -16298,7 +17557,7 @@
       <c r="C36" s="224" t="s">
         <v>406</v>
       </c>
-      <c r="D36" s="419"/>
+      <c r="D36" s="451"/>
       <c r="E36" s="235">
         <v>25</v>
       </c>
@@ -16313,7 +17572,7 @@
       <c r="C37" s="224" t="s">
         <v>406</v>
       </c>
-      <c r="D37" s="419"/>
+      <c r="D37" s="451"/>
       <c r="E37" s="235">
         <v>25</v>
       </c>
@@ -16328,7 +17587,7 @@
       <c r="C38" s="233" t="s">
         <v>406</v>
       </c>
-      <c r="D38" s="420"/>
+      <c r="D38" s="452"/>
       <c r="E38" s="235">
         <v>25</v>
       </c>
@@ -16343,7 +17602,7 @@
       <c r="C39" s="231" t="s">
         <v>407</v>
       </c>
-      <c r="D39" s="418" t="s">
+      <c r="D39" s="450" t="s">
         <v>729</v>
       </c>
       <c r="E39" s="235">
@@ -16360,7 +17619,7 @@
       <c r="C40" s="224" t="s">
         <v>407</v>
       </c>
-      <c r="D40" s="419"/>
+      <c r="D40" s="451"/>
       <c r="E40" s="235">
         <v>25</v>
       </c>
@@ -16375,7 +17634,7 @@
       <c r="C41" s="224" t="s">
         <v>407</v>
       </c>
-      <c r="D41" s="419"/>
+      <c r="D41" s="451"/>
       <c r="E41" s="235">
         <v>25</v>
       </c>
@@ -16390,7 +17649,7 @@
       <c r="C42" s="233" t="s">
         <v>407</v>
       </c>
-      <c r="D42" s="420"/>
+      <c r="D42" s="452"/>
       <c r="E42" s="235">
         <v>25</v>
       </c>
@@ -16405,7 +17664,7 @@
       <c r="C43" s="234" t="s">
         <v>403</v>
       </c>
-      <c r="D43" s="424" t="s">
+      <c r="D43" s="456" t="s">
         <v>86</v>
       </c>
       <c r="E43" s="235">
@@ -16422,7 +17681,7 @@
       <c r="C44" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="D44" s="421"/>
+      <c r="D44" s="453"/>
       <c r="E44" s="235">
         <v>75</v>
       </c>
@@ -16437,7 +17696,7 @@
       <c r="C45" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="D45" s="421"/>
+      <c r="D45" s="453"/>
       <c r="E45" s="235">
         <v>75</v>
       </c>
@@ -16452,7 +17711,7 @@
       <c r="C46" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="D46" s="421"/>
+      <c r="D46" s="453"/>
       <c r="E46" s="235">
         <v>75</v>
       </c>
@@ -16467,7 +17726,7 @@
       <c r="C47" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="D47" s="421"/>
+      <c r="D47" s="453"/>
       <c r="E47" s="235">
         <v>75</v>
       </c>
@@ -16482,7 +17741,7 @@
       <c r="C48" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="D48" s="421"/>
+      <c r="D48" s="453"/>
       <c r="E48" s="235">
         <v>75</v>
       </c>
@@ -16497,7 +17756,7 @@
       <c r="C49" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="D49" s="421"/>
+      <c r="D49" s="453"/>
       <c r="E49" s="235">
         <v>75</v>
       </c>
@@ -16512,7 +17771,7 @@
       <c r="C50" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="D50" s="421"/>
+      <c r="D50" s="453"/>
       <c r="E50" s="235">
         <v>75</v>
       </c>
@@ -16541,7 +17800,7 @@
       <c r="C52" s="287" t="s">
         <v>458</v>
       </c>
-      <c r="D52" s="425" t="s">
+      <c r="D52" s="457" t="s">
         <v>567</v>
       </c>
     </row>
@@ -16555,7 +17814,7 @@
       <c r="C53" s="224" t="s">
         <v>458</v>
       </c>
-      <c r="D53" s="426"/>
+      <c r="D53" s="458"/>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
@@ -16567,7 +17826,7 @@
       <c r="C54" s="224" t="s">
         <v>458</v>
       </c>
-      <c r="D54" s="426"/>
+      <c r="D54" s="458"/>
     </row>
     <row r="55" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="126" t="s">
@@ -16579,7 +17838,7 @@
       <c r="C55" s="295" t="s">
         <v>458</v>
       </c>
-      <c r="D55" s="426"/>
+      <c r="D55" s="458"/>
     </row>
     <row r="56" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
@@ -16591,7 +17850,7 @@
       <c r="C56" s="287" t="s">
         <v>565</v>
       </c>
-      <c r="D56" s="415" t="s">
+      <c r="D56" s="447" t="s">
         <v>566</v>
       </c>
     </row>
@@ -16605,7 +17864,7 @@
       <c r="C57" s="224" t="s">
         <v>565</v>
       </c>
-      <c r="D57" s="416"/>
+      <c r="D57" s="448"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
@@ -16617,7 +17876,7 @@
       <c r="C58" s="224" t="s">
         <v>565</v>
       </c>
-      <c r="D58" s="416"/>
+      <c r="D58" s="448"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
@@ -16629,7 +17888,7 @@
       <c r="C59" s="224" t="s">
         <v>565</v>
       </c>
-      <c r="D59" s="416"/>
+      <c r="D59" s="448"/>
     </row>
     <row r="60" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
@@ -16641,7 +17900,7 @@
       <c r="C60" s="294" t="s">
         <v>565</v>
       </c>
-      <c r="D60" s="417"/>
+      <c r="D60" s="449"/>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
@@ -16927,572 +18186,572 @@
       <c r="E1" s="288"/>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="427" t="s">
+      <c r="A2" s="459" t="s">
         <v>574</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="429">
+      <c r="C2" s="461">
         <v>5</v>
       </c>
-      <c r="D2" s="432" t="s">
+      <c r="D2" s="464" t="s">
         <v>831</v>
       </c>
       <c r="E2" s="289"/>
     </row>
     <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="428"/>
+      <c r="A3" s="460"/>
       <c r="B3" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="430"/>
-      <c r="D3" s="432"/>
+      <c r="C3" s="462"/>
+      <c r="D3" s="464"/>
       <c r="E3" s="289"/>
     </row>
     <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="428"/>
+      <c r="A4" s="460"/>
       <c r="B4" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C4" s="430"/>
-      <c r="D4" s="432"/>
+      <c r="C4" s="462"/>
+      <c r="D4" s="464"/>
       <c r="E4" s="289"/>
     </row>
     <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="428"/>
+      <c r="A5" s="460"/>
       <c r="B5" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C5" s="430"/>
-      <c r="D5" s="432"/>
+      <c r="C5" s="462"/>
+      <c r="D5" s="464"/>
       <c r="E5" s="289"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="428"/>
+      <c r="A6" s="460"/>
       <c r="B6" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C6" s="430"/>
+      <c r="C6" s="462"/>
       <c r="D6" s="292"/>
       <c r="E6" s="289"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="428"/>
+      <c r="A7" s="460"/>
       <c r="B7" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="430"/>
+      <c r="C7" s="462"/>
       <c r="D7" s="292"/>
       <c r="E7" s="289"/>
     </row>
     <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="428"/>
+      <c r="A8" s="460"/>
       <c r="B8" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C8" s="430"/>
+      <c r="C8" s="462"/>
       <c r="D8" s="292"/>
       <c r="E8" s="289"/>
     </row>
     <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="428"/>
+      <c r="A9" s="460"/>
       <c r="B9" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C9" s="430"/>
+      <c r="C9" s="462"/>
       <c r="D9" s="292"/>
       <c r="E9" s="289"/>
     </row>
     <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="428"/>
+      <c r="A10" s="460"/>
       <c r="B10" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C10" s="430"/>
+      <c r="C10" s="462"/>
       <c r="D10" s="292"/>
       <c r="E10" s="289"/>
     </row>
     <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="428"/>
+      <c r="A11" s="460"/>
       <c r="B11" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="430"/>
+      <c r="C11" s="462"/>
       <c r="D11" s="292"/>
       <c r="E11" s="289"/>
     </row>
     <row r="12" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="428"/>
+      <c r="A12" s="460"/>
       <c r="B12" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C12" s="430"/>
+      <c r="C12" s="462"/>
       <c r="D12" s="292"/>
       <c r="E12" s="289"/>
     </row>
     <row r="13" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="428"/>
+      <c r="A13" s="460"/>
       <c r="B13" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C13" s="430"/>
+      <c r="C13" s="462"/>
       <c r="D13" s="292"/>
       <c r="E13" s="289"/>
     </row>
     <row r="14" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="424"/>
+      <c r="A14" s="456"/>
       <c r="B14" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C14" s="431"/>
+      <c r="C14" s="463"/>
       <c r="D14" s="292"/>
       <c r="E14" s="289"/>
     </row>
     <row r="15" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="427" t="s">
+      <c r="A15" s="459" t="s">
         <v>591</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C15" s="429">
+      <c r="C15" s="461">
         <v>5</v>
       </c>
       <c r="D15" s="293"/>
       <c r="E15" s="289"/>
     </row>
     <row r="16" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="428"/>
+      <c r="A16" s="460"/>
       <c r="B16" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C16" s="430"/>
+      <c r="C16" s="462"/>
       <c r="D16" s="293"/>
       <c r="E16" s="289"/>
     </row>
     <row r="17" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="428"/>
+      <c r="A17" s="460"/>
       <c r="B17" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C17" s="430"/>
+      <c r="C17" s="462"/>
       <c r="E17" s="289"/>
     </row>
     <row r="18" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="428"/>
+      <c r="A18" s="460"/>
       <c r="B18" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C18" s="430"/>
+      <c r="C18" s="462"/>
       <c r="D18" s="293"/>
       <c r="E18" s="289"/>
     </row>
     <row r="19" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="428"/>
+      <c r="A19" s="460"/>
       <c r="B19" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C19" s="430"/>
+      <c r="C19" s="462"/>
       <c r="E19" s="289"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="428"/>
+      <c r="A20" s="460"/>
       <c r="B20" s="303" t="s">
         <v>431</v>
       </c>
-      <c r="C20" s="430"/>
+      <c r="C20" s="462"/>
       <c r="E20" s="289"/>
     </row>
     <row r="21" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="428"/>
+      <c r="A21" s="460"/>
       <c r="B21" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="C21" s="430"/>
+      <c r="C21" s="462"/>
       <c r="E21" s="289"/>
     </row>
     <row r="22" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="424"/>
+      <c r="A22" s="456"/>
       <c r="B22" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="C22" s="431"/>
+      <c r="C22" s="463"/>
       <c r="E22" s="289"/>
     </row>
     <row r="23" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="427" t="s">
+      <c r="A23" s="459" t="s">
         <v>592</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C23" s="429">
+      <c r="C23" s="461">
         <v>5</v>
       </c>
       <c r="E23" s="289"/>
     </row>
     <row r="24" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="428"/>
+      <c r="A24" s="460"/>
       <c r="B24" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C24" s="430"/>
+      <c r="C24" s="462"/>
       <c r="E24" s="289"/>
     </row>
     <row r="25" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="428"/>
+      <c r="A25" s="460"/>
       <c r="B25" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="C25" s="430"/>
+      <c r="C25" s="462"/>
       <c r="E25" s="289"/>
     </row>
     <row r="26" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="428"/>
+      <c r="A26" s="460"/>
       <c r="B26" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C26" s="430"/>
+      <c r="C26" s="462"/>
       <c r="E26" s="289"/>
     </row>
     <row r="27" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="428"/>
+      <c r="A27" s="460"/>
       <c r="B27" s="303" t="s">
         <v>428</v>
       </c>
-      <c r="C27" s="430"/>
+      <c r="C27" s="462"/>
       <c r="E27" s="289"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A28" s="428"/>
+      <c r="A28" s="460"/>
       <c r="B28" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="C28" s="430"/>
+      <c r="C28" s="462"/>
       <c r="E28" s="289"/>
     </row>
     <row r="29" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="424"/>
+      <c r="A29" s="456"/>
       <c r="B29" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="C29" s="431"/>
+      <c r="C29" s="463"/>
       <c r="D29" s="293"/>
       <c r="E29" s="289"/>
     </row>
     <row r="30" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="427" t="s">
+      <c r="A30" s="459" t="s">
         <v>607</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C30" s="429">
+      <c r="C30" s="461">
         <v>5</v>
       </c>
       <c r="D30" s="293"/>
       <c r="E30" s="289"/>
     </row>
     <row r="31" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="428"/>
+      <c r="A31" s="460"/>
       <c r="B31" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C31" s="430"/>
+      <c r="C31" s="462"/>
       <c r="E31" s="289"/>
     </row>
     <row r="32" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A32" s="428"/>
+      <c r="A32" s="460"/>
       <c r="B32" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C32" s="430"/>
+      <c r="C32" s="462"/>
       <c r="E32" s="289"/>
     </row>
     <row r="33" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="428"/>
+      <c r="A33" s="460"/>
       <c r="B33" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C33" s="430"/>
+      <c r="C33" s="462"/>
       <c r="E33" s="289"/>
     </row>
     <row r="34" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A34" s="428"/>
+      <c r="A34" s="460"/>
       <c r="B34" s="303" t="s">
         <v>432</v>
       </c>
-      <c r="C34" s="430"/>
+      <c r="C34" s="462"/>
       <c r="E34" s="289"/>
     </row>
     <row r="35" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="428"/>
+      <c r="A35" s="460"/>
       <c r="B35" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="C35" s="430"/>
+      <c r="C35" s="462"/>
       <c r="E35" s="289"/>
     </row>
     <row r="36" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="424"/>
+      <c r="A36" s="456"/>
       <c r="B36" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="C36" s="431"/>
+      <c r="C36" s="463"/>
       <c r="D36" s="293"/>
       <c r="E36" s="289"/>
     </row>
     <row r="37" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="427" t="s">
+      <c r="A37" s="459" t="s">
         <v>593</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C37" s="429">
+      <c r="C37" s="461">
         <v>5</v>
       </c>
       <c r="E37" s="289"/>
     </row>
     <row r="38" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A38" s="428"/>
+      <c r="A38" s="460"/>
       <c r="B38" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C38" s="430"/>
+      <c r="C38" s="462"/>
       <c r="D38" s="293"/>
       <c r="E38" s="289"/>
     </row>
     <row r="39" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A39" s="428"/>
+      <c r="A39" s="460"/>
       <c r="B39" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="C39" s="430"/>
+      <c r="C39" s="462"/>
       <c r="E39" s="289"/>
     </row>
     <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="428"/>
+      <c r="A40" s="460"/>
       <c r="B40" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="C40" s="430"/>
+      <c r="C40" s="462"/>
       <c r="E40" s="289"/>
     </row>
     <row r="41" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="428"/>
+      <c r="A41" s="460"/>
       <c r="B41" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="C41" s="430"/>
+      <c r="C41" s="462"/>
       <c r="E41" s="289"/>
     </row>
     <row r="42" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="428"/>
+      <c r="A42" s="460"/>
       <c r="B42" s="303" t="s">
         <v>569</v>
       </c>
-      <c r="C42" s="430"/>
+      <c r="C42" s="462"/>
       <c r="E42" s="289"/>
     </row>
     <row r="43" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A43" s="428"/>
+      <c r="A43" s="460"/>
       <c r="B43" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="C43" s="430"/>
+      <c r="C43" s="462"/>
       <c r="E43" s="289"/>
     </row>
     <row r="44" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A44" s="424"/>
+      <c r="A44" s="456"/>
       <c r="B44" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="C44" s="431"/>
+      <c r="C44" s="463"/>
       <c r="E44" s="289"/>
     </row>
     <row r="45" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A45" s="421" t="s">
+      <c r="A45" s="453" t="s">
         <v>594</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C45" s="429">
+      <c r="C45" s="461">
         <v>5</v>
       </c>
       <c r="E45" s="289"/>
     </row>
     <row r="46" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A46" s="421"/>
+      <c r="A46" s="453"/>
       <c r="B46" s="303" t="s">
         <v>434</v>
       </c>
-      <c r="C46" s="430"/>
+      <c r="C46" s="462"/>
       <c r="E46" s="289"/>
     </row>
     <row r="47" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A47" s="421"/>
+      <c r="A47" s="453"/>
       <c r="B47" s="303" t="s">
         <v>427</v>
       </c>
-      <c r="C47" s="430"/>
+      <c r="C47" s="462"/>
       <c r="E47" s="289"/>
     </row>
     <row r="48" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A48" s="421"/>
+      <c r="A48" s="453"/>
       <c r="B48" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="C48" s="430"/>
+      <c r="C48" s="462"/>
       <c r="E48" s="289"/>
     </row>
     <row r="49" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A49" s="421"/>
+      <c r="A49" s="453"/>
       <c r="B49" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="C49" s="430"/>
+      <c r="C49" s="462"/>
       <c r="E49" s="289"/>
     </row>
     <row r="50" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A50" s="421"/>
+      <c r="A50" s="453"/>
       <c r="B50" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="C50" s="430"/>
+      <c r="C50" s="462"/>
       <c r="E50" s="289"/>
     </row>
     <row r="51" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="421"/>
+      <c r="A51" s="453"/>
       <c r="B51" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="C51" s="430"/>
+      <c r="C51" s="462"/>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="421"/>
+      <c r="A52" s="453"/>
       <c r="B52" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="C52" s="431"/>
+      <c r="C52" s="463"/>
       <c r="D52" s="293"/>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="421" t="s">
+      <c r="A53" s="453" t="s">
         <v>595</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C53" s="429">
+      <c r="C53" s="461">
         <v>5</v>
       </c>
       <c r="D53" s="293"/>
     </row>
     <row r="54" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="421"/>
+      <c r="A54" s="453"/>
       <c r="B54" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C54" s="430"/>
+      <c r="C54" s="462"/>
       <c r="D54" s="293"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="421"/>
+      <c r="A55" s="453"/>
       <c r="B55" s="303" t="s">
         <v>429</v>
       </c>
-      <c r="C55" s="430"/>
+      <c r="C55" s="462"/>
       <c r="D55" s="293"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="421"/>
+      <c r="A56" s="453"/>
       <c r="B56" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="C56" s="430"/>
+      <c r="C56" s="462"/>
       <c r="D56" s="293"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="421"/>
+      <c r="A57" s="453"/>
       <c r="B57" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="C57" s="430"/>
+      <c r="C57" s="462"/>
       <c r="D57" s="293"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="421"/>
+      <c r="A58" s="453"/>
       <c r="B58" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="C58" s="430"/>
+      <c r="C58" s="462"/>
       <c r="D58" s="293"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="421"/>
+      <c r="A59" s="453"/>
       <c r="B59" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="C59" s="430"/>
+      <c r="C59" s="462"/>
       <c r="D59" s="293"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="421"/>
+      <c r="A60" s="453"/>
       <c r="B60" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="C60" s="431"/>
+      <c r="C60" s="463"/>
       <c r="D60" s="293"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="421" t="s">
+      <c r="A61" s="453" t="s">
         <v>596</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C61" s="429">
+      <c r="C61" s="461">
         <v>5</v>
       </c>
       <c r="D61" s="293"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="421"/>
+      <c r="A62" s="453"/>
       <c r="B62" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C62" s="430"/>
+      <c r="C62" s="462"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="421"/>
+      <c r="A63" s="453"/>
       <c r="B63" s="303" t="s">
         <v>433</v>
       </c>
-      <c r="C63" s="430"/>
+      <c r="C63" s="462"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="421"/>
+      <c r="A64" s="453"/>
       <c r="B64" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="C64" s="430"/>
+      <c r="C64" s="462"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="421"/>
+      <c r="A65" s="453"/>
       <c r="B65" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="C65" s="430"/>
+      <c r="C65" s="462"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="421"/>
+      <c r="A66" s="453"/>
       <c r="B66" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="C66" s="431"/>
+      <c r="C66" s="463"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>

--- a/game.xlsx
+++ b/game.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="1000" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Нации" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="973">
   <si>
     <t>Камень</t>
   </si>
@@ -2576,27 +2576,6 @@
     <t>Гном</t>
   </si>
   <si>
-    <t>Призывает на поле боя мечника 1/1</t>
-  </si>
-  <si>
-    <t>Наносит 2 ед урона отряду противника</t>
-  </si>
-  <si>
-    <t>Применяет случайное заклинание</t>
-  </si>
-  <si>
-    <t>Наносит 1 ед урона любому отряду или персонажу</t>
-  </si>
-  <si>
-    <t>Увеличивает здоровье юнита на 2 ед</t>
-  </si>
-  <si>
-    <t>Дает +1/+1 персонажу на текущий ход</t>
-  </si>
-  <si>
-    <t>Наносит себе 2 ед урона и берет нового юнита</t>
-  </si>
-  <si>
     <t>Священник</t>
   </si>
   <si>
@@ -2609,18 +2588,12 @@
     <t>Стрелок. Боевой клич: Наносит 1 ед урона</t>
   </si>
   <si>
-    <t>Юниты на выбранной линии получают +1/+1</t>
-  </si>
-  <si>
     <t>Может наносить урон сквозь противников (в два раза меньший урон)</t>
   </si>
   <si>
     <t>Восстанавливает 2 ед здоровья герою</t>
   </si>
   <si>
-    <t>За каждый поврежденный вражеский юнит вы получите по 1 ед веры</t>
-  </si>
-  <si>
     <t>Светлые эльфы</t>
   </si>
   <si>
@@ -2651,12 +2624,6 @@
     <t>Дриада</t>
   </si>
   <si>
-    <t>Опутывает юнита, которого атакует, тем самым пропуская его ход</t>
-  </si>
-  <si>
-    <t>Боевой клич: наносит 2 ед урона случайным противникам</t>
-  </si>
-  <si>
     <t>Гномы</t>
   </si>
   <si>
@@ -2687,9 +2654,6 @@
     <t>Получает +1/+1 при использовании заклинаний рун</t>
   </si>
   <si>
-    <t>Уничтожает существа, которым наносит урон</t>
-  </si>
-  <si>
     <t>Гоблин</t>
   </si>
   <si>
@@ -2714,9 +2678,6 @@
     <t>Когда существо получает урон, он получает +1 к атаке</t>
   </si>
   <si>
-    <t>Последнее желание: уничтожает случайное существо на поле боя</t>
-  </si>
-  <si>
     <t>Стрелок. Рождение: наносит 1 ед урона всем существам противника</t>
   </si>
   <si>
@@ -2754,6 +2715,249 @@
   </si>
   <si>
     <t>Всех, кого зомби убил, превращаются в мертвецов 0/1</t>
+  </si>
+  <si>
+    <t>Черт</t>
+  </si>
+  <si>
+    <t>Огненный бес</t>
+  </si>
+  <si>
+    <t>Суккуб</t>
+  </si>
+  <si>
+    <t>Огненный демон</t>
+  </si>
+  <si>
+    <t>Властелин подземелий</t>
+  </si>
+  <si>
+    <t>Дьявол</t>
+  </si>
+  <si>
+    <t>Темный джинн</t>
+  </si>
+  <si>
+    <t>Отнимает 1 ед ярости у противника</t>
+  </si>
+  <si>
+    <t>Вы уничтожаете случайного юнита из коллекции. Стрелок</t>
+  </si>
+  <si>
+    <t>Ваши соседние юниты получают +1/+1</t>
+  </si>
+  <si>
+    <t>Наносит 2 ед урона герою противника</t>
+  </si>
+  <si>
+    <t>Наносит 1 ед урона выбранному существу</t>
+  </si>
+  <si>
+    <t>Призывает ополченца 1/1</t>
+  </si>
+  <si>
+    <t>Вызывает случайную карту руны</t>
+  </si>
+  <si>
+    <t>Данное существо получает +1/+1 на текущий ход</t>
+  </si>
+  <si>
+    <t>Восстанавливают союзному отряду 2 ед здоровья</t>
+  </si>
+  <si>
+    <t>Темные эльфы</t>
+  </si>
+  <si>
+    <t>Дает маскировку на один ход выбранному отряду</t>
+  </si>
+  <si>
+    <t>Дает волшебный щит на один ход выбранному отряду</t>
+  </si>
+  <si>
+    <t>Гремлин</t>
+  </si>
+  <si>
+    <t>Горгулья</t>
+  </si>
+  <si>
+    <t>Алхимик</t>
+  </si>
+  <si>
+    <t>Джинн</t>
+  </si>
+  <si>
+    <t>Железный голем</t>
+  </si>
+  <si>
+    <t>Ледяной элементаль</t>
+  </si>
+  <si>
+    <t>Иммунитет к магии</t>
+  </si>
+  <si>
+    <t>Стрелок. Смерть: ваш случайный юнит получает +1 к здоровью</t>
+  </si>
+  <si>
+    <t>Урон от заклинаний +1. Вы берете нового юнита</t>
+  </si>
+  <si>
+    <t>Восстанавливает всем дружественным юнитам 2 ед здоровья</t>
+  </si>
+  <si>
+    <t>Стрелок. Рождение: наносит трем вражеским юнитам урон 3 - 2 - 1</t>
+  </si>
+  <si>
+    <t>При получении урона атака увеличивается на 1</t>
+  </si>
+  <si>
+    <t>Боевой клич: наносит 2 ед урона</t>
+  </si>
+  <si>
+    <t>Замораживает того, кому нанесла урон. Иммунитет к заклинаниям воды</t>
+  </si>
+  <si>
+    <t>Фурия</t>
+  </si>
+  <si>
+    <t>Ассасин</t>
+  </si>
+  <si>
+    <t>Ящер</t>
+  </si>
+  <si>
+    <t>Черный дракон</t>
+  </si>
+  <si>
+    <t>Иммунитет к заклинаниям</t>
+  </si>
+  <si>
+    <t>Гидра</t>
+  </si>
+  <si>
+    <t>Темная пантера</t>
+  </si>
+  <si>
+    <t>Минотавр</t>
+  </si>
+  <si>
+    <t>Щит</t>
+  </si>
+  <si>
+    <t>Смерть: наносит 1 ед всем существам</t>
+  </si>
+  <si>
+    <t>Каждый ход получает 1/1 к характеристикам</t>
+  </si>
+  <si>
+    <t>Элементаль</t>
+  </si>
+  <si>
+    <t>Существо</t>
+  </si>
+  <si>
+    <t>Существо. Кавалерия</t>
+  </si>
+  <si>
+    <t>Зверь</t>
+  </si>
+  <si>
+    <t>Дракон</t>
+  </si>
+  <si>
+    <t>Механизм</t>
+  </si>
+  <si>
+    <t>Зверь. Кавалерия</t>
+  </si>
+  <si>
+    <t>Нежить</t>
+  </si>
+  <si>
+    <t>Нежить. Кавалерия</t>
+  </si>
+  <si>
+    <t>Нежить. Дракон</t>
+  </si>
+  <si>
+    <t>Юниты на выбранной линии получают +1/+1. Иммунитет к магии света</t>
+  </si>
+  <si>
+    <t>Опутывает юнита, которого атакует, тем самым пропуская его ход. Иммунитет к магии земли</t>
+  </si>
+  <si>
+    <t>Уничтожает существа, которым наносит урон. Иммунитет к магии огня</t>
+  </si>
+  <si>
+    <t>Поджигает. Иммунитет к магии огня</t>
+  </si>
+  <si>
+    <t>Наносит 2 ед вашему герою. Иммунитет к магии огня</t>
+  </si>
+  <si>
+    <t>Заполняет ваши пустые клетки чертями. Иммунитет к магии огня</t>
+  </si>
+  <si>
+    <t>Стрелок. Дает всем демонам +1 к здоровью</t>
+  </si>
+  <si>
+    <t>Призывает ополченца на поле боя (1/1)</t>
+  </si>
+  <si>
+    <t>Дает выбранному существу маскировку на один ход</t>
+  </si>
+  <si>
+    <t>Наносит герою противнику 2 ед урона</t>
+  </si>
+  <si>
+    <t>Вы получаете случайное заклинание рун</t>
+  </si>
+  <si>
+    <t>Восстанавливает отряду 2 ед здоровья</t>
+  </si>
+  <si>
+    <t>Вам случайный юнит получает 2 ед урона, а вы получаете нового юнита из колоды</t>
+  </si>
+  <si>
+    <t>Выбранный персонаж получает повышение или понижение в характеристиках</t>
+  </si>
+  <si>
+    <t>Смерть: уничтожает случайное существо на поле боя</t>
+  </si>
+  <si>
+    <t>Сияние</t>
+  </si>
+  <si>
+    <t>Гоблин-вонючка</t>
+  </si>
+  <si>
+    <t>Смерть: наносит 2 ед урона герою противника</t>
+  </si>
+  <si>
+    <t>Щитоносец</t>
+  </si>
+  <si>
+    <t>Атака равна показателю здоровья</t>
+  </si>
+  <si>
+    <t>Манекен</t>
+  </si>
+  <si>
+    <t>Лесной волк</t>
+  </si>
+  <si>
+    <t>Соседние юниты получают +1 к атаке</t>
+  </si>
+  <si>
+    <t>Прорицатель</t>
+  </si>
+  <si>
+    <t>Маленький дракон</t>
+  </si>
+  <si>
+    <t>Мурлок</t>
+  </si>
+  <si>
+    <t>Выбранный юнит получает +1/+1</t>
   </si>
 </sst>
 </file>
@@ -3003,7 +3207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3241,6 +3445,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5A66D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3916,7 +4126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="482">
+  <cellXfs count="492">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5001,9 +5211,6 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5036,6 +5243,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5202,16 +5442,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FFFF5050"/>
       <color rgb="FFC5A66D"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FFDEBDFF"/>
-      <color rgb="FFFF5050"/>
       <color rgb="FFFB9997"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFDDDDDD"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FF9999FF"/>
-      <color rgb="FF96A6BC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5920,7 +6160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C30" sqref="C30:C31"/>
     </sheetView>
   </sheetViews>
@@ -5952,503 +6192,503 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="432">
-        <v>1</v>
-      </c>
-      <c r="B2" s="434" t="s">
+      <c r="A2" s="442">
+        <v>1</v>
+      </c>
+      <c r="B2" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="436" t="s">
+      <c r="C2" s="446" t="s">
         <v>466</v>
       </c>
       <c r="D2" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="438" t="s">
+      <c r="H2" s="448" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="433"/>
-      <c r="B3" s="435"/>
-      <c r="C3" s="437"/>
+      <c r="A3" s="443"/>
+      <c r="B3" s="445"/>
+      <c r="C3" s="447"/>
       <c r="D3" s="155" t="s">
         <v>214</v>
       </c>
       <c r="E3" s="213">
         <v>75</v>
       </c>
-      <c r="H3" s="438"/>
+      <c r="H3" s="448"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="432">
+      <c r="A4" s="442">
         <v>2</v>
       </c>
-      <c r="B4" s="434" t="s">
+      <c r="B4" s="444" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="436" t="s">
+      <c r="C4" s="446" t="s">
         <v>463</v>
       </c>
       <c r="D4" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="H4" s="439" t="s">
+      <c r="H4" s="449" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="433"/>
-      <c r="B5" s="435"/>
-      <c r="C5" s="437"/>
+      <c r="A5" s="443"/>
+      <c r="B5" s="445"/>
+      <c r="C5" s="447"/>
       <c r="D5" s="155" t="s">
         <v>215</v>
       </c>
       <c r="E5" s="213">
         <v>80</v>
       </c>
-      <c r="H5" s="440"/>
+      <c r="H5" s="450"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="432">
+      <c r="A6" s="442">
         <v>3</v>
       </c>
-      <c r="B6" s="434" t="s">
+      <c r="B6" s="444" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="436" t="s">
+      <c r="C6" s="446" t="s">
         <v>464</v>
       </c>
       <c r="D6" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="439" t="s">
+      <c r="H6" s="449" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="433"/>
-      <c r="B7" s="435"/>
-      <c r="C7" s="437"/>
+      <c r="A7" s="443"/>
+      <c r="B7" s="445"/>
+      <c r="C7" s="447"/>
       <c r="D7" s="155" t="s">
         <v>216</v>
       </c>
       <c r="E7" s="213">
         <v>125</v>
       </c>
-      <c r="H7" s="440"/>
+      <c r="H7" s="450"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="432">
+      <c r="A8" s="442">
         <v>4</v>
       </c>
-      <c r="B8" s="434" t="s">
+      <c r="B8" s="444" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="436" t="s">
+      <c r="C8" s="446" t="s">
         <v>465</v>
       </c>
       <c r="D8" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="441" t="s">
+      <c r="H8" s="451" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="433"/>
-      <c r="B9" s="435"/>
-      <c r="C9" s="437"/>
+      <c r="A9" s="443"/>
+      <c r="B9" s="445"/>
+      <c r="C9" s="447"/>
       <c r="D9" s="155" t="s">
         <v>217</v>
       </c>
       <c r="E9" s="213">
         <v>150</v>
       </c>
-      <c r="H9" s="442"/>
+      <c r="H9" s="452"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="432">
+      <c r="A10" s="442">
         <v>5</v>
       </c>
-      <c r="B10" s="434" t="s">
+      <c r="B10" s="444" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="436" t="s">
+      <c r="C10" s="446" t="s">
         <v>195</v>
       </c>
       <c r="D10" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="443" t="s">
+      <c r="H10" s="453" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="433"/>
-      <c r="B11" s="435"/>
-      <c r="C11" s="437"/>
+      <c r="A11" s="443"/>
+      <c r="B11" s="445"/>
+      <c r="C11" s="447"/>
       <c r="D11" s="155" t="s">
         <v>817</v>
       </c>
       <c r="E11" s="213">
         <v>130</v>
       </c>
-      <c r="H11" s="444"/>
+      <c r="H11" s="454"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="432">
+      <c r="A12" s="442">
         <v>6</v>
       </c>
-      <c r="B12" s="434" t="s">
+      <c r="B12" s="444" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="436" t="s">
+      <c r="C12" s="446" t="s">
         <v>196</v>
       </c>
       <c r="D12" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="441" t="s">
+      <c r="H12" s="451" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="433"/>
-      <c r="B13" s="435"/>
-      <c r="C13" s="437"/>
+      <c r="A13" s="443"/>
+      <c r="B13" s="445"/>
+      <c r="C13" s="447"/>
       <c r="D13" s="155" t="s">
         <v>816</v>
       </c>
       <c r="E13" s="213">
         <v>220</v>
       </c>
-      <c r="H13" s="442"/>
+      <c r="H13" s="452"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="432">
+      <c r="A14" s="442">
         <v>7</v>
       </c>
-      <c r="B14" s="434" t="s">
+      <c r="B14" s="444" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="436" t="s">
+      <c r="C14" s="446" t="s">
         <v>467</v>
       </c>
       <c r="D14" s="154" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="445" t="s">
+      <c r="H14" s="455" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="433"/>
-      <c r="B15" s="435"/>
-      <c r="C15" s="437"/>
+      <c r="A15" s="443"/>
+      <c r="B15" s="445"/>
+      <c r="C15" s="447"/>
       <c r="D15" s="155" t="s">
         <v>218</v>
       </c>
       <c r="E15" s="213">
         <v>200</v>
       </c>
-      <c r="H15" s="446"/>
+      <c r="H15" s="456"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="432">
+      <c r="A16" s="442">
         <v>8</v>
       </c>
-      <c r="B16" s="434" t="s">
+      <c r="B16" s="444" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="436" t="s">
+      <c r="C16" s="446" t="s">
         <v>468</v>
       </c>
       <c r="D16" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="443" t="s">
+      <c r="H16" s="453" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="433"/>
-      <c r="B17" s="435"/>
-      <c r="C17" s="437"/>
+      <c r="A17" s="443"/>
+      <c r="B17" s="445"/>
+      <c r="C17" s="447"/>
       <c r="D17" s="155" t="s">
         <v>219</v>
       </c>
       <c r="E17" s="213">
         <v>300</v>
       </c>
-      <c r="H17" s="444"/>
+      <c r="H17" s="454"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="432">
+      <c r="A18" s="442">
         <v>9</v>
       </c>
-      <c r="B18" s="434" t="s">
+      <c r="B18" s="444" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="436" t="s">
+      <c r="C18" s="446" t="s">
         <v>197</v>
       </c>
       <c r="D18" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="445" t="s">
+      <c r="H18" s="455" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="433"/>
-      <c r="B19" s="435"/>
-      <c r="C19" s="437"/>
+      <c r="A19" s="443"/>
+      <c r="B19" s="445"/>
+      <c r="C19" s="447"/>
       <c r="D19" s="155" t="s">
         <v>220</v>
       </c>
       <c r="E19" s="213">
         <v>270</v>
       </c>
-      <c r="H19" s="446"/>
+      <c r="H19" s="456"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="432">
+      <c r="A20" s="442">
         <v>10</v>
       </c>
-      <c r="B20" s="434" t="s">
+      <c r="B20" s="444" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="436" t="s">
+      <c r="C20" s="446" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="441" t="s">
+      <c r="H20" s="451" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="433"/>
-      <c r="B21" s="435"/>
-      <c r="C21" s="437"/>
+      <c r="A21" s="443"/>
+      <c r="B21" s="445"/>
+      <c r="C21" s="447"/>
       <c r="D21" s="155" t="s">
         <v>221</v>
       </c>
       <c r="E21" s="213">
         <v>175</v>
       </c>
-      <c r="H21" s="442"/>
+      <c r="H21" s="452"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="432">
+      <c r="A22" s="442">
         <v>11</v>
       </c>
-      <c r="B22" s="434" t="s">
+      <c r="B22" s="444" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="436" t="s">
+      <c r="C22" s="446" t="s">
         <v>469</v>
       </c>
       <c r="D22" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="439" t="s">
+      <c r="H22" s="449" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="433"/>
-      <c r="B23" s="435"/>
-      <c r="C23" s="437"/>
+      <c r="A23" s="443"/>
+      <c r="B23" s="445"/>
+      <c r="C23" s="447"/>
       <c r="D23" s="155" t="s">
         <v>224</v>
       </c>
       <c r="E23" s="213">
         <v>240</v>
       </c>
-      <c r="H23" s="440"/>
+      <c r="H23" s="450"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="432">
+      <c r="A24" s="442">
         <v>12</v>
       </c>
-      <c r="B24" s="434" t="s">
+      <c r="B24" s="444" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="436" t="s">
+      <c r="C24" s="446" t="s">
         <v>470</v>
       </c>
       <c r="D24" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="441" t="s">
+      <c r="H24" s="451" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="433"/>
-      <c r="B25" s="435"/>
-      <c r="C25" s="437"/>
+      <c r="A25" s="443"/>
+      <c r="B25" s="445"/>
+      <c r="C25" s="447"/>
       <c r="D25" s="155" t="s">
         <v>93</v>
       </c>
       <c r="E25" s="213">
         <v>250</v>
       </c>
-      <c r="H25" s="442"/>
+      <c r="H25" s="452"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="432">
+      <c r="A26" s="442">
         <v>13</v>
       </c>
-      <c r="B26" s="434" t="s">
+      <c r="B26" s="444" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="436" t="s">
+      <c r="C26" s="446" t="s">
         <v>198</v>
       </c>
       <c r="D26" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="445" t="s">
+      <c r="H26" s="455" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="433"/>
-      <c r="B27" s="435"/>
-      <c r="C27" s="437"/>
+      <c r="A27" s="443"/>
+      <c r="B27" s="445"/>
+      <c r="C27" s="447"/>
       <c r="D27" s="155" t="s">
         <v>120</v>
       </c>
       <c r="E27" s="213">
         <v>320</v>
       </c>
-      <c r="H27" s="446"/>
+      <c r="H27" s="456"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="432">
+      <c r="A28" s="442">
         <v>14</v>
       </c>
-      <c r="B28" s="434" t="s">
+      <c r="B28" s="444" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="436" t="s">
+      <c r="C28" s="446" t="s">
         <v>472</v>
       </c>
       <c r="D28" s="154" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="443" t="s">
+      <c r="H28" s="453" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="433"/>
-      <c r="B29" s="435"/>
-      <c r="C29" s="437"/>
+      <c r="A29" s="443"/>
+      <c r="B29" s="445"/>
+      <c r="C29" s="447"/>
       <c r="D29" s="155" t="s">
         <v>223</v>
       </c>
       <c r="E29" s="213">
         <v>250</v>
       </c>
-      <c r="H29" s="444"/>
+      <c r="H29" s="454"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="432">
+      <c r="A30" s="442">
         <v>15</v>
       </c>
-      <c r="B30" s="434" t="s">
+      <c r="B30" s="444" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="436" t="s">
+      <c r="C30" s="446" t="s">
         <v>471</v>
       </c>
       <c r="D30" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="441" t="s">
+      <c r="H30" s="451" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="433"/>
-      <c r="B31" s="435"/>
-      <c r="C31" s="437"/>
+      <c r="A31" s="443"/>
+      <c r="B31" s="445"/>
+      <c r="C31" s="447"/>
       <c r="D31" s="155" t="s">
         <v>225</v>
       </c>
       <c r="E31" s="213">
         <v>230</v>
       </c>
-      <c r="H31" s="442"/>
+      <c r="H31" s="452"/>
     </row>
     <row r="33" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="34" spans="2:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="430" t="s">
+      <c r="C34" s="440" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="431"/>
+      <c r="D34" s="441"/>
     </row>
     <row r="35" spans="2:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="430" t="s">
+      <c r="C35" s="440" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="431"/>
+      <c r="D35" s="441"/>
     </row>
     <row r="36" spans="2:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="430" t="s">
+      <c r="C36" s="440" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="431"/>
+      <c r="D36" s="441"/>
     </row>
     <row r="37" spans="2:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="430" t="s">
+      <c r="C37" s="440" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="431"/>
+      <c r="D37" s="441"/>
     </row>
     <row r="38" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="430" t="s">
+      <c r="C38" s="440" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="431"/>
+      <c r="D38" s="441"/>
     </row>
     <row r="39" spans="2:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="430" t="s">
+      <c r="C39" s="440" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="431"/>
+      <c r="D39" s="441"/>
     </row>
     <row r="40" spans="2:4" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C40" s="430" t="s">
+      <c r="C40" s="440" t="s">
         <v>333</v>
       </c>
-      <c r="D40" s="431"/>
+      <c r="D40" s="441"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="2"/>
@@ -7290,30 +7530,31 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L139"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" style="214" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" style="219" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="245" customWidth="1"/>
     <col min="4" max="4" width="13" style="246" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="247" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="304" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="247" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="304" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="260" customWidth="1"/>
     <col min="8" max="8" width="17.140625" style="310" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="312" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="315" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="313" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="313" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" style="312" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" style="315" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="313" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="313" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="438" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="316" t="s">
         <v>628</v>
       </c>
@@ -7343,7 +7584,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="327" t="s">
         <v>629</v>
       </c>
@@ -7378,7 +7619,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="337" t="s">
         <v>630</v>
       </c>
@@ -7413,7 +7654,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="337" t="s">
         <v>631</v>
       </c>
@@ -7448,7 +7689,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="337" t="s">
         <v>632</v>
       </c>
@@ -7483,7 +7724,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="337" t="s">
         <v>633</v>
       </c>
@@ -7513,7 +7754,7 @@
       </c>
       <c r="L6" s="338"/>
     </row>
-    <row r="7" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="337" t="s">
         <v>634</v>
       </c>
@@ -7552,7 +7793,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="337" t="s">
         <v>636</v>
       </c>
@@ -7622,7 +7863,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="337" t="s">
         <v>659</v>
       </c>
@@ -7659,7 +7900,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="337" t="s">
         <v>640</v>
       </c>
@@ -7694,7 +7935,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="337" t="s">
         <v>641</v>
       </c>
@@ -7729,7 +7970,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="337" t="s">
         <v>819</v>
       </c>
@@ -7764,7 +8005,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="350" t="s">
         <v>642</v>
       </c>
@@ -7803,7 +8044,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="347" t="s">
         <v>654</v>
       </c>
@@ -7838,7 +8079,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="348" t="s">
         <v>655</v>
       </c>
@@ -7877,7 +8118,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="348" t="s">
         <v>656</v>
       </c>
@@ -7912,7 +8153,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="348" t="s">
         <v>657</v>
       </c>
@@ -7945,7 +8186,7 @@
       </c>
       <c r="L18" s="338"/>
     </row>
-    <row r="19" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="348" t="s">
         <v>658</v>
       </c>
@@ -7982,7 +8223,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="348" t="s">
         <v>639</v>
       </c>
@@ -8021,7 +8262,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="348" t="s">
         <v>660</v>
       </c>
@@ -8056,7 +8297,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="348" t="s">
         <v>661</v>
       </c>
@@ -8095,7 +8336,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="348" t="s">
         <v>662</v>
       </c>
@@ -8134,7 +8375,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="348" t="s">
         <v>663</v>
       </c>
@@ -8237,7 +8478,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="378" t="s">
         <v>671</v>
       </c>
@@ -8272,7 +8513,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="378" t="s">
         <v>672</v>
       </c>
@@ -8307,7 +8548,7 @@
       </c>
       <c r="L28" s="338"/>
     </row>
-    <row r="29" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="378" t="s">
         <v>635</v>
       </c>
@@ -8346,7 +8587,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="378" t="s">
         <v>673</v>
       </c>
@@ -8416,7 +8657,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="378" t="s">
         <v>675</v>
       </c>
@@ -8451,7 +8692,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="379" t="s">
         <v>676</v>
       </c>
@@ -8490,7 +8731,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="380" t="s">
         <v>681</v>
       </c>
@@ -8521,7 +8762,7 @@
       </c>
       <c r="L34" s="346"/>
     </row>
-    <row r="35" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="381" t="s">
         <v>682</v>
       </c>
@@ -8560,7 +8801,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="381" t="s">
         <v>683</v>
       </c>
@@ -8597,7 +8838,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="381" t="s">
         <v>685</v>
       </c>
@@ -8634,7 +8875,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="381" t="s">
         <v>688</v>
       </c>
@@ -8669,7 +8910,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="382" t="s">
         <v>690</v>
       </c>
@@ -8700,7 +8941,7 @@
       </c>
       <c r="L39" s="346"/>
     </row>
-    <row r="40" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="383" t="s">
         <v>684</v>
       </c>
@@ -8735,7 +8976,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="384" t="s">
         <v>687</v>
       </c>
@@ -8859,7 +9100,7 @@
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="316" t="s">
         <v>697</v>
       </c>
@@ -8904,7 +9145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>701</v>
       </c>
@@ -8959,7 +9200,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>707</v>
       </c>
@@ -8970,7 +9211,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>708</v>
       </c>
@@ -8992,7 +9233,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>710</v>
       </c>
@@ -9177,7 +9418,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="316" t="s">
         <v>698</v>
       </c>
@@ -9215,7 +9456,7 @@
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="216"/>
     </row>
-    <row r="88" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="316" t="s">
         <v>837</v>
       </c>
@@ -9228,15 +9469,15 @@
         <v>657</v>
       </c>
       <c r="B89" s="219" t="s">
-        <v>845</v>
+        <v>904</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="B90" s="219" t="s">
-        <v>846</v>
+        <v>902</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -9244,7 +9485,7 @@
         <v>844</v>
       </c>
       <c r="B91" s="219" t="s">
-        <v>847</v>
+        <v>905</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9252,7 +9493,7 @@
         <v>839</v>
       </c>
       <c r="B92" s="219" t="s">
-        <v>850</v>
+        <v>906</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9260,7 +9501,7 @@
         <v>840</v>
       </c>
       <c r="B93" s="219" t="s">
-        <v>849</v>
+        <v>907</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9268,7 +9509,7 @@
         <v>841</v>
       </c>
       <c r="B94" s="219" t="s">
-        <v>851</v>
+        <v>903</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9276,21 +9517,24 @@
         <v>842</v>
       </c>
       <c r="B95" s="219" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>908</v>
+      </c>
+      <c r="B96" s="219" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="216"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="216"/>
     </row>
-    <row r="99" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="398"/>
       <c r="B99" s="227"/>
       <c r="C99" s="399"/>
@@ -9304,23 +9548,25 @@
       <c r="K99" s="407"/>
       <c r="L99" s="407"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A100" s="410" t="s">
         <v>657</v>
       </c>
-      <c r="B100" s="230"/>
+      <c r="B100" s="439" t="s">
+        <v>953</v>
+      </c>
       <c r="C100" s="411"/>
       <c r="D100" s="412"/>
       <c r="E100" s="413"/>
-      <c r="F100" s="414"/>
-      <c r="G100" s="415"/>
-      <c r="H100" s="416"/>
-      <c r="I100" s="417"/>
-      <c r="J100" s="418"/>
-      <c r="K100" s="419"/>
-      <c r="L100" s="420"/>
-    </row>
-    <row r="101" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
+      <c r="F100" s="434"/>
+      <c r="G100" s="414"/>
+      <c r="H100" s="415"/>
+      <c r="I100" s="416"/>
+      <c r="J100" s="417"/>
+      <c r="K100" s="418"/>
+      <c r="L100" s="419"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A101" s="337" t="s">
         <v>641</v>
       </c>
@@ -9330,8 +9576,12 @@
       <c r="D101" s="306">
         <v>2</v>
       </c>
-      <c r="E101" s="307"/>
-      <c r="F101" s="308"/>
+      <c r="E101" s="307">
+        <v>2</v>
+      </c>
+      <c r="F101" s="435" t="s">
+        <v>937</v>
+      </c>
       <c r="G101" s="309">
         <v>1</v>
       </c>
@@ -9345,13 +9595,17 @@
       <c r="L101" s="338">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.5">
+      <c r="M101" s="438">
+        <f>3*(H101+H102+H103+H104)+2*(H105+H106)+H107</f>
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A102" s="337" t="s">
         <v>655</v>
       </c>
       <c r="B102" s="219" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="C102" s="305">
         <v>1</v>
@@ -9359,8 +9613,12 @@
       <c r="D102" s="306">
         <v>1</v>
       </c>
-      <c r="E102" s="307"/>
-      <c r="F102" s="308"/>
+      <c r="E102" s="307">
+        <v>2</v>
+      </c>
+      <c r="F102" s="435" t="s">
+        <v>937</v>
+      </c>
       <c r="G102" s="309">
         <v>1</v>
       </c>
@@ -9375,12 +9633,12 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="45" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:13" ht="45" x14ac:dyDescent="0.5">
       <c r="A103" s="337" t="s">
         <v>638</v>
       </c>
       <c r="B103" s="219" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="C103" s="305">
         <v>2</v>
@@ -9388,8 +9646,12 @@
       <c r="D103" s="306">
         <v>3</v>
       </c>
-      <c r="E103" s="307"/>
-      <c r="F103" s="308"/>
+      <c r="E103" s="307">
+        <v>3</v>
+      </c>
+      <c r="F103" s="435" t="s">
+        <v>937</v>
+      </c>
       <c r="G103" s="309">
         <v>2</v>
       </c>
@@ -9404,12 +9666,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A104" s="337" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B104" s="219" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="C104" s="305">
         <v>2</v>
@@ -9417,8 +9679,12 @@
       <c r="D104" s="306">
         <v>2</v>
       </c>
-      <c r="E104" s="307"/>
-      <c r="F104" s="308"/>
+      <c r="E104" s="307">
+        <v>3</v>
+      </c>
+      <c r="F104" s="435" t="s">
+        <v>937</v>
+      </c>
       <c r="G104" s="309">
         <v>2</v>
       </c>
@@ -9433,27 +9699,31 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="45" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A105" s="337" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B105" s="219" t="s">
-        <v>859</v>
+        <v>922</v>
       </c>
       <c r="C105" s="305">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D105" s="306">
         <v>5</v>
       </c>
-      <c r="E105" s="307"/>
-      <c r="F105" s="308"/>
+      <c r="E105" s="307">
+        <v>4</v>
+      </c>
+      <c r="F105" s="435" t="s">
+        <v>937</v>
+      </c>
       <c r="G105" s="309">
         <v>3</v>
       </c>
       <c r="H105" s="408">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="I105" s="311"/>
       <c r="J105" s="314"/>
@@ -9462,7 +9732,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A106" s="337" t="s">
         <v>657</v>
       </c>
@@ -9475,8 +9745,12 @@
       <c r="D106" s="306">
         <v>6</v>
       </c>
-      <c r="E106" s="307"/>
-      <c r="F106" s="308"/>
+      <c r="E106" s="307">
+        <v>7</v>
+      </c>
+      <c r="F106" s="435" t="s">
+        <v>938</v>
+      </c>
       <c r="G106" s="309">
         <v>4</v>
       </c>
@@ -9491,12 +9765,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="421" t="s">
-        <v>854</v>
+    <row r="107" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="420" t="s">
+        <v>847</v>
       </c>
       <c r="B107" s="232" t="s">
-        <v>856</v>
+        <v>946</v>
       </c>
       <c r="C107" s="339">
         <v>7</v>
@@ -9504,41 +9778,47 @@
       <c r="D107" s="340">
         <v>7</v>
       </c>
-      <c r="E107" s="341"/>
-      <c r="F107" s="342"/>
+      <c r="E107" s="341">
+        <v>8</v>
+      </c>
+      <c r="F107" s="436" t="s">
+        <v>936</v>
+      </c>
       <c r="G107" s="343">
         <v>5</v>
       </c>
-      <c r="H107" s="422">
+      <c r="H107" s="421">
         <f t="shared" si="1"/>
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="I107" s="344"/>
       <c r="J107" s="345"/>
-      <c r="K107" s="423"/>
+      <c r="K107" s="422"/>
       <c r="L107" s="346">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A108" s="410" t="s">
-        <v>860</v>
-      </c>
-      <c r="B108" s="230"/>
+        <v>851</v>
+      </c>
+      <c r="B108" s="439" t="s">
+        <v>955</v>
+      </c>
       <c r="C108" s="411"/>
       <c r="D108" s="412"/>
       <c r="E108" s="413"/>
-      <c r="F108" s="414"/>
-      <c r="G108" s="415"/>
-      <c r="H108" s="416"/>
-      <c r="I108" s="417"/>
-      <c r="J108" s="418"/>
-      <c r="K108" s="419"/>
-      <c r="L108" s="420"/>
-    </row>
-    <row r="109" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
+      <c r="F108" s="437"/>
+      <c r="G108" s="414"/>
+      <c r="H108" s="415"/>
+      <c r="I108" s="416"/>
+      <c r="J108" s="417"/>
+      <c r="K108" s="418"/>
+      <c r="L108" s="419"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A109" s="384" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="B109" s="219" t="s">
         <v>758</v>
@@ -9549,8 +9829,12 @@
       <c r="D109" s="306">
         <v>1</v>
       </c>
-      <c r="E109" s="307"/>
-      <c r="F109" s="308"/>
+      <c r="E109" s="307">
+        <v>1</v>
+      </c>
+      <c r="F109" s="435" t="s">
+        <v>937</v>
+      </c>
       <c r="G109" s="309">
         <v>1</v>
       </c>
@@ -9564,10 +9848,14 @@
       <c r="L109" s="338">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
+      <c r="M109" s="438">
+        <f>3*(H109+H110+H111+H112)+2*(H113+H114)+H115</f>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A110" s="384" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="C110" s="305">
         <v>2</v>
@@ -9575,8 +9863,12 @@
       <c r="D110" s="306">
         <v>1</v>
       </c>
-      <c r="E110" s="307"/>
-      <c r="F110" s="308"/>
+      <c r="E110" s="307">
+        <v>1</v>
+      </c>
+      <c r="F110" s="435" t="s">
+        <v>937</v>
+      </c>
       <c r="G110" s="309">
         <v>1</v>
       </c>
@@ -9589,12 +9881,12 @@
       <c r="K110" s="409"/>
       <c r="L110" s="338"/>
     </row>
-    <row r="111" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A111" s="384" t="s">
         <v>843</v>
       </c>
       <c r="B111" s="219" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="C111" s="305">
         <v>2</v>
@@ -9602,8 +9894,12 @@
       <c r="D111" s="306">
         <v>3</v>
       </c>
-      <c r="E111" s="307"/>
-      <c r="F111" s="308"/>
+      <c r="E111" s="307">
+        <v>4</v>
+      </c>
+      <c r="F111" s="435" t="s">
+        <v>937</v>
+      </c>
       <c r="G111" s="309">
         <v>2</v>
       </c>
@@ -9618,12 +9914,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="45" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:13" ht="45" x14ac:dyDescent="0.5">
       <c r="A112" s="384" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="B112" s="219" t="s">
-        <v>870</v>
+        <v>947</v>
       </c>
       <c r="C112" s="305">
         <v>3</v>
@@ -9631,28 +9927,32 @@
       <c r="D112" s="306">
         <v>3</v>
       </c>
-      <c r="E112" s="307"/>
-      <c r="F112" s="308"/>
+      <c r="E112" s="307">
+        <v>4</v>
+      </c>
+      <c r="F112" s="435" t="s">
+        <v>937</v>
+      </c>
       <c r="G112" s="309">
         <v>2</v>
       </c>
       <c r="H112" s="408">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="I112" s="311"/>
       <c r="J112" s="314"/>
       <c r="K112" s="409"/>
       <c r="L112" s="338">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A113" s="384" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="B113" s="219" t="s">
-        <v>871</v>
+        <v>923</v>
       </c>
       <c r="C113" s="305">
         <v>2</v>
@@ -9660,8 +9960,12 @@
       <c r="D113" s="306">
         <v>4</v>
       </c>
-      <c r="E113" s="307"/>
-      <c r="F113" s="308"/>
+      <c r="E113" s="307">
+        <v>4</v>
+      </c>
+      <c r="F113" s="435" t="s">
+        <v>937</v>
+      </c>
       <c r="G113" s="309">
         <v>3</v>
       </c>
@@ -9676,12 +9980,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="45" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:13" ht="45" x14ac:dyDescent="0.5">
       <c r="A114" s="384" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="B114" s="219" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="C114" s="305">
         <v>3</v>
@@ -9689,28 +9993,32 @@
       <c r="D114" s="306">
         <v>5</v>
       </c>
-      <c r="E114" s="307"/>
-      <c r="F114" s="308"/>
+      <c r="E114" s="307">
+        <v>5</v>
+      </c>
+      <c r="F114" s="435" t="s">
+        <v>942</v>
+      </c>
       <c r="G114" s="309">
         <v>4</v>
       </c>
       <c r="H114" s="408">
         <f t="shared" si="2"/>
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="I114" s="311"/>
       <c r="J114" s="314"/>
       <c r="K114" s="409"/>
       <c r="L114" s="338">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="385" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="B115" s="232" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="C115" s="339">
         <v>4</v>
@@ -9718,41 +10026,47 @@
       <c r="D115" s="340">
         <v>10</v>
       </c>
-      <c r="E115" s="341"/>
-      <c r="F115" s="342"/>
+      <c r="E115" s="341">
+        <v>8</v>
+      </c>
+      <c r="F115" s="436" t="s">
+        <v>940</v>
+      </c>
       <c r="G115" s="343">
         <v>5</v>
       </c>
-      <c r="H115" s="422">
+      <c r="H115" s="421">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="I115" s="344"/>
       <c r="J115" s="345"/>
-      <c r="K115" s="423"/>
+      <c r="K115" s="422"/>
       <c r="L115" s="346">
         <v>0.2</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A116" s="410" t="s">
-        <v>872</v>
-      </c>
-      <c r="B116" s="230"/>
+        <v>861</v>
+      </c>
+      <c r="B116" s="439" t="s">
+        <v>956</v>
+      </c>
       <c r="C116" s="411"/>
       <c r="D116" s="412"/>
       <c r="E116" s="413"/>
-      <c r="F116" s="414"/>
-      <c r="G116" s="415"/>
-      <c r="H116" s="416"/>
-      <c r="I116" s="417"/>
-      <c r="J116" s="418"/>
-      <c r="K116" s="419"/>
-      <c r="L116" s="420"/>
-    </row>
-    <row r="117" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="A117" s="426" t="s">
-        <v>874</v>
+      <c r="F116" s="437"/>
+      <c r="G116" s="414"/>
+      <c r="H116" s="415"/>
+      <c r="I116" s="416"/>
+      <c r="J116" s="417"/>
+      <c r="K116" s="418"/>
+      <c r="L116" s="419"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A117" s="425" t="s">
+        <v>863</v>
       </c>
       <c r="C117" s="305">
         <v>0</v>
@@ -9760,8 +10074,12 @@
       <c r="D117" s="306">
         <v>4</v>
       </c>
-      <c r="E117" s="307"/>
-      <c r="F117" s="308"/>
+      <c r="E117" s="307">
+        <v>1</v>
+      </c>
+      <c r="F117" s="435" t="s">
+        <v>937</v>
+      </c>
       <c r="G117" s="309">
         <v>1</v>
       </c>
@@ -9773,13 +10091,17 @@
       <c r="J117" s="314"/>
       <c r="K117" s="409"/>
       <c r="L117" s="338"/>
-    </row>
-    <row r="118" spans="1:12" ht="30" x14ac:dyDescent="0.5">
-      <c r="A118" s="426" t="s">
-        <v>873</v>
+      <c r="M117" s="438">
+        <f>3*(H117+H118+H119+H120)+2*(H121+H122)+H123</f>
+        <v>998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.5">
+      <c r="A118" s="425" t="s">
+        <v>862</v>
       </c>
       <c r="B118" s="219" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="C118" s="305">
         <v>1</v>
@@ -9787,8 +10109,12 @@
       <c r="D118" s="306">
         <v>1</v>
       </c>
-      <c r="E118" s="307"/>
-      <c r="F118" s="308"/>
+      <c r="E118" s="307">
+        <v>2</v>
+      </c>
+      <c r="F118" s="435" t="s">
+        <v>937</v>
+      </c>
       <c r="G118" s="309">
         <v>1</v>
       </c>
@@ -9803,8 +10129,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="A119" s="426" t="s">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A119" s="425" t="s">
         <v>659</v>
       </c>
       <c r="B119" s="219" t="s">
@@ -9816,8 +10142,12 @@
       <c r="D119" s="306">
         <v>5</v>
       </c>
-      <c r="E119" s="307"/>
-      <c r="F119" s="308"/>
+      <c r="E119" s="307">
+        <v>2</v>
+      </c>
+      <c r="F119" s="435" t="s">
+        <v>941</v>
+      </c>
       <c r="G119" s="309">
         <v>2</v>
       </c>
@@ -9832,12 +10162,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.5">
-      <c r="A120" s="426" t="s">
-        <v>876</v>
+    <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.5">
+      <c r="A120" s="425" t="s">
+        <v>865</v>
       </c>
       <c r="B120" s="219" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="C120" s="305">
         <v>2</v>
@@ -9845,8 +10175,12 @@
       <c r="D120" s="306">
         <v>2</v>
       </c>
-      <c r="E120" s="307"/>
-      <c r="F120" s="308"/>
+      <c r="E120" s="307">
+        <v>3</v>
+      </c>
+      <c r="F120" s="435" t="s">
+        <v>937</v>
+      </c>
       <c r="G120" s="309">
         <v>2</v>
       </c>
@@ -9861,9 +10195,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="A121" s="426" t="s">
-        <v>877</v>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A121" s="425" t="s">
+        <v>866</v>
       </c>
       <c r="B121" s="219" t="s">
         <v>758</v>
@@ -9874,8 +10208,12 @@
       <c r="D121" s="306">
         <v>2</v>
       </c>
-      <c r="E121" s="307"/>
-      <c r="F121" s="308"/>
+      <c r="E121" s="307">
+        <v>4</v>
+      </c>
+      <c r="F121" s="435" t="s">
+        <v>937</v>
+      </c>
       <c r="G121" s="309">
         <v>3</v>
       </c>
@@ -9890,12 +10228,12 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.5">
-      <c r="A122" s="426" t="s">
-        <v>878</v>
+    <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.5">
+      <c r="A122" s="425" t="s">
+        <v>867</v>
       </c>
       <c r="B122" s="219" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="C122" s="305">
         <v>3</v>
@@ -9903,8 +10241,12 @@
       <c r="D122" s="306">
         <v>3</v>
       </c>
-      <c r="E122" s="307"/>
-      <c r="F122" s="308"/>
+      <c r="E122" s="307">
+        <v>4</v>
+      </c>
+      <c r="F122" s="435" t="s">
+        <v>938</v>
+      </c>
       <c r="G122" s="309">
         <v>4</v>
       </c>
@@ -9919,12 +10261,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="427" t="s">
-        <v>875</v>
+    <row r="123" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="426" t="s">
+        <v>864</v>
       </c>
       <c r="B123" s="232" t="s">
-        <v>882</v>
+        <v>948</v>
       </c>
       <c r="C123" s="339">
         <v>5</v>
@@ -9932,44 +10274,50 @@
       <c r="D123" s="340">
         <v>5</v>
       </c>
-      <c r="E123" s="341"/>
-      <c r="F123" s="342"/>
+      <c r="E123" s="341">
+        <v>7</v>
+      </c>
+      <c r="F123" s="436" t="s">
+        <v>940</v>
+      </c>
       <c r="G123" s="343">
         <v>5</v>
       </c>
-      <c r="H123" s="422">
+      <c r="H123" s="421">
         <f t="shared" si="3"/>
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="I123" s="344"/>
       <c r="J123" s="345"/>
-      <c r="K123" s="423"/>
+      <c r="K123" s="422"/>
       <c r="L123" s="346">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A124" s="410" t="s">
         <v>839</v>
       </c>
-      <c r="B124" s="230"/>
+      <c r="B124" s="439" t="s">
+        <v>959</v>
+      </c>
       <c r="C124" s="411"/>
       <c r="D124" s="412"/>
       <c r="E124" s="413"/>
-      <c r="F124" s="414"/>
-      <c r="G124" s="415"/>
-      <c r="H124" s="416"/>
-      <c r="I124" s="417"/>
-      <c r="J124" s="418"/>
-      <c r="K124" s="419"/>
-      <c r="L124" s="420"/>
-    </row>
-    <row r="125" spans="1:12" ht="45" x14ac:dyDescent="0.5">
-      <c r="A125" s="428" t="s">
-        <v>883</v>
+      <c r="F124" s="437"/>
+      <c r="G124" s="414"/>
+      <c r="H124" s="415"/>
+      <c r="I124" s="416"/>
+      <c r="J124" s="417"/>
+      <c r="K124" s="418"/>
+      <c r="L124" s="419"/>
+    </row>
+    <row r="125" spans="1:13" ht="45" x14ac:dyDescent="0.5">
+      <c r="A125" s="427" t="s">
+        <v>871</v>
       </c>
       <c r="B125" s="219" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="C125" s="305">
         <v>1</v>
@@ -9977,8 +10325,12 @@
       <c r="D125" s="306">
         <v>1</v>
       </c>
-      <c r="E125" s="307"/>
-      <c r="F125" s="308"/>
+      <c r="E125" s="307">
+        <v>2</v>
+      </c>
+      <c r="F125" s="435" t="s">
+        <v>937</v>
+      </c>
       <c r="G125" s="309">
         <v>1</v>
       </c>
@@ -9992,13 +10344,17 @@
       <c r="L125" s="338">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" ht="30" x14ac:dyDescent="0.5">
-      <c r="A126" s="428" t="s">
-        <v>884</v>
+      <c r="M125" s="438">
+        <f>3*(H125+H126+H127+H128)+2*(H129+H130)+H131</f>
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="30" x14ac:dyDescent="0.5">
+      <c r="A126" s="427" t="s">
+        <v>872</v>
       </c>
       <c r="B126" s="219" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C126" s="305">
         <v>1</v>
@@ -10006,8 +10362,12 @@
       <c r="D126" s="306">
         <v>3</v>
       </c>
-      <c r="E126" s="307"/>
-      <c r="F126" s="308"/>
+      <c r="E126" s="307">
+        <v>2</v>
+      </c>
+      <c r="F126" s="435" t="s">
+        <v>937</v>
+      </c>
       <c r="G126" s="309">
         <v>1</v>
       </c>
@@ -10022,8 +10382,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="A127" s="428" t="s">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A127" s="427" t="s">
         <v>632</v>
       </c>
       <c r="B127" s="219" t="s">
@@ -10035,8 +10395,12 @@
       <c r="D127" s="306">
         <v>2</v>
       </c>
-      <c r="E127" s="307"/>
-      <c r="F127" s="308"/>
+      <c r="E127" s="307">
+        <v>3</v>
+      </c>
+      <c r="F127" s="435" t="s">
+        <v>939</v>
+      </c>
       <c r="G127" s="309">
         <v>2</v>
       </c>
@@ -10051,9 +10415,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="A128" s="428" t="s">
-        <v>887</v>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A128" s="427" t="s">
+        <v>875</v>
       </c>
       <c r="B128" s="219" t="s">
         <v>635</v>
@@ -10064,8 +10428,12 @@
       <c r="D128" s="306">
         <v>4</v>
       </c>
-      <c r="E128" s="307"/>
-      <c r="F128" s="308"/>
+      <c r="E128" s="307">
+        <v>4</v>
+      </c>
+      <c r="F128" s="435" t="s">
+        <v>937</v>
+      </c>
       <c r="G128" s="309">
         <v>2</v>
       </c>
@@ -10080,9 +10448,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="A129" s="428" t="s">
-        <v>885</v>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A129" s="427" t="s">
+        <v>873</v>
       </c>
       <c r="C129" s="305">
         <v>6</v>
@@ -10090,8 +10458,12 @@
       <c r="D129" s="306">
         <v>5</v>
       </c>
-      <c r="E129" s="307"/>
-      <c r="F129" s="308"/>
+      <c r="E129" s="307">
+        <v>5</v>
+      </c>
+      <c r="F129" s="435" t="s">
+        <v>937</v>
+      </c>
       <c r="G129" s="309">
         <v>3</v>
       </c>
@@ -10104,12 +10476,12 @@
       <c r="K129" s="409"/>
       <c r="L129" s="338"/>
     </row>
-    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.5">
-      <c r="A130" s="428" t="s">
-        <v>888</v>
+    <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.5">
+      <c r="A130" s="427" t="s">
+        <v>876</v>
       </c>
       <c r="B130" s="219" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="C130" s="305">
         <v>3</v>
@@ -10117,8 +10489,12 @@
       <c r="D130" s="306">
         <v>3</v>
       </c>
-      <c r="E130" s="307"/>
-      <c r="F130" s="308"/>
+      <c r="E130" s="307">
+        <v>5</v>
+      </c>
+      <c r="F130" s="435" t="s">
+        <v>937</v>
+      </c>
       <c r="G130" s="309">
         <v>4</v>
       </c>
@@ -10133,12 +10509,12 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="429" t="s">
-        <v>886</v>
+    <row r="131" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="428" t="s">
+        <v>874</v>
       </c>
       <c r="B131" s="232" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="C131" s="339">
         <v>5</v>
@@ -10146,41 +10522,47 @@
       <c r="D131" s="340">
         <v>4</v>
       </c>
-      <c r="E131" s="341"/>
-      <c r="F131" s="342"/>
+      <c r="E131" s="341">
+        <v>6</v>
+      </c>
+      <c r="F131" s="436" t="s">
+        <v>937</v>
+      </c>
       <c r="G131" s="343">
         <v>5</v>
       </c>
-      <c r="H131" s="422">
+      <c r="H131" s="421">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="I131" s="344"/>
       <c r="J131" s="345"/>
-      <c r="K131" s="423"/>
+      <c r="K131" s="422"/>
       <c r="L131" s="346">
         <v>0.2</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A132" s="410" t="s">
         <v>840</v>
       </c>
-      <c r="B132" s="230"/>
+      <c r="B132" s="439" t="s">
+        <v>957</v>
+      </c>
       <c r="C132" s="411"/>
       <c r="D132" s="412"/>
       <c r="E132" s="413"/>
-      <c r="F132" s="414"/>
-      <c r="G132" s="415"/>
-      <c r="H132" s="416"/>
-      <c r="I132" s="417"/>
-      <c r="J132" s="418"/>
-      <c r="K132" s="419"/>
-      <c r="L132" s="420"/>
-    </row>
-    <row r="133" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="A133" s="424" t="s">
-        <v>893</v>
+      <c r="F132" s="437"/>
+      <c r="G132" s="414"/>
+      <c r="H132" s="415"/>
+      <c r="I132" s="416"/>
+      <c r="J132" s="417"/>
+      <c r="K132" s="418"/>
+      <c r="L132" s="419"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A133" s="423" t="s">
+        <v>880</v>
       </c>
       <c r="C133" s="305">
         <v>1</v>
@@ -10188,8 +10570,12 @@
       <c r="D133" s="306">
         <v>1</v>
       </c>
-      <c r="E133" s="307"/>
-      <c r="F133" s="308"/>
+      <c r="E133" s="307">
+        <v>1</v>
+      </c>
+      <c r="F133" s="435" t="s">
+        <v>943</v>
+      </c>
       <c r="G133" s="309">
         <v>1</v>
       </c>
@@ -10201,13 +10587,17 @@
       <c r="J133" s="314"/>
       <c r="K133" s="409"/>
       <c r="L133" s="338"/>
-    </row>
-    <row r="134" spans="1:12" ht="30" x14ac:dyDescent="0.5">
-      <c r="A134" s="424" t="s">
-        <v>894</v>
+      <c r="M133" s="438">
+        <f>3*(H133+H134+H135+H136)+2*(H137+H138)+H139</f>
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="30" x14ac:dyDescent="0.5">
+      <c r="A134" s="423" t="s">
+        <v>881</v>
       </c>
       <c r="B134" s="219" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="C134" s="305">
         <v>2</v>
@@ -10215,8 +10605,12 @@
       <c r="D134" s="306">
         <v>4</v>
       </c>
-      <c r="E134" s="307"/>
-      <c r="F134" s="308"/>
+      <c r="E134" s="307">
+        <v>3</v>
+      </c>
+      <c r="F134" s="435" t="s">
+        <v>943</v>
+      </c>
       <c r="G134" s="309">
         <v>1</v>
       </c>
@@ -10231,12 +10625,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.5">
-      <c r="A135" s="424" t="s">
-        <v>896</v>
+    <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.5">
+      <c r="A135" s="423" t="s">
+        <v>883</v>
       </c>
       <c r="B135" s="219" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="C135" s="305">
         <v>1</v>
@@ -10244,8 +10638,12 @@
       <c r="D135" s="306">
         <v>3</v>
       </c>
-      <c r="E135" s="307"/>
-      <c r="F135" s="308"/>
+      <c r="E135" s="307">
+        <v>2</v>
+      </c>
+      <c r="F135" s="435" t="s">
+        <v>943</v>
+      </c>
       <c r="G135" s="309">
         <v>2</v>
       </c>
@@ -10260,12 +10658,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="45" x14ac:dyDescent="0.5">
-      <c r="A136" s="424" t="s">
-        <v>897</v>
+    <row r="136" spans="1:13" ht="45" x14ac:dyDescent="0.5">
+      <c r="A136" s="423" t="s">
+        <v>884</v>
       </c>
       <c r="B136" s="219" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="C136" s="305">
         <v>2</v>
@@ -10273,8 +10671,12 @@
       <c r="D136" s="306">
         <v>6</v>
       </c>
-      <c r="E136" s="307"/>
-      <c r="F136" s="308"/>
+      <c r="E136" s="307">
+        <v>4</v>
+      </c>
+      <c r="F136" s="435" t="s">
+        <v>943</v>
+      </c>
       <c r="G136" s="309">
         <v>2</v>
       </c>
@@ -10289,9 +10691,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="A137" s="424" t="s">
-        <v>895</v>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A137" s="423" t="s">
+        <v>882</v>
       </c>
       <c r="B137" s="219" t="s">
         <v>635</v>
@@ -10302,8 +10704,12 @@
       <c r="D137" s="306">
         <v>5</v>
       </c>
-      <c r="E137" s="307"/>
-      <c r="F137" s="308"/>
+      <c r="E137" s="307">
+        <v>4</v>
+      </c>
+      <c r="F137" s="435" t="s">
+        <v>943</v>
+      </c>
       <c r="G137" s="309">
         <v>3</v>
       </c>
@@ -10318,12 +10724,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="30" x14ac:dyDescent="0.5">
-      <c r="A138" s="424" t="s">
-        <v>898</v>
+    <row r="138" spans="1:13" ht="30" x14ac:dyDescent="0.5">
+      <c r="A138" s="423" t="s">
+        <v>885</v>
       </c>
       <c r="B138" s="219" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="C138" s="305">
         <v>5</v>
@@ -10331,8 +10737,12 @@
       <c r="D138" s="306">
         <v>6</v>
       </c>
-      <c r="E138" s="307"/>
-      <c r="F138" s="308"/>
+      <c r="E138" s="307">
+        <v>6</v>
+      </c>
+      <c r="F138" s="435" t="s">
+        <v>944</v>
+      </c>
       <c r="G138" s="309">
         <v>4</v>
       </c>
@@ -10347,12 +10757,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="425" t="s">
-        <v>899</v>
+    <row r="139" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="424" t="s">
+        <v>886</v>
       </c>
       <c r="B139" s="232" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="C139" s="339">
         <v>7</v>
@@ -10360,21 +10770,1005 @@
       <c r="D139" s="340">
         <v>1</v>
       </c>
-      <c r="E139" s="341"/>
-      <c r="F139" s="342"/>
+      <c r="E139" s="341">
+        <v>8</v>
+      </c>
+      <c r="F139" s="436" t="s">
+        <v>945</v>
+      </c>
       <c r="G139" s="343">
         <v>5</v>
       </c>
-      <c r="H139" s="422">
+      <c r="H139" s="421">
         <f t="shared" si="5"/>
         <v>136</v>
       </c>
       <c r="I139" s="344"/>
       <c r="J139" s="345"/>
-      <c r="K139" s="423"/>
+      <c r="K139" s="422"/>
       <c r="L139" s="346">
         <v>0.35</v>
       </c>
+    </row>
+    <row r="140" spans="1:13" ht="45" x14ac:dyDescent="0.3">
+      <c r="A140" s="410" t="s">
+        <v>841</v>
+      </c>
+      <c r="B140" s="439" t="s">
+        <v>958</v>
+      </c>
+      <c r="C140" s="411"/>
+      <c r="D140" s="412"/>
+      <c r="E140" s="413"/>
+      <c r="F140" s="437"/>
+      <c r="G140" s="414"/>
+      <c r="H140" s="415"/>
+      <c r="I140" s="416"/>
+      <c r="J140" s="417"/>
+      <c r="K140" s="418"/>
+      <c r="L140" s="419"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A141" s="429" t="s">
+        <v>892</v>
+      </c>
+      <c r="B141" s="219" t="s">
+        <v>899</v>
+      </c>
+      <c r="C141" s="305">
+        <v>1</v>
+      </c>
+      <c r="D141" s="306">
+        <v>1</v>
+      </c>
+      <c r="E141" s="307">
+        <v>2</v>
+      </c>
+      <c r="F141" s="435" t="s">
+        <v>841</v>
+      </c>
+      <c r="G141" s="309">
+        <v>1</v>
+      </c>
+      <c r="H141" s="408">
+        <f>8*C141+5*D141+100*L141+10*(G141-1)</f>
+        <v>28</v>
+      </c>
+      <c r="I141" s="311"/>
+      <c r="J141" s="314"/>
+      <c r="K141" s="409"/>
+      <c r="L141" s="338">
+        <v>0.15</v>
+      </c>
+      <c r="M141" s="438">
+        <f>3*(H141+H142+H143+H144)+2*(H145+H146)+H147</f>
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A142" s="429" t="s">
+        <v>893</v>
+      </c>
+      <c r="B142" s="219" t="s">
+        <v>949</v>
+      </c>
+      <c r="C142" s="305">
+        <v>2</v>
+      </c>
+      <c r="D142" s="306">
+        <v>3</v>
+      </c>
+      <c r="E142" s="307">
+        <v>3</v>
+      </c>
+      <c r="F142" s="435" t="s">
+        <v>841</v>
+      </c>
+      <c r="G142" s="309">
+        <v>1</v>
+      </c>
+      <c r="H142" s="408">
+        <f t="shared" ref="H142:H147" si="6">8*C142+5*D142+100*L142+10*(G142-1)</f>
+        <v>66</v>
+      </c>
+      <c r="I142" s="311"/>
+      <c r="J142" s="314"/>
+      <c r="K142" s="409"/>
+      <c r="L142" s="338">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.5">
+      <c r="A143" s="429" t="s">
+        <v>894</v>
+      </c>
+      <c r="B143" s="219" t="s">
+        <v>900</v>
+      </c>
+      <c r="C143" s="305">
+        <v>3</v>
+      </c>
+      <c r="D143" s="306">
+        <v>5</v>
+      </c>
+      <c r="E143" s="307">
+        <v>4</v>
+      </c>
+      <c r="F143" s="435" t="s">
+        <v>841</v>
+      </c>
+      <c r="G143" s="309">
+        <v>2</v>
+      </c>
+      <c r="H143" s="408">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="I143" s="311"/>
+      <c r="J143" s="314"/>
+      <c r="K143" s="409"/>
+      <c r="L143" s="338">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.5">
+      <c r="A144" s="429" t="s">
+        <v>895</v>
+      </c>
+      <c r="B144" s="219" t="s">
+        <v>950</v>
+      </c>
+      <c r="C144" s="305">
+        <v>5</v>
+      </c>
+      <c r="D144" s="306">
+        <v>5</v>
+      </c>
+      <c r="E144" s="307">
+        <v>4</v>
+      </c>
+      <c r="F144" s="435" t="s">
+        <v>841</v>
+      </c>
+      <c r="G144" s="309">
+        <v>2</v>
+      </c>
+      <c r="H144" s="408">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="I144" s="311"/>
+      <c r="J144" s="314"/>
+      <c r="K144" s="409"/>
+      <c r="L144" s="338">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.5">
+      <c r="A145" s="429" t="s">
+        <v>898</v>
+      </c>
+      <c r="B145" s="219" t="s">
+        <v>952</v>
+      </c>
+      <c r="C145" s="305">
+        <v>4</v>
+      </c>
+      <c r="D145" s="306">
+        <v>6</v>
+      </c>
+      <c r="E145" s="307">
+        <v>6</v>
+      </c>
+      <c r="F145" s="435" t="s">
+        <v>936</v>
+      </c>
+      <c r="G145" s="309">
+        <v>3</v>
+      </c>
+      <c r="H145" s="408">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="I145" s="311"/>
+      <c r="J145" s="314"/>
+      <c r="K145" s="409"/>
+      <c r="L145" s="338">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="30" x14ac:dyDescent="0.5">
+      <c r="A146" s="429" t="s">
+        <v>896</v>
+      </c>
+      <c r="B146" s="219" t="s">
+        <v>901</v>
+      </c>
+      <c r="C146" s="305">
+        <v>4</v>
+      </c>
+      <c r="D146" s="306">
+        <v>7</v>
+      </c>
+      <c r="E146" s="307">
+        <v>6</v>
+      </c>
+      <c r="F146" s="435" t="s">
+        <v>841</v>
+      </c>
+      <c r="G146" s="309">
+        <v>4</v>
+      </c>
+      <c r="H146" s="408">
+        <f t="shared" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="I146" s="311"/>
+      <c r="J146" s="314"/>
+      <c r="K146" s="409"/>
+      <c r="L146" s="338">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="430" t="s">
+        <v>897</v>
+      </c>
+      <c r="B147" s="232" t="s">
+        <v>951</v>
+      </c>
+      <c r="C147" s="339">
+        <v>5</v>
+      </c>
+      <c r="D147" s="340">
+        <v>5</v>
+      </c>
+      <c r="E147" s="341">
+        <v>7</v>
+      </c>
+      <c r="F147" s="436" t="s">
+        <v>841</v>
+      </c>
+      <c r="G147" s="343">
+        <v>5</v>
+      </c>
+      <c r="H147" s="421">
+        <f t="shared" si="6"/>
+        <v>175</v>
+      </c>
+      <c r="I147" s="344"/>
+      <c r="J147" s="345"/>
+      <c r="K147" s="422"/>
+      <c r="L147" s="346">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+      <c r="A148" s="410" t="s">
+        <v>842</v>
+      </c>
+      <c r="B148" s="439" t="s">
+        <v>720</v>
+      </c>
+      <c r="C148" s="411"/>
+      <c r="D148" s="412"/>
+      <c r="E148" s="413"/>
+      <c r="F148" s="437"/>
+      <c r="G148" s="414"/>
+      <c r="H148" s="415"/>
+      <c r="I148" s="416"/>
+      <c r="J148" s="417"/>
+      <c r="K148" s="418"/>
+      <c r="L148" s="419"/>
+    </row>
+    <row r="149" spans="1:13" ht="30" x14ac:dyDescent="0.5">
+      <c r="A149" s="432" t="s">
+        <v>911</v>
+      </c>
+      <c r="B149" s="219" t="s">
+        <v>918</v>
+      </c>
+      <c r="C149" s="305">
+        <v>1</v>
+      </c>
+      <c r="D149" s="306">
+        <v>2</v>
+      </c>
+      <c r="E149" s="307">
+        <v>1</v>
+      </c>
+      <c r="F149" s="435" t="s">
+        <v>937</v>
+      </c>
+      <c r="G149" s="309">
+        <v>1</v>
+      </c>
+      <c r="H149" s="408">
+        <f>8*C149+5*D149+100*L149+10*(G149-1)</f>
+        <v>33</v>
+      </c>
+      <c r="I149" s="311"/>
+      <c r="J149" s="314"/>
+      <c r="K149" s="409"/>
+      <c r="L149" s="338">
+        <v>0.15</v>
+      </c>
+      <c r="M149" s="438">
+        <f>3*(H149+H150+H151+H152)+2*(H153+H154)+H155</f>
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A150" s="432" t="s">
+        <v>912</v>
+      </c>
+      <c r="B150" s="219" t="s">
+        <v>917</v>
+      </c>
+      <c r="C150" s="305">
+        <v>2</v>
+      </c>
+      <c r="D150" s="306">
+        <v>3</v>
+      </c>
+      <c r="E150" s="307">
+        <v>2</v>
+      </c>
+      <c r="F150" s="435" t="s">
+        <v>941</v>
+      </c>
+      <c r="G150" s="309">
+        <v>1</v>
+      </c>
+      <c r="H150" s="408">
+        <f t="shared" ref="H150:H155" si="7">8*C150+5*D150+100*L150+10*(G150-1)</f>
+        <v>41</v>
+      </c>
+      <c r="I150" s="311"/>
+      <c r="J150" s="314"/>
+      <c r="K150" s="409"/>
+      <c r="L150" s="338">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="30" x14ac:dyDescent="0.5">
+      <c r="A151" s="432" t="s">
+        <v>913</v>
+      </c>
+      <c r="B151" s="219" t="s">
+        <v>919</v>
+      </c>
+      <c r="C151" s="305">
+        <v>2</v>
+      </c>
+      <c r="D151" s="306">
+        <v>2</v>
+      </c>
+      <c r="E151" s="307">
+        <v>4</v>
+      </c>
+      <c r="F151" s="435" t="s">
+        <v>937</v>
+      </c>
+      <c r="G151" s="309">
+        <v>2</v>
+      </c>
+      <c r="H151" s="408">
+        <f t="shared" si="7"/>
+        <v>71</v>
+      </c>
+      <c r="I151" s="311"/>
+      <c r="J151" s="314"/>
+      <c r="K151" s="409"/>
+      <c r="L151" s="338">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A152" s="432" t="s">
+        <v>915</v>
+      </c>
+      <c r="B152" s="219" t="s">
+        <v>917</v>
+      </c>
+      <c r="C152" s="305">
+        <v>3</v>
+      </c>
+      <c r="D152" s="306">
+        <v>6</v>
+      </c>
+      <c r="E152" s="307">
+        <v>5</v>
+      </c>
+      <c r="F152" s="435" t="s">
+        <v>941</v>
+      </c>
+      <c r="G152" s="309">
+        <v>2</v>
+      </c>
+      <c r="H152" s="408">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="I152" s="311"/>
+      <c r="J152" s="314"/>
+      <c r="K152" s="409"/>
+      <c r="L152" s="338">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="45" x14ac:dyDescent="0.5">
+      <c r="A153" s="432" t="s">
+        <v>914</v>
+      </c>
+      <c r="B153" s="219" t="s">
+        <v>920</v>
+      </c>
+      <c r="C153" s="305">
+        <v>3</v>
+      </c>
+      <c r="D153" s="306">
+        <v>5</v>
+      </c>
+      <c r="E153" s="307">
+        <v>5</v>
+      </c>
+      <c r="F153" s="435" t="s">
+        <v>936</v>
+      </c>
+      <c r="G153" s="309">
+        <v>3</v>
+      </c>
+      <c r="H153" s="408">
+        <f t="shared" si="7"/>
+        <v>89</v>
+      </c>
+      <c r="I153" s="311"/>
+      <c r="J153" s="314"/>
+      <c r="K153" s="409"/>
+      <c r="L153" s="338">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="45" x14ac:dyDescent="0.5">
+      <c r="A154" s="432" t="s">
+        <v>916</v>
+      </c>
+      <c r="B154" s="219" t="s">
+        <v>924</v>
+      </c>
+      <c r="C154" s="305">
+        <v>4</v>
+      </c>
+      <c r="D154" s="306">
+        <v>6</v>
+      </c>
+      <c r="E154" s="307">
+        <v>6</v>
+      </c>
+      <c r="F154" s="435" t="s">
+        <v>936</v>
+      </c>
+      <c r="G154" s="309">
+        <v>4</v>
+      </c>
+      <c r="H154" s="408">
+        <f t="shared" si="7"/>
+        <v>107</v>
+      </c>
+      <c r="I154" s="311"/>
+      <c r="J154" s="314"/>
+      <c r="K154" s="409"/>
+      <c r="L154" s="338">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="433" t="s">
+        <v>143</v>
+      </c>
+      <c r="B155" s="232" t="s">
+        <v>921</v>
+      </c>
+      <c r="C155" s="339">
+        <v>5</v>
+      </c>
+      <c r="D155" s="340">
+        <v>6</v>
+      </c>
+      <c r="E155" s="341">
+        <v>9</v>
+      </c>
+      <c r="F155" s="436" t="s">
+        <v>937</v>
+      </c>
+      <c r="G155" s="343">
+        <v>5</v>
+      </c>
+      <c r="H155" s="421">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="I155" s="344"/>
+      <c r="J155" s="345"/>
+      <c r="K155" s="422"/>
+      <c r="L155" s="346">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+      <c r="A156" s="410" t="s">
+        <v>908</v>
+      </c>
+      <c r="B156" s="439" t="s">
+        <v>954</v>
+      </c>
+      <c r="C156" s="411"/>
+      <c r="D156" s="412"/>
+      <c r="E156" s="413"/>
+      <c r="F156" s="437"/>
+      <c r="G156" s="414"/>
+      <c r="H156" s="415"/>
+      <c r="I156" s="416"/>
+      <c r="J156" s="417"/>
+      <c r="K156" s="418"/>
+      <c r="L156" s="419"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A157" s="397" t="s">
+        <v>925</v>
+      </c>
+      <c r="B157" s="219" t="s">
+        <v>933</v>
+      </c>
+      <c r="C157" s="305">
+        <v>2</v>
+      </c>
+      <c r="D157" s="306">
+        <v>1</v>
+      </c>
+      <c r="E157" s="307">
+        <v>1</v>
+      </c>
+      <c r="F157" s="435" t="s">
+        <v>937</v>
+      </c>
+      <c r="G157" s="309">
+        <v>1</v>
+      </c>
+      <c r="H157" s="408">
+        <f>8*C157+5*D157+100*L157+10*(G157-1)</f>
+        <v>36</v>
+      </c>
+      <c r="I157" s="311"/>
+      <c r="J157" s="314"/>
+      <c r="K157" s="409"/>
+      <c r="L157" s="338">
+        <v>0.15</v>
+      </c>
+      <c r="M157" s="438">
+        <f>3*(H157+H158+H159+H160)+2*(H161+H162)+H163</f>
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A158" s="397" t="s">
+        <v>926</v>
+      </c>
+      <c r="B158" s="219" t="s">
+        <v>635</v>
+      </c>
+      <c r="C158" s="305">
+        <v>2</v>
+      </c>
+      <c r="D158" s="306">
+        <v>2</v>
+      </c>
+      <c r="E158" s="307">
+        <v>2</v>
+      </c>
+      <c r="F158" s="435" t="s">
+        <v>937</v>
+      </c>
+      <c r="G158" s="309">
+        <v>1</v>
+      </c>
+      <c r="H158" s="408">
+        <f t="shared" ref="H158:H163" si="8">8*C158+5*D158+100*L158+10*(G158-1)</f>
+        <v>36</v>
+      </c>
+      <c r="I158" s="311"/>
+      <c r="J158" s="314"/>
+      <c r="K158" s="409"/>
+      <c r="L158" s="338">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A159" s="397" t="s">
+        <v>927</v>
+      </c>
+      <c r="C159" s="305">
+        <v>4</v>
+      </c>
+      <c r="D159" s="306">
+        <v>5</v>
+      </c>
+      <c r="E159" s="307">
+        <v>4</v>
+      </c>
+      <c r="F159" s="435" t="s">
+        <v>939</v>
+      </c>
+      <c r="G159" s="309">
+        <v>2</v>
+      </c>
+      <c r="H159" s="408">
+        <f t="shared" si="8"/>
+        <v>67</v>
+      </c>
+      <c r="I159" s="311"/>
+      <c r="J159" s="314"/>
+      <c r="K159" s="409"/>
+      <c r="L159" s="338"/>
+    </row>
+    <row r="160" spans="1:13" ht="30" x14ac:dyDescent="0.5">
+      <c r="A160" s="397" t="s">
+        <v>931</v>
+      </c>
+      <c r="B160" s="219" t="s">
+        <v>935</v>
+      </c>
+      <c r="C160" s="305">
+        <v>2</v>
+      </c>
+      <c r="D160" s="306">
+        <v>4</v>
+      </c>
+      <c r="E160" s="307"/>
+      <c r="F160" s="435" t="s">
+        <v>939</v>
+      </c>
+      <c r="G160" s="309">
+        <v>2</v>
+      </c>
+      <c r="H160" s="408">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="I160" s="311"/>
+      <c r="J160" s="314"/>
+      <c r="K160" s="409"/>
+      <c r="L160" s="338">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.5">
+      <c r="A161" s="397" t="s">
+        <v>930</v>
+      </c>
+      <c r="B161" s="219" t="s">
+        <v>934</v>
+      </c>
+      <c r="C161" s="305">
+        <v>4</v>
+      </c>
+      <c r="D161" s="306">
+        <v>7</v>
+      </c>
+      <c r="E161" s="307"/>
+      <c r="F161" s="435" t="s">
+        <v>939</v>
+      </c>
+      <c r="G161" s="309">
+        <v>3</v>
+      </c>
+      <c r="H161" s="408">
+        <f t="shared" si="8"/>
+        <v>97</v>
+      </c>
+      <c r="I161" s="311"/>
+      <c r="J161" s="314"/>
+      <c r="K161" s="409"/>
+      <c r="L161" s="338">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A162" s="397" t="s">
+        <v>932</v>
+      </c>
+      <c r="B162" s="219" t="s">
+        <v>772</v>
+      </c>
+      <c r="C162" s="305">
+        <v>5</v>
+      </c>
+      <c r="D162" s="306">
+        <v>6</v>
+      </c>
+      <c r="E162" s="307"/>
+      <c r="F162" s="435" t="s">
+        <v>937</v>
+      </c>
+      <c r="G162" s="309">
+        <v>4</v>
+      </c>
+      <c r="H162" s="408">
+        <f t="shared" si="8"/>
+        <v>130</v>
+      </c>
+      <c r="I162" s="311"/>
+      <c r="J162" s="314"/>
+      <c r="K162" s="409"/>
+      <c r="L162" s="338">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="431" t="s">
+        <v>928</v>
+      </c>
+      <c r="B163" s="232" t="s">
+        <v>929</v>
+      </c>
+      <c r="C163" s="339">
+        <v>8</v>
+      </c>
+      <c r="D163" s="340">
+        <v>7</v>
+      </c>
+      <c r="E163" s="341"/>
+      <c r="F163" s="436" t="s">
+        <v>940</v>
+      </c>
+      <c r="G163" s="343">
+        <v>5</v>
+      </c>
+      <c r="H163" s="421">
+        <f t="shared" si="8"/>
+        <v>179</v>
+      </c>
+      <c r="I163" s="344"/>
+      <c r="J163" s="345"/>
+      <c r="K163" s="422"/>
+      <c r="L163" s="346">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A165" s="381" t="s">
+        <v>961</v>
+      </c>
+      <c r="C165" s="305">
+        <v>1</v>
+      </c>
+      <c r="D165" s="306">
+        <v>1</v>
+      </c>
+      <c r="E165" s="307">
+        <v>0</v>
+      </c>
+      <c r="F165" s="435" t="s">
+        <v>936</v>
+      </c>
+      <c r="G165" s="309">
+        <v>1</v>
+      </c>
+      <c r="H165" s="408">
+        <f>8*C165+5*D165+100*L165+10*(G165-1)</f>
+        <v>13</v>
+      </c>
+      <c r="I165" s="311"/>
+      <c r="J165" s="314"/>
+      <c r="K165" s="409"/>
+      <c r="L165" s="338"/>
+    </row>
+    <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.5">
+      <c r="A166" s="381" t="s">
+        <v>962</v>
+      </c>
+      <c r="B166" s="219" t="s">
+        <v>963</v>
+      </c>
+      <c r="C166" s="305">
+        <v>1</v>
+      </c>
+      <c r="D166" s="306">
+        <v>1</v>
+      </c>
+      <c r="E166" s="307">
+        <v>1</v>
+      </c>
+      <c r="F166" s="435" t="s">
+        <v>937</v>
+      </c>
+      <c r="G166" s="309">
+        <v>1</v>
+      </c>
+      <c r="H166" s="408">
+        <f t="shared" ref="H166:H171" si="9">8*C166+5*D166+100*L166+10*(G166-1)</f>
+        <v>23</v>
+      </c>
+      <c r="I166" s="311"/>
+      <c r="J166" s="314"/>
+      <c r="K166" s="409"/>
+      <c r="L166" s="338">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A167" s="381" t="s">
+        <v>964</v>
+      </c>
+      <c r="B167" s="219" t="s">
+        <v>965</v>
+      </c>
+      <c r="C167" s="305">
+        <v>0</v>
+      </c>
+      <c r="D167" s="306">
+        <v>3</v>
+      </c>
+      <c r="E167" s="307">
+        <v>1</v>
+      </c>
+      <c r="F167" s="435" t="s">
+        <v>937</v>
+      </c>
+      <c r="G167" s="309">
+        <v>1</v>
+      </c>
+      <c r="H167" s="408">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="I167" s="311"/>
+      <c r="J167" s="314"/>
+      <c r="K167" s="409"/>
+      <c r="L167" s="338"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A168" s="381" t="s">
+        <v>966</v>
+      </c>
+      <c r="C168" s="305">
+        <v>0</v>
+      </c>
+      <c r="D168" s="306">
+        <v>2</v>
+      </c>
+      <c r="E168" s="307">
+        <v>1</v>
+      </c>
+      <c r="F168" s="435" t="s">
+        <v>941</v>
+      </c>
+      <c r="G168" s="309">
+        <v>1</v>
+      </c>
+      <c r="H168" s="408">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="I168" s="311"/>
+      <c r="J168" s="314"/>
+      <c r="K168" s="409"/>
+      <c r="L168" s="338"/>
+    </row>
+    <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.5">
+      <c r="A169" s="381" t="s">
+        <v>967</v>
+      </c>
+      <c r="B169" s="219" t="s">
+        <v>968</v>
+      </c>
+      <c r="C169" s="305">
+        <v>2</v>
+      </c>
+      <c r="D169" s="306">
+        <v>2</v>
+      </c>
+      <c r="E169" s="307"/>
+      <c r="F169" s="435" t="s">
+        <v>939</v>
+      </c>
+      <c r="G169" s="309">
+        <v>1</v>
+      </c>
+      <c r="H169" s="408">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="I169" s="311"/>
+      <c r="J169" s="314"/>
+      <c r="K169" s="409"/>
+      <c r="L169" s="338"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A170" s="381" t="s">
+        <v>969</v>
+      </c>
+      <c r="B170" s="219" t="s">
+        <v>972</v>
+      </c>
+      <c r="C170" s="305">
+        <v>2</v>
+      </c>
+      <c r="D170" s="306">
+        <v>3</v>
+      </c>
+      <c r="E170" s="307"/>
+      <c r="F170" s="435" t="s">
+        <v>937</v>
+      </c>
+      <c r="G170" s="309">
+        <v>1</v>
+      </c>
+      <c r="H170" s="408">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="I170" s="311"/>
+      <c r="J170" s="314"/>
+      <c r="K170" s="409"/>
+      <c r="L170" s="338"/>
+    </row>
+    <row r="171" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="382" t="s">
+        <v>970</v>
+      </c>
+      <c r="B171" s="232"/>
+      <c r="C171" s="339">
+        <v>1</v>
+      </c>
+      <c r="D171" s="340">
+        <v>1</v>
+      </c>
+      <c r="E171" s="341"/>
+      <c r="F171" s="436" t="s">
+        <v>940</v>
+      </c>
+      <c r="G171" s="343">
+        <v>1</v>
+      </c>
+      <c r="H171" s="421">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="I171" s="344"/>
+      <c r="J171" s="345"/>
+      <c r="K171" s="422"/>
+      <c r="L171" s="346"/>
+    </row>
+    <row r="172" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="382" t="s">
+        <v>971</v>
+      </c>
+      <c r="B172" s="232" t="s">
+        <v>758</v>
+      </c>
+      <c r="C172" s="339">
+        <v>2</v>
+      </c>
+      <c r="D172" s="340">
+        <v>1</v>
+      </c>
+      <c r="E172" s="341"/>
+      <c r="F172" s="436" t="s">
+        <v>939</v>
+      </c>
+      <c r="G172" s="343">
+        <v>1</v>
+      </c>
+      <c r="H172" s="421">
+        <f t="shared" ref="H172" si="10">8*C172+5*D172+100*L172+10*(G172-1)</f>
+        <v>21</v>
+      </c>
+      <c r="I172" s="344"/>
+      <c r="J172" s="345"/>
+      <c r="K172" s="422"/>
+      <c r="L172" s="346"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10961,12 +12355,12 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="471" t="s">
+      <c r="A2" s="481" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="472"/>
-      <c r="C2" s="473"/>
-      <c r="D2" s="468">
+      <c r="B2" s="482"/>
+      <c r="C2" s="483"/>
+      <c r="D2" s="478">
         <f>AVERAGE(C3,C25,C46)</f>
         <v>0.26914682539682538</v>
       </c>
@@ -10979,11 +12373,11 @@
       <c r="B3" s="258">
         <v>1</v>
       </c>
-      <c r="C3" s="470">
+      <c r="C3" s="480">
         <f>AVERAGE(B3:B23)</f>
         <v>0.47619047619047616</v>
       </c>
-      <c r="D3" s="469"/>
+      <c r="D3" s="479"/>
       <c r="J3" s="255"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10993,8 +12387,8 @@
       <c r="B4" s="258">
         <v>1</v>
       </c>
-      <c r="C4" s="470"/>
-      <c r="D4" s="469"/>
+      <c r="C4" s="480"/>
+      <c r="D4" s="479"/>
       <c r="J4" s="255"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -11004,8 +12398,8 @@
       <c r="B5" s="258">
         <v>1</v>
       </c>
-      <c r="C5" s="470"/>
-      <c r="D5" s="469"/>
+      <c r="C5" s="480"/>
+      <c r="D5" s="479"/>
       <c r="J5" s="255"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -11015,8 +12409,8 @@
       <c r="B6" s="258">
         <v>1</v>
       </c>
-      <c r="C6" s="470"/>
-      <c r="D6" s="469"/>
+      <c r="C6" s="480"/>
+      <c r="D6" s="479"/>
       <c r="J6" s="255"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -11026,8 +12420,8 @@
       <c r="B7" s="258">
         <v>0</v>
       </c>
-      <c r="C7" s="470"/>
-      <c r="D7" s="469"/>
+      <c r="C7" s="480"/>
+      <c r="D7" s="479"/>
       <c r="J7" s="255"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -11037,8 +12431,8 @@
       <c r="B8" s="258">
         <v>1</v>
       </c>
-      <c r="C8" s="470"/>
-      <c r="D8" s="469"/>
+      <c r="C8" s="480"/>
+      <c r="D8" s="479"/>
       <c r="J8" s="255"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -11048,8 +12442,8 @@
       <c r="B9" s="258">
         <v>1</v>
       </c>
-      <c r="C9" s="470"/>
-      <c r="D9" s="469"/>
+      <c r="C9" s="480"/>
+      <c r="D9" s="479"/>
       <c r="J9" s="255"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -11059,8 +12453,8 @@
       <c r="B10" s="258">
         <v>1</v>
       </c>
-      <c r="C10" s="470"/>
-      <c r="D10" s="469"/>
+      <c r="C10" s="480"/>
+      <c r="D10" s="479"/>
       <c r="J10" s="255"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -11070,8 +12464,8 @@
       <c r="B11" s="258">
         <v>1</v>
       </c>
-      <c r="C11" s="470"/>
-      <c r="D11" s="469"/>
+      <c r="C11" s="480"/>
+      <c r="D11" s="479"/>
       <c r="J11" s="255"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -11081,8 +12475,8 @@
       <c r="B12" s="258">
         <v>1</v>
       </c>
-      <c r="C12" s="470"/>
-      <c r="D12" s="469"/>
+      <c r="C12" s="480"/>
+      <c r="D12" s="479"/>
       <c r="J12" s="255"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -11092,8 +12486,8 @@
       <c r="B13" s="258">
         <v>1</v>
       </c>
-      <c r="C13" s="470"/>
-      <c r="D13" s="469"/>
+      <c r="C13" s="480"/>
+      <c r="D13" s="479"/>
       <c r="J13" s="255"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -11103,8 +12497,8 @@
       <c r="B14" s="258">
         <v>0</v>
       </c>
-      <c r="C14" s="470"/>
-      <c r="D14" s="469"/>
+      <c r="C14" s="480"/>
+      <c r="D14" s="479"/>
       <c r="J14" s="255"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -11114,8 +12508,8 @@
       <c r="B15" s="258">
         <v>0</v>
       </c>
-      <c r="C15" s="470"/>
-      <c r="D15" s="469"/>
+      <c r="C15" s="480"/>
+      <c r="D15" s="479"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="116" t="s">
@@ -11124,8 +12518,8 @@
       <c r="B16" s="258">
         <v>0</v>
       </c>
-      <c r="C16" s="470"/>
-      <c r="D16" s="469"/>
+      <c r="C16" s="480"/>
+      <c r="D16" s="479"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="116" t="s">
@@ -11134,8 +12528,8 @@
       <c r="B17" s="258">
         <v>0</v>
       </c>
-      <c r="C17" s="470"/>
-      <c r="D17" s="469"/>
+      <c r="C17" s="480"/>
+      <c r="D17" s="479"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="116" t="s">
@@ -11144,8 +12538,8 @@
       <c r="B18" s="258">
         <v>0</v>
       </c>
-      <c r="C18" s="470"/>
-      <c r="D18" s="469"/>
+      <c r="C18" s="480"/>
+      <c r="D18" s="479"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
@@ -11154,8 +12548,8 @@
       <c r="B19" s="258">
         <v>0</v>
       </c>
-      <c r="C19" s="470"/>
-      <c r="D19" s="469"/>
+      <c r="C19" s="480"/>
+      <c r="D19" s="479"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="116" t="s">
@@ -11164,8 +12558,8 @@
       <c r="B20" s="258">
         <v>0</v>
       </c>
-      <c r="C20" s="470"/>
-      <c r="D20" s="469"/>
+      <c r="C20" s="480"/>
+      <c r="D20" s="479"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="116" t="s">
@@ -11174,8 +12568,8 @@
       <c r="B21" s="258">
         <v>0</v>
       </c>
-      <c r="C21" s="470"/>
-      <c r="D21" s="469"/>
+      <c r="C21" s="480"/>
+      <c r="D21" s="479"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="116" t="s">
@@ -11184,8 +12578,8 @@
       <c r="B22" s="258">
         <v>0</v>
       </c>
-      <c r="C22" s="470"/>
-      <c r="D22" s="469"/>
+      <c r="C22" s="480"/>
+      <c r="D22" s="479"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="116" t="s">
@@ -11194,16 +12588,16 @@
       <c r="B23" s="258">
         <v>0</v>
       </c>
-      <c r="C23" s="470"/>
-      <c r="D23" s="469"/>
+      <c r="C23" s="480"/>
+      <c r="D23" s="479"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="474" t="s">
+      <c r="A24" s="484" t="s">
         <v>474</v>
       </c>
-      <c r="B24" s="474"/>
-      <c r="C24" s="474"/>
-      <c r="D24" s="469"/>
+      <c r="B24" s="484"/>
+      <c r="C24" s="484"/>
+      <c r="D24" s="479"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="260" t="s">
@@ -11212,11 +12606,11 @@
       <c r="B25" s="258">
         <v>1</v>
       </c>
-      <c r="C25" s="470">
+      <c r="C25" s="480">
         <f>AVERAGE(B25:B44)</f>
         <v>0.05</v>
       </c>
-      <c r="D25" s="469"/>
+      <c r="D25" s="479"/>
       <c r="J25" s="7" t="s">
         <v>56</v>
       </c>
@@ -11228,8 +12622,8 @@
       <c r="B26" s="258">
         <v>0</v>
       </c>
-      <c r="C26" s="470"/>
-      <c r="D26" s="469"/>
+      <c r="C26" s="480"/>
+      <c r="D26" s="479"/>
       <c r="J26" s="7" t="s">
         <v>247</v>
       </c>
@@ -11241,8 +12635,8 @@
       <c r="B27" s="258">
         <v>0</v>
       </c>
-      <c r="C27" s="470"/>
-      <c r="D27" s="469"/>
+      <c r="C27" s="480"/>
+      <c r="D27" s="479"/>
       <c r="J27" s="7" t="s">
         <v>248</v>
       </c>
@@ -11254,8 +12648,8 @@
       <c r="B28" s="258">
         <v>0</v>
       </c>
-      <c r="C28" s="470"/>
-      <c r="D28" s="469"/>
+      <c r="C28" s="480"/>
+      <c r="D28" s="479"/>
       <c r="J28" s="7" t="s">
         <v>249</v>
       </c>
@@ -11267,8 +12661,8 @@
       <c r="B29" s="258">
         <v>0</v>
       </c>
-      <c r="C29" s="470"/>
-      <c r="D29" s="469"/>
+      <c r="C29" s="480"/>
+      <c r="D29" s="479"/>
       <c r="J29" s="7" t="s">
         <v>250</v>
       </c>
@@ -11280,8 +12674,8 @@
       <c r="B30" s="258">
         <v>0</v>
       </c>
-      <c r="C30" s="470"/>
-      <c r="D30" s="469"/>
+      <c r="C30" s="480"/>
+      <c r="D30" s="479"/>
       <c r="J30" s="7" t="s">
         <v>261</v>
       </c>
@@ -11293,8 +12687,8 @@
       <c r="B31" s="258">
         <v>0</v>
       </c>
-      <c r="C31" s="470"/>
-      <c r="D31" s="469"/>
+      <c r="C31" s="480"/>
+      <c r="D31" s="479"/>
       <c r="J31" s="7" t="s">
         <v>57</v>
       </c>
@@ -11306,8 +12700,8 @@
       <c r="B32" s="258">
         <v>0</v>
       </c>
-      <c r="C32" s="470"/>
-      <c r="D32" s="469"/>
+      <c r="C32" s="480"/>
+      <c r="D32" s="479"/>
       <c r="J32" s="7" t="s">
         <v>58</v>
       </c>
@@ -11319,8 +12713,8 @@
       <c r="B33" s="258">
         <v>0</v>
       </c>
-      <c r="C33" s="470"/>
-      <c r="D33" s="469"/>
+      <c r="C33" s="480"/>
+      <c r="D33" s="479"/>
       <c r="J33" s="7" t="s">
         <v>1</v>
       </c>
@@ -11332,8 +12726,8 @@
       <c r="B34" s="258">
         <v>0</v>
       </c>
-      <c r="C34" s="470"/>
-      <c r="D34" s="469"/>
+      <c r="C34" s="480"/>
+      <c r="D34" s="479"/>
       <c r="J34" s="7" t="s">
         <v>59</v>
       </c>
@@ -11345,8 +12739,8 @@
       <c r="B35" s="258">
         <v>0</v>
       </c>
-      <c r="C35" s="470"/>
-      <c r="D35" s="469"/>
+      <c r="C35" s="480"/>
+      <c r="D35" s="479"/>
       <c r="J35" s="7" t="s">
         <v>61</v>
       </c>
@@ -11358,8 +12752,8 @@
       <c r="B36" s="258">
         <v>0</v>
       </c>
-      <c r="C36" s="470"/>
-      <c r="D36" s="469"/>
+      <c r="C36" s="480"/>
+      <c r="D36" s="479"/>
       <c r="J36" s="7" t="s">
         <v>62</v>
       </c>
@@ -11371,8 +12765,8 @@
       <c r="B37" s="258">
         <v>0</v>
       </c>
-      <c r="C37" s="470"/>
-      <c r="D37" s="469"/>
+      <c r="C37" s="480"/>
+      <c r="D37" s="479"/>
       <c r="J37" s="7" t="s">
         <v>63</v>
       </c>
@@ -11384,8 +12778,8 @@
       <c r="B38" s="258">
         <v>0</v>
       </c>
-      <c r="C38" s="470"/>
-      <c r="D38" s="469"/>
+      <c r="C38" s="480"/>
+      <c r="D38" s="479"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="260" t="s">
@@ -11394,8 +12788,8 @@
       <c r="B39" s="258">
         <v>0</v>
       </c>
-      <c r="C39" s="470"/>
-      <c r="D39" s="469"/>
+      <c r="C39" s="480"/>
+      <c r="D39" s="479"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="260" t="s">
@@ -11404,8 +12798,8 @@
       <c r="B40" s="258">
         <v>0</v>
       </c>
-      <c r="C40" s="470"/>
-      <c r="D40" s="469"/>
+      <c r="C40" s="480"/>
+      <c r="D40" s="479"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="260" t="s">
@@ -11414,8 +12808,8 @@
       <c r="B41" s="258">
         <v>0</v>
       </c>
-      <c r="C41" s="470"/>
-      <c r="D41" s="469"/>
+      <c r="C41" s="480"/>
+      <c r="D41" s="479"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="260" t="s">
@@ -11424,8 +12818,8 @@
       <c r="B42" s="258">
         <v>0</v>
       </c>
-      <c r="C42" s="470"/>
-      <c r="D42" s="469"/>
+      <c r="C42" s="480"/>
+      <c r="D42" s="479"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="260" t="s">
@@ -11434,8 +12828,8 @@
       <c r="B43" s="258">
         <v>0</v>
       </c>
-      <c r="C43" s="470"/>
-      <c r="D43" s="469"/>
+      <c r="C43" s="480"/>
+      <c r="D43" s="479"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="260" t="s">
@@ -11444,16 +12838,16 @@
       <c r="B44" s="258">
         <v>0</v>
       </c>
-      <c r="C44" s="470"/>
-      <c r="D44" s="469"/>
+      <c r="C44" s="480"/>
+      <c r="D44" s="479"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="474" t="s">
+      <c r="A45" s="484" t="s">
         <v>495</v>
       </c>
-      <c r="B45" s="474"/>
-      <c r="C45" s="474"/>
-      <c r="D45" s="469"/>
+      <c r="B45" s="484"/>
+      <c r="C45" s="484"/>
+      <c r="D45" s="479"/>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="260" t="s">
@@ -11462,11 +12856,11 @@
       <c r="B46" s="258">
         <v>1</v>
       </c>
-      <c r="C46" s="465">
+      <c r="C46" s="475">
         <f>AVERAGE(B46:B109)</f>
         <v>0.28125</v>
       </c>
-      <c r="D46" s="469"/>
+      <c r="D46" s="479"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="260" t="s">
@@ -11475,8 +12869,8 @@
       <c r="B47" s="258">
         <v>1</v>
       </c>
-      <c r="C47" s="466"/>
-      <c r="D47" s="469"/>
+      <c r="C47" s="476"/>
+      <c r="D47" s="479"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="260" t="s">
@@ -11485,8 +12879,8 @@
       <c r="B48" s="258">
         <v>0</v>
       </c>
-      <c r="C48" s="466"/>
-      <c r="D48" s="469"/>
+      <c r="C48" s="476"/>
+      <c r="D48" s="479"/>
       <c r="J48" s="255"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -11496,8 +12890,8 @@
       <c r="B49" s="258">
         <v>0</v>
       </c>
-      <c r="C49" s="466"/>
-      <c r="D49" s="469"/>
+      <c r="C49" s="476"/>
+      <c r="D49" s="479"/>
       <c r="J49" s="255"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -11507,8 +12901,8 @@
       <c r="B50" s="258">
         <v>0</v>
       </c>
-      <c r="C50" s="466"/>
-      <c r="D50" s="469"/>
+      <c r="C50" s="476"/>
+      <c r="D50" s="479"/>
       <c r="J50" s="255"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -11518,8 +12912,8 @@
       <c r="B51" s="258">
         <v>1</v>
       </c>
-      <c r="C51" s="466"/>
-      <c r="D51" s="469"/>
+      <c r="C51" s="476"/>
+      <c r="D51" s="479"/>
       <c r="J51" s="255"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -11529,8 +12923,8 @@
       <c r="B52" s="258">
         <v>1</v>
       </c>
-      <c r="C52" s="466"/>
-      <c r="D52" s="469"/>
+      <c r="C52" s="476"/>
+      <c r="D52" s="479"/>
       <c r="J52" s="255"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -11540,8 +12934,8 @@
       <c r="B53" s="258">
         <v>0</v>
       </c>
-      <c r="C53" s="466"/>
-      <c r="D53" s="469"/>
+      <c r="C53" s="476"/>
+      <c r="D53" s="479"/>
       <c r="J53" s="255"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -11551,8 +12945,8 @@
       <c r="B54" s="258">
         <v>0</v>
       </c>
-      <c r="C54" s="466"/>
-      <c r="D54" s="469"/>
+      <c r="C54" s="476"/>
+      <c r="D54" s="479"/>
       <c r="J54" s="255"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -11562,8 +12956,8 @@
       <c r="B55" s="258">
         <v>1</v>
       </c>
-      <c r="C55" s="466"/>
-      <c r="D55" s="469"/>
+      <c r="C55" s="476"/>
+      <c r="D55" s="479"/>
       <c r="J55" s="255"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -11573,8 +12967,8 @@
       <c r="B56" s="258">
         <v>1</v>
       </c>
-      <c r="C56" s="466"/>
-      <c r="D56" s="469"/>
+      <c r="C56" s="476"/>
+      <c r="D56" s="479"/>
       <c r="J56" s="255"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -11584,8 +12978,8 @@
       <c r="B57" s="258">
         <v>0</v>
       </c>
-      <c r="C57" s="466"/>
-      <c r="D57" s="469"/>
+      <c r="C57" s="476"/>
+      <c r="D57" s="479"/>
       <c r="J57" s="255"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -11595,8 +12989,8 @@
       <c r="B58" s="258">
         <v>0</v>
       </c>
-      <c r="C58" s="466"/>
-      <c r="D58" s="469"/>
+      <c r="C58" s="476"/>
+      <c r="D58" s="479"/>
       <c r="J58" s="255"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -11606,8 +13000,8 @@
       <c r="B59" s="258">
         <v>1</v>
       </c>
-      <c r="C59" s="466"/>
-      <c r="D59" s="469"/>
+      <c r="C59" s="476"/>
+      <c r="D59" s="479"/>
       <c r="J59" s="255"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -11617,8 +13011,8 @@
       <c r="B60" s="258">
         <v>0</v>
       </c>
-      <c r="C60" s="466"/>
-      <c r="D60" s="469"/>
+      <c r="C60" s="476"/>
+      <c r="D60" s="479"/>
       <c r="J60" s="255"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -11628,8 +13022,8 @@
       <c r="B61" s="258">
         <v>0</v>
       </c>
-      <c r="C61" s="466"/>
-      <c r="D61" s="469"/>
+      <c r="C61" s="476"/>
+      <c r="D61" s="479"/>
       <c r="J61" s="255"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -11639,8 +13033,8 @@
       <c r="B62" s="258">
         <v>0</v>
       </c>
-      <c r="C62" s="466"/>
-      <c r="D62" s="469"/>
+      <c r="C62" s="476"/>
+      <c r="D62" s="479"/>
       <c r="J62" s="255"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -11650,8 +13044,8 @@
       <c r="B63" s="258">
         <v>1</v>
       </c>
-      <c r="C63" s="466"/>
-      <c r="D63" s="469"/>
+      <c r="C63" s="476"/>
+      <c r="D63" s="479"/>
       <c r="J63" s="255"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -11661,8 +13055,8 @@
       <c r="B64" s="258">
         <v>0</v>
       </c>
-      <c r="C64" s="466"/>
-      <c r="D64" s="469"/>
+      <c r="C64" s="476"/>
+      <c r="D64" s="479"/>
       <c r="J64" s="255"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -11672,8 +13066,8 @@
       <c r="B65" s="258">
         <v>0</v>
       </c>
-      <c r="C65" s="466"/>
-      <c r="D65" s="469"/>
+      <c r="C65" s="476"/>
+      <c r="D65" s="479"/>
       <c r="J65" s="255"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11683,8 +13077,8 @@
       <c r="B66" s="258">
         <v>0</v>
       </c>
-      <c r="C66" s="466"/>
-      <c r="D66" s="469"/>
+      <c r="C66" s="476"/>
+      <c r="D66" s="479"/>
       <c r="J66" s="255"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -11694,8 +13088,8 @@
       <c r="B67" s="258">
         <v>1</v>
       </c>
-      <c r="C67" s="466"/>
-      <c r="D67" s="469"/>
+      <c r="C67" s="476"/>
+      <c r="D67" s="479"/>
       <c r="J67" s="255"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -11705,8 +13099,8 @@
       <c r="B68" s="258">
         <v>1</v>
       </c>
-      <c r="C68" s="466"/>
-      <c r="D68" s="469"/>
+      <c r="C68" s="476"/>
+      <c r="D68" s="479"/>
       <c r="J68" s="255"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -11716,8 +13110,8 @@
       <c r="B69" s="258">
         <v>0</v>
       </c>
-      <c r="C69" s="466"/>
-      <c r="D69" s="469"/>
+      <c r="C69" s="476"/>
+      <c r="D69" s="479"/>
       <c r="J69" s="255"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -11727,8 +13121,8 @@
       <c r="B70" s="258">
         <v>1</v>
       </c>
-      <c r="C70" s="466"/>
-      <c r="D70" s="469"/>
+      <c r="C70" s="476"/>
+      <c r="D70" s="479"/>
       <c r="J70" s="255"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -11738,8 +13132,8 @@
       <c r="B71" s="258">
         <v>1</v>
       </c>
-      <c r="C71" s="466"/>
-      <c r="D71" s="469"/>
+      <c r="C71" s="476"/>
+      <c r="D71" s="479"/>
       <c r="J71" s="255"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -11749,8 +13143,8 @@
       <c r="B72" s="258">
         <v>0</v>
       </c>
-      <c r="C72" s="466"/>
-      <c r="D72" s="469"/>
+      <c r="C72" s="476"/>
+      <c r="D72" s="479"/>
       <c r="J72" s="255"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -11760,8 +13154,8 @@
       <c r="B73" s="258">
         <v>1</v>
       </c>
-      <c r="C73" s="466"/>
-      <c r="D73" s="469"/>
+      <c r="C73" s="476"/>
+      <c r="D73" s="479"/>
       <c r="J73" s="255"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -11771,8 +13165,8 @@
       <c r="B74" s="258">
         <v>1</v>
       </c>
-      <c r="C74" s="466"/>
-      <c r="D74" s="469"/>
+      <c r="C74" s="476"/>
+      <c r="D74" s="479"/>
       <c r="J74" s="255"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -11782,8 +13176,8 @@
       <c r="B75" s="258">
         <v>0</v>
       </c>
-      <c r="C75" s="466"/>
-      <c r="D75" s="469"/>
+      <c r="C75" s="476"/>
+      <c r="D75" s="479"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="260" t="s">
@@ -11792,8 +13186,8 @@
       <c r="B76" s="258">
         <v>1</v>
       </c>
-      <c r="C76" s="466"/>
-      <c r="D76" s="469"/>
+      <c r="C76" s="476"/>
+      <c r="D76" s="479"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="260" t="s">
@@ -11802,8 +13196,8 @@
       <c r="B77" s="258">
         <v>0</v>
       </c>
-      <c r="C77" s="466"/>
-      <c r="D77" s="469"/>
+      <c r="C77" s="476"/>
+      <c r="D77" s="479"/>
       <c r="J77" s="256"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -11813,8 +13207,8 @@
       <c r="B78" s="258">
         <v>0</v>
       </c>
-      <c r="C78" s="466"/>
-      <c r="D78" s="469"/>
+      <c r="C78" s="476"/>
+      <c r="D78" s="479"/>
       <c r="J78" s="257"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -11824,8 +13218,8 @@
       <c r="B79" s="258">
         <v>0</v>
       </c>
-      <c r="C79" s="466"/>
-      <c r="D79" s="469"/>
+      <c r="C79" s="476"/>
+      <c r="D79" s="479"/>
       <c r="J79" s="256"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -11835,8 +13229,8 @@
       <c r="B80" s="258">
         <v>0</v>
       </c>
-      <c r="C80" s="466"/>
-      <c r="D80" s="469"/>
+      <c r="C80" s="476"/>
+      <c r="D80" s="479"/>
       <c r="J80" s="257"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -11846,8 +13240,8 @@
       <c r="B81" s="258">
         <v>0</v>
       </c>
-      <c r="C81" s="466"/>
-      <c r="D81" s="469"/>
+      <c r="C81" s="476"/>
+      <c r="D81" s="479"/>
       <c r="J81" s="256"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -11857,8 +13251,8 @@
       <c r="B82" s="258">
         <v>0</v>
       </c>
-      <c r="C82" s="466"/>
-      <c r="D82" s="469"/>
+      <c r="C82" s="476"/>
+      <c r="D82" s="479"/>
       <c r="J82" s="257"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -11868,8 +13262,8 @@
       <c r="B83" s="258">
         <v>0</v>
       </c>
-      <c r="C83" s="466"/>
-      <c r="D83" s="469"/>
+      <c r="C83" s="476"/>
+      <c r="D83" s="479"/>
       <c r="J83" s="256"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -11879,8 +13273,8 @@
       <c r="B84" s="258">
         <v>0</v>
       </c>
-      <c r="C84" s="466"/>
-      <c r="D84" s="469"/>
+      <c r="C84" s="476"/>
+      <c r="D84" s="479"/>
       <c r="J84" s="257"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -11890,8 +13284,8 @@
       <c r="B85" s="258">
         <v>0</v>
       </c>
-      <c r="C85" s="466"/>
-      <c r="D85" s="469"/>
+      <c r="C85" s="476"/>
+      <c r="D85" s="479"/>
       <c r="J85" s="256"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -11901,8 +13295,8 @@
       <c r="B86" s="259">
         <v>0</v>
       </c>
-      <c r="C86" s="466"/>
-      <c r="D86" s="469"/>
+      <c r="C86" s="476"/>
+      <c r="D86" s="479"/>
       <c r="J86" s="257"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -11912,8 +13306,8 @@
       <c r="B87" s="259">
         <v>0</v>
       </c>
-      <c r="C87" s="466"/>
-      <c r="D87" s="469"/>
+      <c r="C87" s="476"/>
+      <c r="D87" s="479"/>
       <c r="J87" s="256"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -11923,8 +13317,8 @@
       <c r="B88" s="259">
         <v>0</v>
       </c>
-      <c r="C88" s="466"/>
-      <c r="D88" s="469"/>
+      <c r="C88" s="476"/>
+      <c r="D88" s="479"/>
       <c r="J88" s="257"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -11934,8 +13328,8 @@
       <c r="B89" s="259">
         <v>0</v>
       </c>
-      <c r="C89" s="466"/>
-      <c r="D89" s="469"/>
+      <c r="C89" s="476"/>
+      <c r="D89" s="479"/>
       <c r="J89" s="256"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -11945,8 +13339,8 @@
       <c r="B90" s="259">
         <v>0</v>
       </c>
-      <c r="C90" s="466"/>
-      <c r="D90" s="469"/>
+      <c r="C90" s="476"/>
+      <c r="D90" s="479"/>
       <c r="J90" s="257"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -11956,8 +13350,8 @@
       <c r="B91" s="259">
         <v>0</v>
       </c>
-      <c r="C91" s="466"/>
-      <c r="D91" s="469"/>
+      <c r="C91" s="476"/>
+      <c r="D91" s="479"/>
       <c r="J91" s="256"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -11967,8 +13361,8 @@
       <c r="B92" s="259">
         <v>0</v>
       </c>
-      <c r="C92" s="466"/>
-      <c r="D92" s="469"/>
+      <c r="C92" s="476"/>
+      <c r="D92" s="479"/>
       <c r="J92" s="257"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -11978,8 +13372,8 @@
       <c r="B93" s="259">
         <v>0</v>
       </c>
-      <c r="C93" s="466"/>
-      <c r="D93" s="469"/>
+      <c r="C93" s="476"/>
+      <c r="D93" s="479"/>
       <c r="J93" s="256"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -11989,8 +13383,8 @@
       <c r="B94" s="259">
         <v>0</v>
       </c>
-      <c r="C94" s="466"/>
-      <c r="D94" s="469"/>
+      <c r="C94" s="476"/>
+      <c r="D94" s="479"/>
       <c r="J94" s="257"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -12000,8 +13394,8 @@
       <c r="B95" s="259">
         <v>0</v>
       </c>
-      <c r="C95" s="466"/>
-      <c r="D95" s="469"/>
+      <c r="C95" s="476"/>
+      <c r="D95" s="479"/>
       <c r="J95" s="256"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -12011,8 +13405,8 @@
       <c r="B96" s="259">
         <v>0</v>
       </c>
-      <c r="C96" s="466"/>
-      <c r="D96" s="469"/>
+      <c r="C96" s="476"/>
+      <c r="D96" s="479"/>
       <c r="J96" s="257"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -12022,8 +13416,8 @@
       <c r="B97" s="259">
         <v>1</v>
       </c>
-      <c r="C97" s="466"/>
-      <c r="D97" s="469"/>
+      <c r="C97" s="476"/>
+      <c r="D97" s="479"/>
       <c r="J97" s="255"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -12033,8 +13427,8 @@
       <c r="B98" s="259">
         <v>1</v>
       </c>
-      <c r="C98" s="466"/>
-      <c r="D98" s="469"/>
+      <c r="C98" s="476"/>
+      <c r="D98" s="479"/>
       <c r="J98" s="255"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -12044,8 +13438,8 @@
       <c r="B99" s="259">
         <v>0</v>
       </c>
-      <c r="C99" s="466"/>
-      <c r="D99" s="469"/>
+      <c r="C99" s="476"/>
+      <c r="D99" s="479"/>
       <c r="J99" s="255"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -12055,8 +13449,8 @@
       <c r="B100" s="259">
         <v>0</v>
       </c>
-      <c r="C100" s="466"/>
-      <c r="D100" s="469"/>
+      <c r="C100" s="476"/>
+      <c r="D100" s="479"/>
       <c r="J100" s="255"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -12066,8 +13460,8 @@
       <c r="B101" s="259">
         <v>0</v>
       </c>
-      <c r="C101" s="466"/>
-      <c r="D101" s="469"/>
+      <c r="C101" s="476"/>
+      <c r="D101" s="479"/>
       <c r="J101" s="255"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -12077,8 +13471,8 @@
       <c r="B102" s="259">
         <v>0</v>
       </c>
-      <c r="C102" s="466"/>
-      <c r="D102" s="469"/>
+      <c r="C102" s="476"/>
+      <c r="D102" s="479"/>
       <c r="J102" s="255"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -12088,8 +13482,8 @@
       <c r="B103" s="259">
         <v>0</v>
       </c>
-      <c r="C103" s="466"/>
-      <c r="D103" s="469"/>
+      <c r="C103" s="476"/>
+      <c r="D103" s="479"/>
       <c r="J103" s="255"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -12099,8 +13493,8 @@
       <c r="B104" s="259">
         <v>1</v>
       </c>
-      <c r="C104" s="466"/>
-      <c r="D104" s="469"/>
+      <c r="C104" s="476"/>
+      <c r="D104" s="479"/>
       <c r="J104" s="255"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -12110,8 +13504,8 @@
       <c r="B105" s="259">
         <v>0</v>
       </c>
-      <c r="C105" s="466"/>
-      <c r="D105" s="469"/>
+      <c r="C105" s="476"/>
+      <c r="D105" s="479"/>
       <c r="J105" s="255"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -12121,8 +13515,8 @@
       <c r="B106" s="259">
         <v>0</v>
       </c>
-      <c r="C106" s="466"/>
-      <c r="D106" s="469"/>
+      <c r="C106" s="476"/>
+      <c r="D106" s="479"/>
       <c r="J106" s="255"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -12132,8 +13526,8 @@
       <c r="B107" s="259">
         <v>0</v>
       </c>
-      <c r="C107" s="466"/>
-      <c r="D107" s="469"/>
+      <c r="C107" s="476"/>
+      <c r="D107" s="479"/>
       <c r="J107" s="255"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -12143,8 +13537,8 @@
       <c r="B108" s="259">
         <v>0</v>
       </c>
-      <c r="C108" s="466"/>
-      <c r="D108" s="469"/>
+      <c r="C108" s="476"/>
+      <c r="D108" s="479"/>
       <c r="J108" s="255"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -12154,8 +13548,8 @@
       <c r="B109" s="259">
         <v>0</v>
       </c>
-      <c r="C109" s="467"/>
-      <c r="D109" s="469"/>
+      <c r="C109" s="477"/>
+      <c r="D109" s="479"/>
       <c r="J109" s="255"/>
     </row>
   </sheetData>
@@ -12589,10 +13983,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="477" t="s">
+      <c r="A2" s="487" t="s">
         <v>793</v>
       </c>
-      <c r="B2" s="475" t="s">
+      <c r="B2" s="485" t="s">
         <v>732</v>
       </c>
       <c r="C2" s="214" t="s">
@@ -12600,17 +13994,17 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="478"/>
-      <c r="B3" s="476"/>
+      <c r="A3" s="488"/>
+      <c r="B3" s="486"/>
       <c r="C3" s="214" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="477" t="s">
+      <c r="A4" s="487" t="s">
         <v>794</v>
       </c>
-      <c r="B4" s="475" t="s">
+      <c r="B4" s="485" t="s">
         <v>796</v>
       </c>
       <c r="C4" s="214" t="s">
@@ -12618,31 +14012,31 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="480"/>
-      <c r="B5" s="479"/>
+      <c r="A5" s="490"/>
+      <c r="B5" s="489"/>
       <c r="C5" s="214" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="480"/>
-      <c r="B6" s="479"/>
+      <c r="A6" s="490"/>
+      <c r="B6" s="489"/>
       <c r="C6" s="214" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="478"/>
-      <c r="B7" s="476"/>
+      <c r="A7" s="488"/>
+      <c r="B7" s="486"/>
       <c r="C7" s="214" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="477" t="s">
+      <c r="A8" s="487" t="s">
         <v>795</v>
       </c>
-      <c r="B8" s="475" t="s">
+      <c r="B8" s="485" t="s">
         <v>810</v>
       </c>
       <c r="C8" s="214" t="s">
@@ -12650,57 +14044,57 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="480"/>
-      <c r="B9" s="479"/>
+      <c r="A9" s="490"/>
+      <c r="B9" s="489"/>
       <c r="C9" s="214" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="480"/>
-      <c r="B10" s="479"/>
+      <c r="A10" s="490"/>
+      <c r="B10" s="489"/>
       <c r="C10" s="214" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="480"/>
-      <c r="B11" s="479"/>
+      <c r="A11" s="490"/>
+      <c r="B11" s="489"/>
       <c r="C11" s="214" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="480"/>
-      <c r="B12" s="479"/>
+      <c r="A12" s="490"/>
+      <c r="B12" s="489"/>
       <c r="C12" s="214" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="480"/>
-      <c r="B13" s="479"/>
+      <c r="A13" s="490"/>
+      <c r="B13" s="489"/>
       <c r="C13" s="214" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="480"/>
-      <c r="B14" s="479"/>
+      <c r="A14" s="490"/>
+      <c r="B14" s="489"/>
       <c r="C14" s="214" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="480"/>
-      <c r="B15" s="479"/>
+      <c r="A15" s="490"/>
+      <c r="B15" s="489"/>
       <c r="C15" s="214" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="478"/>
-      <c r="B16" s="476"/>
+      <c r="A16" s="488"/>
+      <c r="B16" s="486"/>
       <c r="C16" s="214" t="s">
         <v>809</v>
       </c>
@@ -12735,10 +14129,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="481" t="s">
+      <c r="A1" s="491" t="s">
         <v>732</v>
       </c>
-      <c r="B1" s="481"/>
+      <c r="B1" s="491"/>
       <c r="C1" s="389"/>
       <c r="D1" s="389"/>
       <c r="E1" s="389"/>
@@ -13784,7 +15178,7 @@
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16948,7 +18342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -17000,7 +18394,7 @@
       <c r="C2" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D2" s="453" t="s">
+      <c r="D2" s="463" t="s">
         <v>86</v>
       </c>
       <c r="E2" s="235">
@@ -17026,7 +18420,7 @@
       <c r="C3" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D3" s="454"/>
+      <c r="D3" s="464"/>
       <c r="E3" s="235">
         <v>50</v>
       </c>
@@ -17050,7 +18444,7 @@
       <c r="C4" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D4" s="454"/>
+      <c r="D4" s="464"/>
       <c r="E4" s="235">
         <v>50</v>
       </c>
@@ -17074,7 +18468,7 @@
       <c r="C5" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D5" s="454"/>
+      <c r="D5" s="464"/>
       <c r="E5" s="235">
         <v>50</v>
       </c>
@@ -17098,7 +18492,7 @@
       <c r="C6" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D6" s="454"/>
+      <c r="D6" s="464"/>
       <c r="E6" s="235">
         <v>50</v>
       </c>
@@ -17120,7 +18514,7 @@
       <c r="C7" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D7" s="454"/>
+      <c r="D7" s="464"/>
       <c r="E7" s="235">
         <v>50</v>
       </c>
@@ -17135,7 +18529,7 @@
       <c r="C8" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D8" s="454"/>
+      <c r="D8" s="464"/>
       <c r="E8" s="235">
         <v>50</v>
       </c>
@@ -17150,7 +18544,7 @@
       <c r="C9" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D9" s="454"/>
+      <c r="D9" s="464"/>
       <c r="E9" s="235">
         <v>50</v>
       </c>
@@ -17165,7 +18559,7 @@
       <c r="C10" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D10" s="454"/>
+      <c r="D10" s="464"/>
       <c r="E10" s="235">
         <v>50</v>
       </c>
@@ -17180,7 +18574,7 @@
       <c r="C11" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D11" s="454"/>
+      <c r="D11" s="464"/>
       <c r="E11" s="235">
         <v>50</v>
       </c>
@@ -17195,7 +18589,7 @@
       <c r="C12" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D12" s="454"/>
+      <c r="D12" s="464"/>
       <c r="E12" s="235">
         <v>50</v>
       </c>
@@ -17210,7 +18604,7 @@
       <c r="C13" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D13" s="454"/>
+      <c r="D13" s="464"/>
       <c r="E13" s="235">
         <v>50</v>
       </c>
@@ -17225,7 +18619,7 @@
       <c r="C14" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="D14" s="454"/>
+      <c r="D14" s="464"/>
       <c r="E14" s="235">
         <v>50</v>
       </c>
@@ -17240,7 +18634,7 @@
       <c r="C15" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D15" s="454"/>
+      <c r="D15" s="464"/>
       <c r="E15" s="235">
         <v>15</v>
       </c>
@@ -17255,7 +18649,7 @@
       <c r="C16" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D16" s="454"/>
+      <c r="D16" s="464"/>
       <c r="E16" s="235">
         <v>15</v>
       </c>
@@ -17270,7 +18664,7 @@
       <c r="C17" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D17" s="454"/>
+      <c r="D17" s="464"/>
       <c r="E17" s="235">
         <v>15</v>
       </c>
@@ -17285,7 +18679,7 @@
       <c r="C18" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D18" s="454"/>
+      <c r="D18" s="464"/>
       <c r="E18" s="235">
         <v>15</v>
       </c>
@@ -17300,7 +18694,7 @@
       <c r="C19" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D19" s="454"/>
+      <c r="D19" s="464"/>
       <c r="E19" s="235">
         <v>15</v>
       </c>
@@ -17315,7 +18709,7 @@
       <c r="C20" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D20" s="454"/>
+      <c r="D20" s="464"/>
       <c r="E20" s="235">
         <v>15</v>
       </c>
@@ -17330,7 +18724,7 @@
       <c r="C21" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D21" s="454"/>
+      <c r="D21" s="464"/>
       <c r="E21" s="235">
         <v>15</v>
       </c>
@@ -17345,7 +18739,7 @@
       <c r="C22" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D22" s="454"/>
+      <c r="D22" s="464"/>
       <c r="E22" s="235">
         <v>15</v>
       </c>
@@ -17360,7 +18754,7 @@
       <c r="C23" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D23" s="454"/>
+      <c r="D23" s="464"/>
       <c r="E23" s="235">
         <v>15</v>
       </c>
@@ -17375,7 +18769,7 @@
       <c r="C24" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D24" s="454"/>
+      <c r="D24" s="464"/>
       <c r="E24" s="235">
         <v>15</v>
       </c>
@@ -17390,7 +18784,7 @@
       <c r="C25" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D25" s="454"/>
+      <c r="D25" s="464"/>
       <c r="E25" s="235">
         <v>15</v>
       </c>
@@ -17405,7 +18799,7 @@
       <c r="C26" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D26" s="454"/>
+      <c r="D26" s="464"/>
       <c r="E26" s="235">
         <v>15</v>
       </c>
@@ -17420,7 +18814,7 @@
       <c r="C27" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D27" s="454"/>
+      <c r="D27" s="464"/>
       <c r="E27" s="235">
         <v>15</v>
       </c>
@@ -17435,7 +18829,7 @@
       <c r="C28" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D28" s="454"/>
+      <c r="D28" s="464"/>
       <c r="E28" s="235">
         <v>15</v>
       </c>
@@ -17450,7 +18844,7 @@
       <c r="C29" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D29" s="454"/>
+      <c r="D29" s="464"/>
       <c r="E29" s="235">
         <v>15</v>
       </c>
@@ -17465,7 +18859,7 @@
       <c r="C30" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D30" s="454"/>
+      <c r="D30" s="464"/>
       <c r="E30" s="235">
         <v>15</v>
       </c>
@@ -17480,7 +18874,7 @@
       <c r="C31" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D31" s="454"/>
+      <c r="D31" s="464"/>
       <c r="E31" s="235">
         <v>15</v>
       </c>
@@ -17495,7 +18889,7 @@
       <c r="C32" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D32" s="454"/>
+      <c r="D32" s="464"/>
       <c r="E32" s="235">
         <v>15</v>
       </c>
@@ -17510,7 +18904,7 @@
       <c r="C33" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="D33" s="454"/>
+      <c r="D33" s="464"/>
       <c r="E33" s="235">
         <v>15</v>
       </c>
@@ -17525,7 +18919,7 @@
       <c r="C34" s="228" t="s">
         <v>385</v>
       </c>
-      <c r="D34" s="455"/>
+      <c r="D34" s="465"/>
       <c r="E34" s="235">
         <v>15</v>
       </c>
@@ -17540,7 +18934,7 @@
       <c r="C35" s="231" t="s">
         <v>406</v>
       </c>
-      <c r="D35" s="450" t="s">
+      <c r="D35" s="460" t="s">
         <v>730</v>
       </c>
       <c r="E35" s="235">
@@ -17557,7 +18951,7 @@
       <c r="C36" s="224" t="s">
         <v>406</v>
       </c>
-      <c r="D36" s="451"/>
+      <c r="D36" s="461"/>
       <c r="E36" s="235">
         <v>25</v>
       </c>
@@ -17572,7 +18966,7 @@
       <c r="C37" s="224" t="s">
         <v>406</v>
       </c>
-      <c r="D37" s="451"/>
+      <c r="D37" s="461"/>
       <c r="E37" s="235">
         <v>25</v>
       </c>
@@ -17587,7 +18981,7 @@
       <c r="C38" s="233" t="s">
         <v>406</v>
       </c>
-      <c r="D38" s="452"/>
+      <c r="D38" s="462"/>
       <c r="E38" s="235">
         <v>25</v>
       </c>
@@ -17602,7 +18996,7 @@
       <c r="C39" s="231" t="s">
         <v>407</v>
       </c>
-      <c r="D39" s="450" t="s">
+      <c r="D39" s="460" t="s">
         <v>729</v>
       </c>
       <c r="E39" s="235">
@@ -17619,7 +19013,7 @@
       <c r="C40" s="224" t="s">
         <v>407</v>
       </c>
-      <c r="D40" s="451"/>
+      <c r="D40" s="461"/>
       <c r="E40" s="235">
         <v>25</v>
       </c>
@@ -17634,7 +19028,7 @@
       <c r="C41" s="224" t="s">
         <v>407</v>
       </c>
-      <c r="D41" s="451"/>
+      <c r="D41" s="461"/>
       <c r="E41" s="235">
         <v>25</v>
       </c>
@@ -17649,7 +19043,7 @@
       <c r="C42" s="233" t="s">
         <v>407</v>
       </c>
-      <c r="D42" s="452"/>
+      <c r="D42" s="462"/>
       <c r="E42" s="235">
         <v>25</v>
       </c>
@@ -17664,7 +19058,7 @@
       <c r="C43" s="234" t="s">
         <v>403</v>
       </c>
-      <c r="D43" s="456" t="s">
+      <c r="D43" s="466" t="s">
         <v>86</v>
       </c>
       <c r="E43" s="235">
@@ -17681,7 +19075,7 @@
       <c r="C44" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="D44" s="453"/>
+      <c r="D44" s="463"/>
       <c r="E44" s="235">
         <v>75</v>
       </c>
@@ -17696,7 +19090,7 @@
       <c r="C45" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="D45" s="453"/>
+      <c r="D45" s="463"/>
       <c r="E45" s="235">
         <v>75</v>
       </c>
@@ -17711,7 +19105,7 @@
       <c r="C46" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="D46" s="453"/>
+      <c r="D46" s="463"/>
       <c r="E46" s="235">
         <v>75</v>
       </c>
@@ -17726,7 +19120,7 @@
       <c r="C47" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="D47" s="453"/>
+      <c r="D47" s="463"/>
       <c r="E47" s="235">
         <v>75</v>
       </c>
@@ -17741,7 +19135,7 @@
       <c r="C48" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="D48" s="453"/>
+      <c r="D48" s="463"/>
       <c r="E48" s="235">
         <v>75</v>
       </c>
@@ -17756,7 +19150,7 @@
       <c r="C49" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="D49" s="453"/>
+      <c r="D49" s="463"/>
       <c r="E49" s="235">
         <v>75</v>
       </c>
@@ -17771,7 +19165,7 @@
       <c r="C50" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="D50" s="453"/>
+      <c r="D50" s="463"/>
       <c r="E50" s="235">
         <v>75</v>
       </c>
@@ -17800,7 +19194,7 @@
       <c r="C52" s="287" t="s">
         <v>458</v>
       </c>
-      <c r="D52" s="457" t="s">
+      <c r="D52" s="467" t="s">
         <v>567</v>
       </c>
     </row>
@@ -17814,7 +19208,7 @@
       <c r="C53" s="224" t="s">
         <v>458</v>
       </c>
-      <c r="D53" s="458"/>
+      <c r="D53" s="468"/>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
@@ -17826,7 +19220,7 @@
       <c r="C54" s="224" t="s">
         <v>458</v>
       </c>
-      <c r="D54" s="458"/>
+      <c r="D54" s="468"/>
     </row>
     <row r="55" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="126" t="s">
@@ -17838,7 +19232,7 @@
       <c r="C55" s="295" t="s">
         <v>458</v>
       </c>
-      <c r="D55" s="458"/>
+      <c r="D55" s="468"/>
     </row>
     <row r="56" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
@@ -17850,7 +19244,7 @@
       <c r="C56" s="287" t="s">
         <v>565</v>
       </c>
-      <c r="D56" s="447" t="s">
+      <c r="D56" s="457" t="s">
         <v>566</v>
       </c>
     </row>
@@ -17864,7 +19258,7 @@
       <c r="C57" s="224" t="s">
         <v>565</v>
       </c>
-      <c r="D57" s="448"/>
+      <c r="D57" s="458"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
@@ -17876,7 +19270,7 @@
       <c r="C58" s="224" t="s">
         <v>565</v>
       </c>
-      <c r="D58" s="448"/>
+      <c r="D58" s="458"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
@@ -17888,7 +19282,7 @@
       <c r="C59" s="224" t="s">
         <v>565</v>
       </c>
-      <c r="D59" s="448"/>
+      <c r="D59" s="458"/>
     </row>
     <row r="60" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
@@ -17900,7 +19294,7 @@
       <c r="C60" s="294" t="s">
         <v>565</v>
       </c>
-      <c r="D60" s="449"/>
+      <c r="D60" s="459"/>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
@@ -18157,7 +19551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -18186,572 +19580,572 @@
       <c r="E1" s="288"/>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="459" t="s">
+      <c r="A2" s="469" t="s">
         <v>574</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="461">
+      <c r="C2" s="471">
         <v>5</v>
       </c>
-      <c r="D2" s="464" t="s">
+      <c r="D2" s="474" t="s">
         <v>831</v>
       </c>
       <c r="E2" s="289"/>
     </row>
     <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="460"/>
+      <c r="A3" s="470"/>
       <c r="B3" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="462"/>
-      <c r="D3" s="464"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="474"/>
       <c r="E3" s="289"/>
     </row>
     <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="460"/>
+      <c r="A4" s="470"/>
       <c r="B4" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C4" s="462"/>
-      <c r="D4" s="464"/>
+      <c r="C4" s="472"/>
+      <c r="D4" s="474"/>
       <c r="E4" s="289"/>
     </row>
     <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="460"/>
+      <c r="A5" s="470"/>
       <c r="B5" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C5" s="462"/>
-      <c r="D5" s="464"/>
+      <c r="C5" s="472"/>
+      <c r="D5" s="474"/>
       <c r="E5" s="289"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="460"/>
+      <c r="A6" s="470"/>
       <c r="B6" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C6" s="462"/>
+      <c r="C6" s="472"/>
       <c r="D6" s="292"/>
       <c r="E6" s="289"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="460"/>
+      <c r="A7" s="470"/>
       <c r="B7" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="462"/>
+      <c r="C7" s="472"/>
       <c r="D7" s="292"/>
       <c r="E7" s="289"/>
     </row>
     <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="460"/>
+      <c r="A8" s="470"/>
       <c r="B8" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C8" s="462"/>
+      <c r="C8" s="472"/>
       <c r="D8" s="292"/>
       <c r="E8" s="289"/>
     </row>
     <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="460"/>
+      <c r="A9" s="470"/>
       <c r="B9" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C9" s="462"/>
+      <c r="C9" s="472"/>
       <c r="D9" s="292"/>
       <c r="E9" s="289"/>
     </row>
     <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="460"/>
+      <c r="A10" s="470"/>
       <c r="B10" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C10" s="462"/>
+      <c r="C10" s="472"/>
       <c r="D10" s="292"/>
       <c r="E10" s="289"/>
     </row>
     <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="460"/>
+      <c r="A11" s="470"/>
       <c r="B11" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="462"/>
+      <c r="C11" s="472"/>
       <c r="D11" s="292"/>
       <c r="E11" s="289"/>
     </row>
     <row r="12" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="460"/>
+      <c r="A12" s="470"/>
       <c r="B12" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C12" s="462"/>
+      <c r="C12" s="472"/>
       <c r="D12" s="292"/>
       <c r="E12" s="289"/>
     </row>
     <row r="13" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="460"/>
+      <c r="A13" s="470"/>
       <c r="B13" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C13" s="462"/>
+      <c r="C13" s="472"/>
       <c r="D13" s="292"/>
       <c r="E13" s="289"/>
     </row>
     <row r="14" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="456"/>
+      <c r="A14" s="466"/>
       <c r="B14" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C14" s="463"/>
+      <c r="C14" s="473"/>
       <c r="D14" s="292"/>
       <c r="E14" s="289"/>
     </row>
     <row r="15" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="459" t="s">
+      <c r="A15" s="469" t="s">
         <v>591</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C15" s="461">
+      <c r="C15" s="471">
         <v>5</v>
       </c>
       <c r="D15" s="293"/>
       <c r="E15" s="289"/>
     </row>
     <row r="16" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="460"/>
+      <c r="A16" s="470"/>
       <c r="B16" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C16" s="462"/>
+      <c r="C16" s="472"/>
       <c r="D16" s="293"/>
       <c r="E16" s="289"/>
     </row>
     <row r="17" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="460"/>
+      <c r="A17" s="470"/>
       <c r="B17" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C17" s="462"/>
+      <c r="C17" s="472"/>
       <c r="E17" s="289"/>
     </row>
     <row r="18" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="460"/>
+      <c r="A18" s="470"/>
       <c r="B18" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C18" s="462"/>
+      <c r="C18" s="472"/>
       <c r="D18" s="293"/>
       <c r="E18" s="289"/>
     </row>
     <row r="19" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="460"/>
+      <c r="A19" s="470"/>
       <c r="B19" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C19" s="462"/>
+      <c r="C19" s="472"/>
       <c r="E19" s="289"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="460"/>
+      <c r="A20" s="470"/>
       <c r="B20" s="303" t="s">
         <v>431</v>
       </c>
-      <c r="C20" s="462"/>
+      <c r="C20" s="472"/>
       <c r="E20" s="289"/>
     </row>
     <row r="21" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="460"/>
+      <c r="A21" s="470"/>
       <c r="B21" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="C21" s="462"/>
+      <c r="C21" s="472"/>
       <c r="E21" s="289"/>
     </row>
     <row r="22" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="456"/>
+      <c r="A22" s="466"/>
       <c r="B22" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="C22" s="463"/>
+      <c r="C22" s="473"/>
       <c r="E22" s="289"/>
     </row>
     <row r="23" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="459" t="s">
+      <c r="A23" s="469" t="s">
         <v>592</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C23" s="461">
+      <c r="C23" s="471">
         <v>5</v>
       </c>
       <c r="E23" s="289"/>
     </row>
     <row r="24" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="460"/>
+      <c r="A24" s="470"/>
       <c r="B24" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C24" s="462"/>
+      <c r="C24" s="472"/>
       <c r="E24" s="289"/>
     </row>
     <row r="25" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="460"/>
+      <c r="A25" s="470"/>
       <c r="B25" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="C25" s="462"/>
+      <c r="C25" s="472"/>
       <c r="E25" s="289"/>
     </row>
     <row r="26" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="460"/>
+      <c r="A26" s="470"/>
       <c r="B26" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C26" s="462"/>
+      <c r="C26" s="472"/>
       <c r="E26" s="289"/>
     </row>
     <row r="27" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="460"/>
+      <c r="A27" s="470"/>
       <c r="B27" s="303" t="s">
         <v>428</v>
       </c>
-      <c r="C27" s="462"/>
+      <c r="C27" s="472"/>
       <c r="E27" s="289"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A28" s="460"/>
+      <c r="A28" s="470"/>
       <c r="B28" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="C28" s="462"/>
+      <c r="C28" s="472"/>
       <c r="E28" s="289"/>
     </row>
     <row r="29" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="456"/>
+      <c r="A29" s="466"/>
       <c r="B29" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="C29" s="463"/>
+      <c r="C29" s="473"/>
       <c r="D29" s="293"/>
       <c r="E29" s="289"/>
     </row>
     <row r="30" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="459" t="s">
+      <c r="A30" s="469" t="s">
         <v>607</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C30" s="461">
+      <c r="C30" s="471">
         <v>5</v>
       </c>
       <c r="D30" s="293"/>
       <c r="E30" s="289"/>
     </row>
     <row r="31" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="460"/>
+      <c r="A31" s="470"/>
       <c r="B31" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C31" s="462"/>
+      <c r="C31" s="472"/>
       <c r="E31" s="289"/>
     </row>
     <row r="32" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A32" s="460"/>
+      <c r="A32" s="470"/>
       <c r="B32" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C32" s="462"/>
+      <c r="C32" s="472"/>
       <c r="E32" s="289"/>
     </row>
     <row r="33" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="460"/>
+      <c r="A33" s="470"/>
       <c r="B33" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C33" s="462"/>
+      <c r="C33" s="472"/>
       <c r="E33" s="289"/>
     </row>
     <row r="34" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A34" s="460"/>
+      <c r="A34" s="470"/>
       <c r="B34" s="303" t="s">
         <v>432</v>
       </c>
-      <c r="C34" s="462"/>
+      <c r="C34" s="472"/>
       <c r="E34" s="289"/>
     </row>
     <row r="35" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="460"/>
+      <c r="A35" s="470"/>
       <c r="B35" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="C35" s="462"/>
+      <c r="C35" s="472"/>
       <c r="E35" s="289"/>
     </row>
     <row r="36" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="456"/>
+      <c r="A36" s="466"/>
       <c r="B36" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="C36" s="463"/>
+      <c r="C36" s="473"/>
       <c r="D36" s="293"/>
       <c r="E36" s="289"/>
     </row>
     <row r="37" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="459" t="s">
+      <c r="A37" s="469" t="s">
         <v>593</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C37" s="461">
+      <c r="C37" s="471">
         <v>5</v>
       </c>
       <c r="E37" s="289"/>
     </row>
     <row r="38" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A38" s="460"/>
+      <c r="A38" s="470"/>
       <c r="B38" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C38" s="462"/>
+      <c r="C38" s="472"/>
       <c r="D38" s="293"/>
       <c r="E38" s="289"/>
     </row>
     <row r="39" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A39" s="460"/>
+      <c r="A39" s="470"/>
       <c r="B39" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="C39" s="462"/>
+      <c r="C39" s="472"/>
       <c r="E39" s="289"/>
     </row>
     <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="460"/>
+      <c r="A40" s="470"/>
       <c r="B40" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="C40" s="462"/>
+      <c r="C40" s="472"/>
       <c r="E40" s="289"/>
     </row>
     <row r="41" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="460"/>
+      <c r="A41" s="470"/>
       <c r="B41" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="C41" s="462"/>
+      <c r="C41" s="472"/>
       <c r="E41" s="289"/>
     </row>
     <row r="42" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="460"/>
+      <c r="A42" s="470"/>
       <c r="B42" s="303" t="s">
         <v>569</v>
       </c>
-      <c r="C42" s="462"/>
+      <c r="C42" s="472"/>
       <c r="E42" s="289"/>
     </row>
     <row r="43" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A43" s="460"/>
+      <c r="A43" s="470"/>
       <c r="B43" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="C43" s="462"/>
+      <c r="C43" s="472"/>
       <c r="E43" s="289"/>
     </row>
     <row r="44" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A44" s="456"/>
+      <c r="A44" s="466"/>
       <c r="B44" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="C44" s="463"/>
+      <c r="C44" s="473"/>
       <c r="E44" s="289"/>
     </row>
     <row r="45" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A45" s="453" t="s">
+      <c r="A45" s="463" t="s">
         <v>594</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C45" s="461">
+      <c r="C45" s="471">
         <v>5</v>
       </c>
       <c r="E45" s="289"/>
     </row>
     <row r="46" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A46" s="453"/>
+      <c r="A46" s="463"/>
       <c r="B46" s="303" t="s">
         <v>434</v>
       </c>
-      <c r="C46" s="462"/>
+      <c r="C46" s="472"/>
       <c r="E46" s="289"/>
     </row>
     <row r="47" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A47" s="453"/>
+      <c r="A47" s="463"/>
       <c r="B47" s="303" t="s">
         <v>427</v>
       </c>
-      <c r="C47" s="462"/>
+      <c r="C47" s="472"/>
       <c r="E47" s="289"/>
     </row>
     <row r="48" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A48" s="453"/>
+      <c r="A48" s="463"/>
       <c r="B48" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="C48" s="462"/>
+      <c r="C48" s="472"/>
       <c r="E48" s="289"/>
     </row>
     <row r="49" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A49" s="453"/>
+      <c r="A49" s="463"/>
       <c r="B49" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="C49" s="462"/>
+      <c r="C49" s="472"/>
       <c r="E49" s="289"/>
     </row>
     <row r="50" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A50" s="453"/>
+      <c r="A50" s="463"/>
       <c r="B50" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="C50" s="462"/>
+      <c r="C50" s="472"/>
       <c r="E50" s="289"/>
     </row>
     <row r="51" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="453"/>
+      <c r="A51" s="463"/>
       <c r="B51" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="C51" s="462"/>
+      <c r="C51" s="472"/>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="453"/>
+      <c r="A52" s="463"/>
       <c r="B52" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="C52" s="463"/>
+      <c r="C52" s="473"/>
       <c r="D52" s="293"/>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="453" t="s">
+      <c r="A53" s="463" t="s">
         <v>595</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C53" s="461">
+      <c r="C53" s="471">
         <v>5</v>
       </c>
       <c r="D53" s="293"/>
     </row>
     <row r="54" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="453"/>
+      <c r="A54" s="463"/>
       <c r="B54" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C54" s="462"/>
+      <c r="C54" s="472"/>
       <c r="D54" s="293"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="453"/>
+      <c r="A55" s="463"/>
       <c r="B55" s="303" t="s">
         <v>429</v>
       </c>
-      <c r="C55" s="462"/>
+      <c r="C55" s="472"/>
       <c r="D55" s="293"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="453"/>
+      <c r="A56" s="463"/>
       <c r="B56" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="C56" s="462"/>
+      <c r="C56" s="472"/>
       <c r="D56" s="293"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="453"/>
+      <c r="A57" s="463"/>
       <c r="B57" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="C57" s="462"/>
+      <c r="C57" s="472"/>
       <c r="D57" s="293"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="453"/>
+      <c r="A58" s="463"/>
       <c r="B58" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="C58" s="462"/>
+      <c r="C58" s="472"/>
       <c r="D58" s="293"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="453"/>
+      <c r="A59" s="463"/>
       <c r="B59" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="C59" s="462"/>
+      <c r="C59" s="472"/>
       <c r="D59" s="293"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="453"/>
+      <c r="A60" s="463"/>
       <c r="B60" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="C60" s="463"/>
+      <c r="C60" s="473"/>
       <c r="D60" s="293"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="453" t="s">
+      <c r="A61" s="463" t="s">
         <v>596</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C61" s="461">
+      <c r="C61" s="471">
         <v>5</v>
       </c>
       <c r="D61" s="293"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="453"/>
+      <c r="A62" s="463"/>
       <c r="B62" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C62" s="462"/>
+      <c r="C62" s="472"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="453"/>
+      <c r="A63" s="463"/>
       <c r="B63" s="303" t="s">
         <v>433</v>
       </c>
-      <c r="C63" s="462"/>
+      <c r="C63" s="472"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="453"/>
+      <c r="A64" s="463"/>
       <c r="B64" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="C64" s="462"/>
+      <c r="C64" s="472"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="453"/>
+      <c r="A65" s="463"/>
       <c r="B65" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="C65" s="462"/>
+      <c r="C65" s="472"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="453"/>
+      <c r="A66" s="463"/>
       <c r="B66" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="C66" s="463"/>
+      <c r="C66" s="473"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>

--- a/game.xlsx
+++ b/game.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="1000" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="1000" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Нации" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="981">
   <si>
     <t>Камень</t>
   </si>
@@ -2924,9 +2924,6 @@
     <t>Смерть: уничтожает случайное существо на поле боя</t>
   </si>
   <si>
-    <t>Сияние</t>
-  </si>
-  <si>
     <t>Гоблин-вонючка</t>
   </si>
   <si>
@@ -2958,6 +2955,33 @@
   </si>
   <si>
     <t>Выбранный юнит получает +1/+1</t>
+  </si>
+  <si>
+    <t>Огненный элементаль</t>
+  </si>
+  <si>
+    <t>Садовый гном</t>
+  </si>
+  <si>
+    <t>Медведь</t>
+  </si>
+  <si>
+    <t>Земляной элементаль</t>
+  </si>
+  <si>
+    <t>Воздушный элементаль</t>
+  </si>
+  <si>
+    <t>Наездница</t>
+  </si>
+  <si>
+    <t>Иммунитет к магии земли</t>
+  </si>
+  <si>
+    <t>Иммунитет к магии воздуха. Стрелок</t>
+  </si>
+  <si>
+    <t>Рождение: наносит 2 ед урона. Иммунитет к магии огня. Поджигает</t>
   </si>
 </sst>
 </file>
@@ -7530,11 +7554,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E169" sqref="E169"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -11538,7 +11562,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A165" s="381" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="C165" s="305">
         <v>1</v>
@@ -11550,7 +11574,7 @@
         <v>0</v>
       </c>
       <c r="F165" s="435" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G165" s="309">
         <v>1</v>
@@ -11566,10 +11590,10 @@
     </row>
     <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.5">
       <c r="A166" s="381" t="s">
+        <v>961</v>
+      </c>
+      <c r="B166" s="219" t="s">
         <v>962</v>
-      </c>
-      <c r="B166" s="219" t="s">
-        <v>963</v>
       </c>
       <c r="C166" s="305">
         <v>1</v>
@@ -11599,10 +11623,10 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A167" s="381" t="s">
+        <v>963</v>
+      </c>
+      <c r="B167" s="219" t="s">
         <v>964</v>
-      </c>
-      <c r="B167" s="219" t="s">
-        <v>965</v>
       </c>
       <c r="C167" s="305">
         <v>0</v>
@@ -11630,7 +11654,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A168" s="381" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C168" s="305">
         <v>0</v>
@@ -11639,7 +11663,7 @@
         <v>2</v>
       </c>
       <c r="E168" s="307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" s="435" t="s">
         <v>941</v>
@@ -11658,10 +11682,10 @@
     </row>
     <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.5">
       <c r="A169" s="381" t="s">
+        <v>966</v>
+      </c>
+      <c r="B169" s="219" t="s">
         <v>967</v>
-      </c>
-      <c r="B169" s="219" t="s">
-        <v>968</v>
       </c>
       <c r="C169" s="305">
         <v>2</v>
@@ -11669,7 +11693,9 @@
       <c r="D169" s="306">
         <v>2</v>
       </c>
-      <c r="E169" s="307"/>
+      <c r="E169" s="307">
+        <v>2</v>
+      </c>
       <c r="F169" s="435" t="s">
         <v>939</v>
       </c>
@@ -11687,10 +11713,10 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A170" s="381" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B170" s="219" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C170" s="305">
         <v>2</v>
@@ -11698,7 +11724,9 @@
       <c r="D170" s="306">
         <v>3</v>
       </c>
-      <c r="E170" s="307"/>
+      <c r="E170" s="307">
+        <v>3</v>
+      </c>
       <c r="F170" s="435" t="s">
         <v>937</v>
       </c>
@@ -11716,7 +11744,7 @@
     </row>
     <row r="171" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="382" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B171" s="232"/>
       <c r="C171" s="339">
@@ -11725,7 +11753,9 @@
       <c r="D171" s="340">
         <v>1</v>
       </c>
-      <c r="E171" s="341"/>
+      <c r="E171" s="341">
+        <v>1</v>
+      </c>
       <c r="F171" s="436" t="s">
         <v>940</v>
       </c>
@@ -11743,7 +11773,7 @@
     </row>
     <row r="172" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="382" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B172" s="232" t="s">
         <v>758</v>
@@ -11754,7 +11784,9 @@
       <c r="D172" s="340">
         <v>1</v>
       </c>
-      <c r="E172" s="341"/>
+      <c r="E172" s="341">
+        <v>2</v>
+      </c>
       <c r="F172" s="436" t="s">
         <v>939</v>
       </c>
@@ -11769,6 +11801,159 @@
       <c r="J172" s="345"/>
       <c r="K172" s="422"/>
       <c r="L172" s="346"/>
+    </row>
+    <row r="173" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="382" t="s">
+        <v>972</v>
+      </c>
+      <c r="B173" s="232" t="s">
+        <v>980</v>
+      </c>
+      <c r="C173" s="339">
+        <v>2</v>
+      </c>
+      <c r="D173" s="340">
+        <v>2</v>
+      </c>
+      <c r="E173" s="341">
+        <v>4</v>
+      </c>
+      <c r="F173" s="436" t="s">
+        <v>936</v>
+      </c>
+      <c r="G173" s="343">
+        <v>1</v>
+      </c>
+      <c r="H173" s="421">
+        <f t="shared" ref="H173:H177" si="11">8*C173+5*D173+100*L173+10*(G173-1)</f>
+        <v>26</v>
+      </c>
+      <c r="I173" s="344"/>
+      <c r="J173" s="345"/>
+      <c r="K173" s="422"/>
+      <c r="L173" s="346"/>
+    </row>
+    <row r="174" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="382" t="s">
+        <v>974</v>
+      </c>
+      <c r="B174" s="232"/>
+      <c r="C174" s="339">
+        <v>3</v>
+      </c>
+      <c r="D174" s="340">
+        <v>3</v>
+      </c>
+      <c r="E174" s="341">
+        <v>3</v>
+      </c>
+      <c r="F174" s="436" t="s">
+        <v>939</v>
+      </c>
+      <c r="G174" s="343">
+        <v>1</v>
+      </c>
+      <c r="H174" s="421">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="I174" s="344"/>
+      <c r="J174" s="345"/>
+      <c r="K174" s="422"/>
+      <c r="L174" s="346"/>
+    </row>
+    <row r="175" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="382" t="s">
+        <v>975</v>
+      </c>
+      <c r="B175" s="232" t="s">
+        <v>978</v>
+      </c>
+      <c r="C175" s="339">
+        <v>2</v>
+      </c>
+      <c r="D175" s="340">
+        <v>5</v>
+      </c>
+      <c r="E175" s="341">
+        <v>4</v>
+      </c>
+      <c r="F175" s="436" t="s">
+        <v>936</v>
+      </c>
+      <c r="G175" s="343">
+        <v>1</v>
+      </c>
+      <c r="H175" s="421">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="I175" s="344"/>
+      <c r="J175" s="345"/>
+      <c r="K175" s="422"/>
+      <c r="L175" s="346"/>
+    </row>
+    <row r="176" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="382" t="s">
+        <v>976</v>
+      </c>
+      <c r="B176" s="232" t="s">
+        <v>979</v>
+      </c>
+      <c r="C176" s="339">
+        <v>2</v>
+      </c>
+      <c r="D176" s="340">
+        <v>4</v>
+      </c>
+      <c r="E176" s="341">
+        <v>4</v>
+      </c>
+      <c r="F176" s="436" t="s">
+        <v>936</v>
+      </c>
+      <c r="G176" s="343">
+        <v>1</v>
+      </c>
+      <c r="H176" s="421">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="I176" s="344"/>
+      <c r="J176" s="345"/>
+      <c r="K176" s="422"/>
+      <c r="L176" s="346"/>
+    </row>
+    <row r="177" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="382" t="s">
+        <v>977</v>
+      </c>
+      <c r="B177" s="232" t="s">
+        <v>758</v>
+      </c>
+      <c r="C177" s="339">
+        <v>3</v>
+      </c>
+      <c r="D177" s="340">
+        <v>1</v>
+      </c>
+      <c r="E177" s="341">
+        <v>3</v>
+      </c>
+      <c r="F177" s="436" t="s">
+        <v>939</v>
+      </c>
+      <c r="G177" s="343">
+        <v>1</v>
+      </c>
+      <c r="H177" s="421">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="I177" s="344"/>
+      <c r="J177" s="345"/>
+      <c r="K177" s="422"/>
+      <c r="L177" s="346"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15176,9 +15361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A16" sqref="A16"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15814,7 +15999,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="397" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="93" t="s">
@@ -16224,7 +16409,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="397" t="s">
         <v>118</v>
       </c>
       <c r="B26" s="93" t="s">
@@ -19551,8 +19736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/game.xlsx
+++ b/game.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="1000" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="1000" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Нации" sheetId="4" r:id="rId1"/>
@@ -5301,57 +5301,57 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5388,19 +5388,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6216,13 +6216,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="442">
-        <v>1</v>
-      </c>
-      <c r="B2" s="444" t="s">
+      <c r="A2" s="451">
+        <v>1</v>
+      </c>
+      <c r="B2" s="453" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="446" t="s">
+      <c r="C2" s="449" t="s">
         <v>466</v>
       </c>
       <c r="D2" s="154" t="s">
@@ -6233,9 +6233,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="443"/>
-      <c r="B3" s="445"/>
-      <c r="C3" s="447"/>
+      <c r="A3" s="452"/>
+      <c r="B3" s="454"/>
+      <c r="C3" s="450"/>
       <c r="D3" s="155" t="s">
         <v>214</v>
       </c>
@@ -6245,474 +6245,474 @@
       <c r="H3" s="448"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="442">
+      <c r="A4" s="451">
         <v>2</v>
       </c>
-      <c r="B4" s="444" t="s">
+      <c r="B4" s="453" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="446" t="s">
+      <c r="C4" s="449" t="s">
         <v>463</v>
       </c>
       <c r="D4" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="H4" s="449" t="s">
+      <c r="H4" s="440" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="443"/>
-      <c r="B5" s="445"/>
-      <c r="C5" s="447"/>
+      <c r="A5" s="452"/>
+      <c r="B5" s="454"/>
+      <c r="C5" s="450"/>
       <c r="D5" s="155" t="s">
         <v>215</v>
       </c>
       <c r="E5" s="213">
         <v>80</v>
       </c>
-      <c r="H5" s="450"/>
+      <c r="H5" s="441"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="442">
+      <c r="A6" s="451">
         <v>3</v>
       </c>
-      <c r="B6" s="444" t="s">
+      <c r="B6" s="453" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="446" t="s">
+      <c r="C6" s="449" t="s">
         <v>464</v>
       </c>
       <c r="D6" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="449" t="s">
+      <c r="H6" s="440" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="443"/>
-      <c r="B7" s="445"/>
-      <c r="C7" s="447"/>
+      <c r="A7" s="452"/>
+      <c r="B7" s="454"/>
+      <c r="C7" s="450"/>
       <c r="D7" s="155" t="s">
         <v>216</v>
       </c>
       <c r="E7" s="213">
         <v>125</v>
       </c>
-      <c r="H7" s="450"/>
+      <c r="H7" s="441"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="442">
+      <c r="A8" s="451">
         <v>4</v>
       </c>
-      <c r="B8" s="444" t="s">
+      <c r="B8" s="453" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="446" t="s">
+      <c r="C8" s="449" t="s">
         <v>465</v>
       </c>
       <c r="D8" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="451" t="s">
+      <c r="H8" s="442" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="443"/>
-      <c r="B9" s="445"/>
-      <c r="C9" s="447"/>
+      <c r="A9" s="452"/>
+      <c r="B9" s="454"/>
+      <c r="C9" s="450"/>
       <c r="D9" s="155" t="s">
         <v>217</v>
       </c>
       <c r="E9" s="213">
         <v>150</v>
       </c>
-      <c r="H9" s="452"/>
+      <c r="H9" s="443"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="442">
+      <c r="A10" s="451">
         <v>5</v>
       </c>
-      <c r="B10" s="444" t="s">
+      <c r="B10" s="453" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="446" t="s">
+      <c r="C10" s="449" t="s">
         <v>195</v>
       </c>
       <c r="D10" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="453" t="s">
+      <c r="H10" s="446" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="443"/>
-      <c r="B11" s="445"/>
-      <c r="C11" s="447"/>
+      <c r="A11" s="452"/>
+      <c r="B11" s="454"/>
+      <c r="C11" s="450"/>
       <c r="D11" s="155" t="s">
         <v>817</v>
       </c>
       <c r="E11" s="213">
         <v>130</v>
       </c>
-      <c r="H11" s="454"/>
+      <c r="H11" s="447"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="442">
+      <c r="A12" s="451">
         <v>6</v>
       </c>
-      <c r="B12" s="444" t="s">
+      <c r="B12" s="453" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="446" t="s">
+      <c r="C12" s="449" t="s">
         <v>196</v>
       </c>
       <c r="D12" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="451" t="s">
+      <c r="H12" s="442" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="443"/>
-      <c r="B13" s="445"/>
-      <c r="C13" s="447"/>
+      <c r="A13" s="452"/>
+      <c r="B13" s="454"/>
+      <c r="C13" s="450"/>
       <c r="D13" s="155" t="s">
         <v>816</v>
       </c>
       <c r="E13" s="213">
         <v>220</v>
       </c>
-      <c r="H13" s="452"/>
+      <c r="H13" s="443"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="442">
+      <c r="A14" s="451">
         <v>7</v>
       </c>
-      <c r="B14" s="444" t="s">
+      <c r="B14" s="453" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="446" t="s">
+      <c r="C14" s="449" t="s">
         <v>467</v>
       </c>
       <c r="D14" s="154" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="455" t="s">
+      <c r="H14" s="444" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="443"/>
-      <c r="B15" s="445"/>
-      <c r="C15" s="447"/>
+      <c r="A15" s="452"/>
+      <c r="B15" s="454"/>
+      <c r="C15" s="450"/>
       <c r="D15" s="155" t="s">
         <v>218</v>
       </c>
       <c r="E15" s="213">
         <v>200</v>
       </c>
-      <c r="H15" s="456"/>
+      <c r="H15" s="445"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="442">
+      <c r="A16" s="451">
         <v>8</v>
       </c>
-      <c r="B16" s="444" t="s">
+      <c r="B16" s="453" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="446" t="s">
+      <c r="C16" s="449" t="s">
         <v>468</v>
       </c>
       <c r="D16" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="453" t="s">
+      <c r="H16" s="446" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="443"/>
-      <c r="B17" s="445"/>
-      <c r="C17" s="447"/>
+      <c r="A17" s="452"/>
+      <c r="B17" s="454"/>
+      <c r="C17" s="450"/>
       <c r="D17" s="155" t="s">
         <v>219</v>
       </c>
       <c r="E17" s="213">
         <v>300</v>
       </c>
-      <c r="H17" s="454"/>
+      <c r="H17" s="447"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="442">
+      <c r="A18" s="451">
         <v>9</v>
       </c>
-      <c r="B18" s="444" t="s">
+      <c r="B18" s="453" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="446" t="s">
+      <c r="C18" s="449" t="s">
         <v>197</v>
       </c>
       <c r="D18" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="455" t="s">
+      <c r="H18" s="444" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="443"/>
-      <c r="B19" s="445"/>
-      <c r="C19" s="447"/>
+      <c r="A19" s="452"/>
+      <c r="B19" s="454"/>
+      <c r="C19" s="450"/>
       <c r="D19" s="155" t="s">
         <v>220</v>
       </c>
       <c r="E19" s="213">
         <v>270</v>
       </c>
-      <c r="H19" s="456"/>
+      <c r="H19" s="445"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="442">
+      <c r="A20" s="451">
         <v>10</v>
       </c>
-      <c r="B20" s="444" t="s">
+      <c r="B20" s="453" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="446" t="s">
+      <c r="C20" s="449" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="451" t="s">
+      <c r="H20" s="442" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="443"/>
-      <c r="B21" s="445"/>
-      <c r="C21" s="447"/>
+      <c r="A21" s="452"/>
+      <c r="B21" s="454"/>
+      <c r="C21" s="450"/>
       <c r="D21" s="155" t="s">
         <v>221</v>
       </c>
       <c r="E21" s="213">
         <v>175</v>
       </c>
-      <c r="H21" s="452"/>
+      <c r="H21" s="443"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="442">
+      <c r="A22" s="451">
         <v>11</v>
       </c>
-      <c r="B22" s="444" t="s">
+      <c r="B22" s="453" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="446" t="s">
+      <c r="C22" s="449" t="s">
         <v>469</v>
       </c>
       <c r="D22" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="449" t="s">
+      <c r="H22" s="440" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="443"/>
-      <c r="B23" s="445"/>
-      <c r="C23" s="447"/>
+      <c r="A23" s="452"/>
+      <c r="B23" s="454"/>
+      <c r="C23" s="450"/>
       <c r="D23" s="155" t="s">
         <v>224</v>
       </c>
       <c r="E23" s="213">
         <v>240</v>
       </c>
-      <c r="H23" s="450"/>
+      <c r="H23" s="441"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="442">
+      <c r="A24" s="451">
         <v>12</v>
       </c>
-      <c r="B24" s="444" t="s">
+      <c r="B24" s="453" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="446" t="s">
+      <c r="C24" s="449" t="s">
         <v>470</v>
       </c>
       <c r="D24" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="451" t="s">
+      <c r="H24" s="442" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="443"/>
-      <c r="B25" s="445"/>
-      <c r="C25" s="447"/>
+      <c r="A25" s="452"/>
+      <c r="B25" s="454"/>
+      <c r="C25" s="450"/>
       <c r="D25" s="155" t="s">
         <v>93</v>
       </c>
       <c r="E25" s="213">
         <v>250</v>
       </c>
-      <c r="H25" s="452"/>
+      <c r="H25" s="443"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="442">
+      <c r="A26" s="451">
         <v>13</v>
       </c>
-      <c r="B26" s="444" t="s">
+      <c r="B26" s="453" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="446" t="s">
+      <c r="C26" s="449" t="s">
         <v>198</v>
       </c>
       <c r="D26" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="455" t="s">
+      <c r="H26" s="444" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="443"/>
-      <c r="B27" s="445"/>
-      <c r="C27" s="447"/>
+      <c r="A27" s="452"/>
+      <c r="B27" s="454"/>
+      <c r="C27" s="450"/>
       <c r="D27" s="155" t="s">
         <v>120</v>
       </c>
       <c r="E27" s="213">
         <v>320</v>
       </c>
-      <c r="H27" s="456"/>
+      <c r="H27" s="445"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="442">
+      <c r="A28" s="451">
         <v>14</v>
       </c>
-      <c r="B28" s="444" t="s">
+      <c r="B28" s="453" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="446" t="s">
+      <c r="C28" s="449" t="s">
         <v>472</v>
       </c>
       <c r="D28" s="154" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="453" t="s">
+      <c r="H28" s="446" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="443"/>
-      <c r="B29" s="445"/>
-      <c r="C29" s="447"/>
+      <c r="A29" s="452"/>
+      <c r="B29" s="454"/>
+      <c r="C29" s="450"/>
       <c r="D29" s="155" t="s">
         <v>223</v>
       </c>
       <c r="E29" s="213">
         <v>250</v>
       </c>
-      <c r="H29" s="454"/>
+      <c r="H29" s="447"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="442">
+      <c r="A30" s="451">
         <v>15</v>
       </c>
-      <c r="B30" s="444" t="s">
+      <c r="B30" s="453" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="446" t="s">
+      <c r="C30" s="449" t="s">
         <v>471</v>
       </c>
       <c r="D30" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="451" t="s">
+      <c r="H30" s="442" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="443"/>
-      <c r="B31" s="445"/>
-      <c r="C31" s="447"/>
+      <c r="A31" s="452"/>
+      <c r="B31" s="454"/>
+      <c r="C31" s="450"/>
       <c r="D31" s="155" t="s">
         <v>225</v>
       </c>
       <c r="E31" s="213">
         <v>230</v>
       </c>
-      <c r="H31" s="452"/>
+      <c r="H31" s="443"/>
     </row>
     <row r="33" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="34" spans="2:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="440" t="s">
+      <c r="C34" s="455" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="441"/>
+      <c r="D34" s="456"/>
     </row>
     <row r="35" spans="2:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="440" t="s">
+      <c r="C35" s="455" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="441"/>
+      <c r="D35" s="456"/>
     </row>
     <row r="36" spans="2:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="440" t="s">
+      <c r="C36" s="455" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="441"/>
+      <c r="D36" s="456"/>
     </row>
     <row r="37" spans="2:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="440" t="s">
+      <c r="C37" s="455" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="441"/>
+      <c r="D37" s="456"/>
     </row>
     <row r="38" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="440" t="s">
+      <c r="C38" s="455" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="441"/>
+      <c r="D38" s="456"/>
     </row>
     <row r="39" spans="2:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="440" t="s">
+      <c r="C39" s="455" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="441"/>
+      <c r="D39" s="456"/>
     </row>
     <row r="40" spans="2:4" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C40" s="440" t="s">
+      <c r="C40" s="455" t="s">
         <v>333</v>
       </c>
-      <c r="D40" s="441"/>
+      <c r="D40" s="456"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="2"/>
@@ -6734,63 +6734,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -6801,6 +6744,63 @@
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7556,7 +7556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F178" sqref="F178"/>
     </sheetView>
@@ -17132,8 +17132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19765,13 +19765,13 @@
       <c r="E1" s="288"/>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="469" t="s">
+      <c r="A2" s="472" t="s">
         <v>574</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="471">
+      <c r="C2" s="469">
         <v>5</v>
       </c>
       <c r="D2" s="474" t="s">
@@ -19780,101 +19780,101 @@
       <c r="E2" s="289"/>
     </row>
     <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="470"/>
+      <c r="A3" s="473"/>
       <c r="B3" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="472"/>
+      <c r="C3" s="470"/>
       <c r="D3" s="474"/>
       <c r="E3" s="289"/>
     </row>
     <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="470"/>
+      <c r="A4" s="473"/>
       <c r="B4" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C4" s="472"/>
+      <c r="C4" s="470"/>
       <c r="D4" s="474"/>
       <c r="E4" s="289"/>
     </row>
     <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="470"/>
+      <c r="A5" s="473"/>
       <c r="B5" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C5" s="472"/>
+      <c r="C5" s="470"/>
       <c r="D5" s="474"/>
       <c r="E5" s="289"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="470"/>
+      <c r="A6" s="473"/>
       <c r="B6" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C6" s="472"/>
+      <c r="C6" s="470"/>
       <c r="D6" s="292"/>
       <c r="E6" s="289"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="470"/>
+      <c r="A7" s="473"/>
       <c r="B7" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="472"/>
+      <c r="C7" s="470"/>
       <c r="D7" s="292"/>
       <c r="E7" s="289"/>
     </row>
     <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="470"/>
+      <c r="A8" s="473"/>
       <c r="B8" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C8" s="472"/>
+      <c r="C8" s="470"/>
       <c r="D8" s="292"/>
       <c r="E8" s="289"/>
     </row>
     <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="470"/>
+      <c r="A9" s="473"/>
       <c r="B9" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C9" s="472"/>
+      <c r="C9" s="470"/>
       <c r="D9" s="292"/>
       <c r="E9" s="289"/>
     </row>
     <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="470"/>
+      <c r="A10" s="473"/>
       <c r="B10" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C10" s="472"/>
+      <c r="C10" s="470"/>
       <c r="D10" s="292"/>
       <c r="E10" s="289"/>
     </row>
     <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="470"/>
+      <c r="A11" s="473"/>
       <c r="B11" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="472"/>
+      <c r="C11" s="470"/>
       <c r="D11" s="292"/>
       <c r="E11" s="289"/>
     </row>
     <row r="12" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="470"/>
+      <c r="A12" s="473"/>
       <c r="B12" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C12" s="472"/>
+      <c r="C12" s="470"/>
       <c r="D12" s="292"/>
       <c r="E12" s="289"/>
     </row>
     <row r="13" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="470"/>
+      <c r="A13" s="473"/>
       <c r="B13" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C13" s="472"/>
+      <c r="C13" s="470"/>
       <c r="D13" s="292"/>
       <c r="E13" s="289"/>
     </row>
@@ -19883,71 +19883,71 @@
       <c r="B14" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C14" s="473"/>
+      <c r="C14" s="471"/>
       <c r="D14" s="292"/>
       <c r="E14" s="289"/>
     </row>
     <row r="15" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="469" t="s">
+      <c r="A15" s="472" t="s">
         <v>591</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C15" s="471">
+      <c r="C15" s="469">
         <v>5</v>
       </c>
       <c r="D15" s="293"/>
       <c r="E15" s="289"/>
     </row>
     <row r="16" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="470"/>
+      <c r="A16" s="473"/>
       <c r="B16" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C16" s="472"/>
+      <c r="C16" s="470"/>
       <c r="D16" s="293"/>
       <c r="E16" s="289"/>
     </row>
     <row r="17" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="470"/>
+      <c r="A17" s="473"/>
       <c r="B17" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C17" s="472"/>
+      <c r="C17" s="470"/>
       <c r="E17" s="289"/>
     </row>
     <row r="18" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="470"/>
+      <c r="A18" s="473"/>
       <c r="B18" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C18" s="472"/>
+      <c r="C18" s="470"/>
       <c r="D18" s="293"/>
       <c r="E18" s="289"/>
     </row>
     <row r="19" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="470"/>
+      <c r="A19" s="473"/>
       <c r="B19" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C19" s="472"/>
+      <c r="C19" s="470"/>
       <c r="E19" s="289"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="470"/>
+      <c r="A20" s="473"/>
       <c r="B20" s="303" t="s">
         <v>431</v>
       </c>
-      <c r="C20" s="472"/>
+      <c r="C20" s="470"/>
       <c r="E20" s="289"/>
     </row>
     <row r="21" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="470"/>
+      <c r="A21" s="473"/>
       <c r="B21" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="C21" s="472"/>
+      <c r="C21" s="470"/>
       <c r="E21" s="289"/>
     </row>
     <row r="22" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -19955,59 +19955,59 @@
       <c r="B22" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="C22" s="473"/>
+      <c r="C22" s="471"/>
       <c r="E22" s="289"/>
     </row>
     <row r="23" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="469" t="s">
+      <c r="A23" s="472" t="s">
         <v>592</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C23" s="471">
+      <c r="C23" s="469">
         <v>5</v>
       </c>
       <c r="E23" s="289"/>
     </row>
     <row r="24" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="470"/>
+      <c r="A24" s="473"/>
       <c r="B24" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C24" s="472"/>
+      <c r="C24" s="470"/>
       <c r="E24" s="289"/>
     </row>
     <row r="25" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="470"/>
+      <c r="A25" s="473"/>
       <c r="B25" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="C25" s="472"/>
+      <c r="C25" s="470"/>
       <c r="E25" s="289"/>
     </row>
     <row r="26" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="470"/>
+      <c r="A26" s="473"/>
       <c r="B26" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C26" s="472"/>
+      <c r="C26" s="470"/>
       <c r="E26" s="289"/>
     </row>
     <row r="27" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="470"/>
+      <c r="A27" s="473"/>
       <c r="B27" s="303" t="s">
         <v>428</v>
       </c>
-      <c r="C27" s="472"/>
+      <c r="C27" s="470"/>
       <c r="E27" s="289"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A28" s="470"/>
+      <c r="A28" s="473"/>
       <c r="B28" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="C28" s="472"/>
+      <c r="C28" s="470"/>
       <c r="E28" s="289"/>
     </row>
     <row r="29" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -20015,61 +20015,61 @@
       <c r="B29" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="C29" s="473"/>
+      <c r="C29" s="471"/>
       <c r="D29" s="293"/>
       <c r="E29" s="289"/>
     </row>
     <row r="30" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="469" t="s">
+      <c r="A30" s="472" t="s">
         <v>607</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C30" s="471">
+      <c r="C30" s="469">
         <v>5</v>
       </c>
       <c r="D30" s="293"/>
       <c r="E30" s="289"/>
     </row>
     <row r="31" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="470"/>
+      <c r="A31" s="473"/>
       <c r="B31" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C31" s="472"/>
+      <c r="C31" s="470"/>
       <c r="E31" s="289"/>
     </row>
     <row r="32" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A32" s="470"/>
+      <c r="A32" s="473"/>
       <c r="B32" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C32" s="472"/>
+      <c r="C32" s="470"/>
       <c r="E32" s="289"/>
     </row>
     <row r="33" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="470"/>
+      <c r="A33" s="473"/>
       <c r="B33" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C33" s="472"/>
+      <c r="C33" s="470"/>
       <c r="E33" s="289"/>
     </row>
     <row r="34" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A34" s="470"/>
+      <c r="A34" s="473"/>
       <c r="B34" s="303" t="s">
         <v>432</v>
       </c>
-      <c r="C34" s="472"/>
+      <c r="C34" s="470"/>
       <c r="E34" s="289"/>
     </row>
     <row r="35" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="470"/>
+      <c r="A35" s="473"/>
       <c r="B35" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="C35" s="472"/>
+      <c r="C35" s="470"/>
       <c r="E35" s="289"/>
     </row>
     <row r="36" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -20077,69 +20077,69 @@
       <c r="B36" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="C36" s="473"/>
+      <c r="C36" s="471"/>
       <c r="D36" s="293"/>
       <c r="E36" s="289"/>
     </row>
     <row r="37" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="469" t="s">
+      <c r="A37" s="472" t="s">
         <v>593</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C37" s="471">
+      <c r="C37" s="469">
         <v>5</v>
       </c>
       <c r="E37" s="289"/>
     </row>
     <row r="38" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A38" s="470"/>
+      <c r="A38" s="473"/>
       <c r="B38" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C38" s="472"/>
+      <c r="C38" s="470"/>
       <c r="D38" s="293"/>
       <c r="E38" s="289"/>
     </row>
     <row r="39" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A39" s="470"/>
+      <c r="A39" s="473"/>
       <c r="B39" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="C39" s="472"/>
+      <c r="C39" s="470"/>
       <c r="E39" s="289"/>
     </row>
     <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="470"/>
+      <c r="A40" s="473"/>
       <c r="B40" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="C40" s="472"/>
+      <c r="C40" s="470"/>
       <c r="E40" s="289"/>
     </row>
     <row r="41" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="470"/>
+      <c r="A41" s="473"/>
       <c r="B41" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="C41" s="472"/>
+      <c r="C41" s="470"/>
       <c r="E41" s="289"/>
     </row>
     <row r="42" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="470"/>
+      <c r="A42" s="473"/>
       <c r="B42" s="303" t="s">
         <v>569</v>
       </c>
-      <c r="C42" s="472"/>
+      <c r="C42" s="470"/>
       <c r="E42" s="289"/>
     </row>
     <row r="43" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A43" s="470"/>
+      <c r="A43" s="473"/>
       <c r="B43" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="C43" s="472"/>
+      <c r="C43" s="470"/>
       <c r="E43" s="289"/>
     </row>
     <row r="44" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -20147,7 +20147,7 @@
       <c r="B44" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="C44" s="473"/>
+      <c r="C44" s="471"/>
       <c r="E44" s="289"/>
     </row>
     <row r="45" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -20157,7 +20157,7 @@
       <c r="B45" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C45" s="471">
+      <c r="C45" s="469">
         <v>5</v>
       </c>
       <c r="E45" s="289"/>
@@ -20167,7 +20167,7 @@
       <c r="B46" s="303" t="s">
         <v>434</v>
       </c>
-      <c r="C46" s="472"/>
+      <c r="C46" s="470"/>
       <c r="E46" s="289"/>
     </row>
     <row r="47" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -20175,7 +20175,7 @@
       <c r="B47" s="303" t="s">
         <v>427</v>
       </c>
-      <c r="C47" s="472"/>
+      <c r="C47" s="470"/>
       <c r="E47" s="289"/>
     </row>
     <row r="48" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -20183,7 +20183,7 @@
       <c r="B48" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="C48" s="472"/>
+      <c r="C48" s="470"/>
       <c r="E48" s="289"/>
     </row>
     <row r="49" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -20191,7 +20191,7 @@
       <c r="B49" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="C49" s="472"/>
+      <c r="C49" s="470"/>
       <c r="E49" s="289"/>
     </row>
     <row r="50" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -20199,7 +20199,7 @@
       <c r="B50" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="C50" s="472"/>
+      <c r="C50" s="470"/>
       <c r="E50" s="289"/>
     </row>
     <row r="51" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20207,14 +20207,14 @@
       <c r="B51" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="C51" s="472"/>
+      <c r="C51" s="470"/>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="463"/>
       <c r="B52" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="C52" s="473"/>
+      <c r="C52" s="471"/>
       <c r="D52" s="293"/>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -20224,7 +20224,7 @@
       <c r="B53" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C53" s="471">
+      <c r="C53" s="469">
         <v>5</v>
       </c>
       <c r="D53" s="293"/>
@@ -20234,7 +20234,7 @@
       <c r="B54" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C54" s="472"/>
+      <c r="C54" s="470"/>
       <c r="D54" s="293"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -20242,7 +20242,7 @@
       <c r="B55" s="303" t="s">
         <v>429</v>
       </c>
-      <c r="C55" s="472"/>
+      <c r="C55" s="470"/>
       <c r="D55" s="293"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -20250,7 +20250,7 @@
       <c r="B56" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="C56" s="472"/>
+      <c r="C56" s="470"/>
       <c r="D56" s="293"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -20258,7 +20258,7 @@
       <c r="B57" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="C57" s="472"/>
+      <c r="C57" s="470"/>
       <c r="D57" s="293"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -20266,7 +20266,7 @@
       <c r="B58" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="C58" s="472"/>
+      <c r="C58" s="470"/>
       <c r="D58" s="293"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -20274,7 +20274,7 @@
       <c r="B59" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="C59" s="472"/>
+      <c r="C59" s="470"/>
       <c r="D59" s="293"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -20282,7 +20282,7 @@
       <c r="B60" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="C60" s="473"/>
+      <c r="C60" s="471"/>
       <c r="D60" s="293"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -20292,7 +20292,7 @@
       <c r="B61" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C61" s="471">
+      <c r="C61" s="469">
         <v>5</v>
       </c>
       <c r="D61" s="293"/>
@@ -20302,35 +20302,35 @@
       <c r="B62" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C62" s="472"/>
+      <c r="C62" s="470"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="463"/>
       <c r="B63" s="303" t="s">
         <v>433</v>
       </c>
-      <c r="C63" s="472"/>
+      <c r="C63" s="470"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="463"/>
       <c r="B64" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="C64" s="472"/>
+      <c r="C64" s="470"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="463"/>
       <c r="B65" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="C65" s="472"/>
+      <c r="C65" s="470"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="463"/>
       <c r="B66" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="C66" s="473"/>
+      <c r="C66" s="471"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
@@ -20496,14 +20496,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="C45:C52"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="C61:C66"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="C30:C36"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="C37:C44"/>
     <mergeCell ref="A23:A29"/>
     <mergeCell ref="C23:C29"/>
     <mergeCell ref="D2:D5"/>
@@ -20513,6 +20505,14 @@
     <mergeCell ref="C2:C14"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="C15:C22"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="C45:C52"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="C37:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/game.xlsx
+++ b/game.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="1000" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="1000" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Нации" sheetId="4" r:id="rId1"/>
@@ -1436,9 +1436,6 @@
     <t>10% к производству. После строительства любого здания есть шанс получения 1-2 очков производства, науки или веры</t>
   </si>
   <si>
-    <t>10% к культуре. +5% к производству при строительстве культурных зданий</t>
-  </si>
-  <si>
     <t>25% к добыче ресурсов</t>
   </si>
   <si>
@@ -2982,6 +2979,9 @@
   </si>
   <si>
     <t>Рождение: наносит 2 ед урона. Иммунитет к магии огня. Поджигает</t>
+  </si>
+  <si>
+    <t>10% к культуре. +5% к производству при строительстве культурных зданий. Ваша ратуша получает +1 к культуре</t>
   </si>
 </sst>
 </file>
@@ -6184,8 +6184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C31"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -6223,7 +6223,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="449" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D2" s="154" t="s">
         <v>54</v>
@@ -6310,7 +6310,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="449" t="s">
-        <v>465</v>
+        <v>980</v>
       </c>
       <c r="D8" s="154" t="s">
         <v>47</v>
@@ -6353,7 +6353,7 @@
       <c r="B11" s="454"/>
       <c r="C11" s="450"/>
       <c r="D11" s="155" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E11" s="213">
         <v>130</v>
@@ -6374,7 +6374,7 @@
         <v>193</v>
       </c>
       <c r="H12" s="442" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6382,7 +6382,7 @@
       <c r="B13" s="454"/>
       <c r="C13" s="450"/>
       <c r="D13" s="155" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E13" s="213">
         <v>220</v>
@@ -6397,13 +6397,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="449" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D14" s="154" t="s">
         <v>194</v>
       </c>
       <c r="H14" s="444" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
@@ -6426,7 +6426,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="449" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D16" s="154" t="s">
         <v>46</v>
@@ -6513,7 +6513,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="449" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D22" s="154" t="s">
         <v>52</v>
@@ -6542,7 +6542,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="449" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D24" s="154" t="s">
         <v>49</v>
@@ -6577,7 +6577,7 @@
         <v>50</v>
       </c>
       <c r="H26" s="444" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
@@ -6600,7 +6600,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="449" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D28" s="154" t="s">
         <v>222</v>
@@ -6629,7 +6629,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="449" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D30" s="154" t="s">
         <v>51</v>
@@ -7556,9 +7556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M177"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F178" sqref="F178"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -7580,7 +7580,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="316" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B1" s="317" t="s">
         <v>67</v>
@@ -7590,19 +7590,19 @@
       <c r="E1" s="320"/>
       <c r="F1" s="321"/>
       <c r="G1" s="322" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1" s="323" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I1" s="324" t="s">
+        <v>665</v>
+      </c>
+      <c r="J1" s="325" t="s">
         <v>666</v>
       </c>
-      <c r="J1" s="325" t="s">
+      <c r="K1" s="326" t="s">
         <v>667</v>
-      </c>
-      <c r="K1" s="326" t="s">
-        <v>668</v>
       </c>
       <c r="L1" s="326" t="s">
         <v>329</v>
@@ -7610,10 +7610,10 @@
     </row>
     <row r="2" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="327" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B2" s="230" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C2" s="328">
         <v>1</v>
@@ -7645,10 +7645,10 @@
     </row>
     <row r="3" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="337" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B3" s="219" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C3" s="305">
         <v>1</v>
@@ -7680,10 +7680,10 @@
     </row>
     <row r="4" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="337" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B4" s="219" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C4" s="305">
         <v>1</v>
@@ -7715,10 +7715,10 @@
     </row>
     <row r="5" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="337" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B5" s="219" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C5" s="305">
         <v>1</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="6" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="337" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C6" s="305">
         <v>2</v>
@@ -7780,10 +7780,10 @@
     </row>
     <row r="7" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="337" t="s">
+        <v>633</v>
+      </c>
+      <c r="B7" s="219" t="s">
         <v>634</v>
-      </c>
-      <c r="B7" s="219" t="s">
-        <v>635</v>
       </c>
       <c r="C7" s="305">
         <v>1</v>
@@ -7819,10 +7819,10 @@
     </row>
     <row r="8" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="337" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B8" s="219" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C8" s="305">
         <v>2</v>
@@ -7854,10 +7854,10 @@
     </row>
     <row r="9" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="337" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B9" s="219" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C9" s="305">
         <v>3</v>
@@ -7889,10 +7889,10 @@
     </row>
     <row r="10" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="337" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B10" s="219" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C10" s="305"/>
       <c r="D10" s="306">
@@ -7926,10 +7926,10 @@
     </row>
     <row r="11" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="337" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B11" s="219" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C11" s="305">
         <v>1</v>
@@ -7961,10 +7961,10 @@
     </row>
     <row r="12" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="337" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B12" s="219" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C12" s="305">
         <v>3</v>
@@ -7996,10 +7996,10 @@
     </row>
     <row r="13" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="337" t="s">
+        <v>818</v>
+      </c>
+      <c r="B13" s="219" t="s">
         <v>819</v>
-      </c>
-      <c r="B13" s="219" t="s">
-        <v>820</v>
       </c>
       <c r="C13" s="305">
         <v>3</v>
@@ -8031,10 +8031,10 @@
     </row>
     <row r="14" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="350" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B14" s="227" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C14" s="351">
         <v>2</v>
@@ -8070,10 +8070,10 @@
     </row>
     <row r="15" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="347" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B15" s="230" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C15" s="328">
         <v>2</v>
@@ -8105,10 +8105,10 @@
     </row>
     <row r="16" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="348" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B16" s="219" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C16" s="305">
         <v>1</v>
@@ -8144,10 +8144,10 @@
     </row>
     <row r="17" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="348" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B17" s="219" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C17" s="305">
         <v>2</v>
@@ -8179,10 +8179,10 @@
     </row>
     <row r="18" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="348" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B18" s="219" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C18" s="305">
         <v>3</v>
@@ -8212,10 +8212,10 @@
     </row>
     <row r="19" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="348" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B19" s="219" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C19" s="305"/>
       <c r="D19" s="306">
@@ -8249,10 +8249,10 @@
     </row>
     <row r="20" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="348" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B20" s="219" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C20" s="305">
         <v>1</v>
@@ -8288,10 +8288,10 @@
     </row>
     <row r="21" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="348" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B21" s="219" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C21" s="305">
         <v>5</v>
@@ -8323,10 +8323,10 @@
     </row>
     <row r="22" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="348" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B22" s="219" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C22" s="305">
         <v>2</v>
@@ -8362,10 +8362,10 @@
     </row>
     <row r="23" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="348" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B23" s="219" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C23" s="305">
         <v>2</v>
@@ -8401,10 +8401,10 @@
     </row>
     <row r="24" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="348" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B24" s="219" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C24" s="305">
         <v>4</v>
@@ -8434,10 +8434,10 @@
     </row>
     <row r="25" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="349" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B25" s="232" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C25" s="339">
         <v>3</v>
@@ -8469,10 +8469,10 @@
     </row>
     <row r="26" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="368" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B26" s="369" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C26" s="370">
         <v>2</v>
@@ -8504,10 +8504,10 @@
     </row>
     <row r="27" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="378" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B27" s="219" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C27" s="305">
         <v>2</v>
@@ -8539,10 +8539,10 @@
     </row>
     <row r="28" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="378" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B28" s="219" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C28" s="305"/>
       <c r="D28" s="306">
@@ -8574,10 +8574,10 @@
     </row>
     <row r="29" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="378" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B29" s="219" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C29" s="305">
         <v>2</v>
@@ -8613,10 +8613,10 @@
     </row>
     <row r="30" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="378" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B30" s="219" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C30" s="305">
         <v>2</v>
@@ -8648,10 +8648,10 @@
     </row>
     <row r="31" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="378" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B31" s="219" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C31" s="305">
         <v>2</v>
@@ -8683,10 +8683,10 @@
     </row>
     <row r="32" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="378" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B32" s="219" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C32" s="305">
         <v>5</v>
@@ -8718,10 +8718,10 @@
     </row>
     <row r="33" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="379" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B33" s="232" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C33" s="339">
         <v>4</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="34" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="380" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B34" s="230"/>
       <c r="C34" s="339">
@@ -8788,10 +8788,10 @@
     </row>
     <row r="35" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="381" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B35" s="219" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C35" s="339">
         <v>5</v>
@@ -8827,10 +8827,10 @@
     </row>
     <row r="36" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="381" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B36" s="219" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C36" s="339"/>
       <c r="D36" s="340">
@@ -8864,10 +8864,10 @@
     </row>
     <row r="37" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="381" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B37" s="219" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C37" s="339"/>
       <c r="D37" s="340">
@@ -8901,10 +8901,10 @@
     </row>
     <row r="38" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="381" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B38" s="219" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C38" s="339">
         <v>6</v>
@@ -8936,7 +8936,7 @@
     </row>
     <row r="39" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="382" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B39" s="232"/>
       <c r="C39" s="339">
@@ -8967,10 +8967,10 @@
     </row>
     <row r="40" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="383" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B40" s="230" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C40" s="339">
         <v>3</v>
@@ -9002,10 +9002,10 @@
     </row>
     <row r="41" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="384" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B41" s="219" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C41" s="339">
         <v>7</v>
@@ -9037,10 +9037,10 @@
     </row>
     <row r="42" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="384" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B42" s="219" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C42" s="339">
         <v>8</v>
@@ -9074,10 +9074,10 @@
     </row>
     <row r="43" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="385" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B43" s="232" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C43" s="339">
         <v>10</v>
@@ -9126,22 +9126,22 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="316" t="s">
+        <v>696</v>
+      </c>
+      <c r="B46" s="317" t="s">
         <v>697</v>
       </c>
-      <c r="B46" s="317" t="s">
-        <v>698</v>
-      </c>
       <c r="C46" s="386" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D46" s="387"/>
     </row>
     <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B47" s="219" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C47" s="306">
         <v>30</v>
@@ -9149,10 +9149,10 @@
     </row>
     <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B48" s="219" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C48" s="306">
         <v>45</v>
@@ -9160,10 +9160,10 @@
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B49" s="219" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C49" s="306">
         <v>30</v>
@@ -9171,10 +9171,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B50" s="219" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C50" s="306">
         <v>45</v>
@@ -9182,10 +9182,10 @@
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B51" s="219" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C51" s="306">
         <v>30</v>
@@ -9193,10 +9193,10 @@
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B52" s="219" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C52" s="306">
         <v>30</v>
@@ -9204,10 +9204,10 @@
     </row>
     <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B53" s="219" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C53" s="306">
         <v>45</v>
@@ -9215,10 +9215,10 @@
     </row>
     <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B54" s="219" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C54" s="306">
         <v>30</v>
@@ -9226,10 +9226,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B55" s="219" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C55" s="306">
         <v>30</v>
@@ -9237,10 +9237,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B56" s="219" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C56" s="306">
         <v>45</v>
@@ -9248,10 +9248,10 @@
     </row>
     <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B57" s="219" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C57" s="306">
         <v>45</v>
@@ -9259,10 +9259,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B58" s="219" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C58" s="306">
         <v>45</v>
@@ -9270,10 +9270,10 @@
     </row>
     <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B59" s="219" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C59" s="306">
         <v>45</v>
@@ -9281,10 +9281,10 @@
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B60" s="219" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C60" s="306">
         <v>30</v>
@@ -9292,10 +9292,10 @@
     </row>
     <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B61" s="219" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C61" s="306">
         <v>30</v>
@@ -9311,167 +9311,167 @@
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="B64" s="219" t="s">
         <v>758</v>
-      </c>
-      <c r="B64" s="219" t="s">
-        <v>759</v>
       </c>
       <c r="C64" s="246"/>
     </row>
     <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="B65" s="219" t="s">
         <v>760</v>
-      </c>
-      <c r="B65" s="219" t="s">
-        <v>761</v>
       </c>
       <c r="C65" s="246"/>
     </row>
     <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="B66" s="219" t="s">
         <v>762</v>
-      </c>
-      <c r="B66" s="219" t="s">
-        <v>763</v>
       </c>
       <c r="C66" s="246"/>
     </row>
     <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="B67" s="219" t="s">
         <v>764</v>
-      </c>
-      <c r="B67" s="219" t="s">
-        <v>765</v>
       </c>
       <c r="C67" s="246"/>
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="B68" s="219" t="s">
         <v>766</v>
-      </c>
-      <c r="B68" s="219" t="s">
-        <v>767</v>
       </c>
       <c r="C68" s="246"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="B69" s="219" t="s">
         <v>768</v>
-      </c>
-      <c r="B69" s="219" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="B70" s="219" t="s">
         <v>770</v>
-      </c>
-      <c r="B70" s="219" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="B71" s="219" t="s">
         <v>772</v>
-      </c>
-      <c r="B71" s="219" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B72" s="219" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="B73" s="219" t="s">
         <v>775</v>
-      </c>
-      <c r="B73" s="219" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B74" s="219" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="B75" s="219" t="s">
         <v>777</v>
-      </c>
-      <c r="B75" s="219" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="B76" s="219" t="s">
         <v>779</v>
-      </c>
-      <c r="B76" s="219" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="B77" s="219" t="s">
         <v>781</v>
-      </c>
-      <c r="B77" s="219" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B78" s="219" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="B79" s="219" t="s">
         <v>820</v>
-      </c>
-      <c r="B79" s="219" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="316" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B82" s="317" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B83" s="219" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="B84" s="219" t="s">
         <v>786</v>
-      </c>
-      <c r="B84" s="219" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B85" s="219" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -9482,74 +9482,74 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="316" t="s">
+        <v>836</v>
+      </c>
+      <c r="B88" s="317" t="s">
         <v>837</v>
-      </c>
-      <c r="B88" s="317" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B89" s="219" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B90" s="219" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B91" s="219" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B92" s="219" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B93" s="219" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B94" s="219" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B95" s="219" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="B96" s="219" t="s">
         <v>908</v>
-      </c>
-      <c r="B96" s="219" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
@@ -9574,10 +9574,10 @@
     </row>
     <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A100" s="410" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B100" s="439" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C100" s="411"/>
       <c r="D100" s="412"/>
@@ -9592,7 +9592,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A101" s="337" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C101" s="305">
         <v>2</v>
@@ -9604,7 +9604,7 @@
         <v>2</v>
       </c>
       <c r="F101" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G101" s="309">
         <v>1</v>
@@ -9626,10 +9626,10 @@
     </row>
     <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A102" s="337" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B102" s="219" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C102" s="305">
         <v>1</v>
@@ -9641,7 +9641,7 @@
         <v>2</v>
       </c>
       <c r="F102" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G102" s="309">
         <v>1</v>
@@ -9659,10 +9659,10 @@
     </row>
     <row r="103" spans="1:13" ht="45" x14ac:dyDescent="0.5">
       <c r="A103" s="337" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B103" s="219" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C103" s="305">
         <v>2</v>
@@ -9674,7 +9674,7 @@
         <v>3</v>
       </c>
       <c r="F103" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G103" s="309">
         <v>2</v>
@@ -9692,10 +9692,10 @@
     </row>
     <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A104" s="337" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B104" s="219" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C104" s="305">
         <v>2</v>
@@ -9707,7 +9707,7 @@
         <v>3</v>
       </c>
       <c r="F104" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G104" s="309">
         <v>2</v>
@@ -9725,10 +9725,10 @@
     </row>
     <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A105" s="337" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B105" s="219" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C105" s="305">
         <v>2</v>
@@ -9740,7 +9740,7 @@
         <v>4</v>
       </c>
       <c r="F105" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G105" s="309">
         <v>3</v>
@@ -9758,10 +9758,10 @@
     </row>
     <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A106" s="337" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B106" s="219" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C106" s="305">
         <v>6</v>
@@ -9773,7 +9773,7 @@
         <v>7</v>
       </c>
       <c r="F106" s="435" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G106" s="309">
         <v>4</v>
@@ -9791,10 +9791,10 @@
     </row>
     <row r="107" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="420" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B107" s="232" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C107" s="339">
         <v>7</v>
@@ -9806,7 +9806,7 @@
         <v>8</v>
       </c>
       <c r="F107" s="436" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G107" s="343">
         <v>5</v>
@@ -9824,10 +9824,10 @@
     </row>
     <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A108" s="410" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B108" s="439" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C108" s="411"/>
       <c r="D108" s="412"/>
@@ -9842,10 +9842,10 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A109" s="384" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B109" s="219" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C109" s="305">
         <v>1</v>
@@ -9857,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G109" s="309">
         <v>1</v>
@@ -9879,7 +9879,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A110" s="384" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C110" s="305">
         <v>2</v>
@@ -9891,7 +9891,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G110" s="309">
         <v>1</v>
@@ -9907,10 +9907,10 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A111" s="384" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B111" s="219" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C111" s="305">
         <v>2</v>
@@ -9922,7 +9922,7 @@
         <v>4</v>
       </c>
       <c r="F111" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G111" s="309">
         <v>2</v>
@@ -9940,10 +9940,10 @@
     </row>
     <row r="112" spans="1:13" ht="45" x14ac:dyDescent="0.5">
       <c r="A112" s="384" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B112" s="219" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C112" s="305">
         <v>3</v>
@@ -9955,7 +9955,7 @@
         <v>4</v>
       </c>
       <c r="F112" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G112" s="309">
         <v>2</v>
@@ -9973,10 +9973,10 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A113" s="384" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B113" s="219" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C113" s="305">
         <v>2</v>
@@ -9988,7 +9988,7 @@
         <v>4</v>
       </c>
       <c r="F113" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G113" s="309">
         <v>3</v>
@@ -10006,10 +10006,10 @@
     </row>
     <row r="114" spans="1:13" ht="45" x14ac:dyDescent="0.5">
       <c r="A114" s="384" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B114" s="219" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C114" s="305">
         <v>3</v>
@@ -10021,7 +10021,7 @@
         <v>5</v>
       </c>
       <c r="F114" s="435" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G114" s="309">
         <v>4</v>
@@ -10039,10 +10039,10 @@
     </row>
     <row r="115" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="385" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B115" s="232" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C115" s="339">
         <v>4</v>
@@ -10054,7 +10054,7 @@
         <v>8</v>
       </c>
       <c r="F115" s="436" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G115" s="343">
         <v>5</v>
@@ -10072,10 +10072,10 @@
     </row>
     <row r="116" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A116" s="410" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B116" s="439" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C116" s="411"/>
       <c r="D116" s="412"/>
@@ -10090,7 +10090,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A117" s="425" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C117" s="305">
         <v>0</v>
@@ -10102,7 +10102,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G117" s="309">
         <v>1</v>
@@ -10122,10 +10122,10 @@
     </row>
     <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A118" s="425" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B118" s="219" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C118" s="305">
         <v>1</v>
@@ -10137,7 +10137,7 @@
         <v>2</v>
       </c>
       <c r="F118" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G118" s="309">
         <v>1</v>
@@ -10155,10 +10155,10 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A119" s="425" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B119" s="219" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C119" s="305">
         <v>1</v>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="F119" s="435" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G119" s="309">
         <v>2</v>
@@ -10188,10 +10188,10 @@
     </row>
     <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A120" s="425" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B120" s="219" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C120" s="305">
         <v>2</v>
@@ -10203,7 +10203,7 @@
         <v>3</v>
       </c>
       <c r="F120" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G120" s="309">
         <v>2</v>
@@ -10221,10 +10221,10 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A121" s="425" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B121" s="219" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C121" s="305">
         <v>4</v>
@@ -10236,7 +10236,7 @@
         <v>4</v>
       </c>
       <c r="F121" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G121" s="309">
         <v>3</v>
@@ -10254,10 +10254,10 @@
     </row>
     <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A122" s="425" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B122" s="219" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C122" s="305">
         <v>3</v>
@@ -10269,7 +10269,7 @@
         <v>4</v>
       </c>
       <c r="F122" s="435" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G122" s="309">
         <v>4</v>
@@ -10287,10 +10287,10 @@
     </row>
     <row r="123" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="426" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B123" s="232" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C123" s="339">
         <v>5</v>
@@ -10302,7 +10302,7 @@
         <v>7</v>
       </c>
       <c r="F123" s="436" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G123" s="343">
         <v>5</v>
@@ -10320,10 +10320,10 @@
     </row>
     <row r="124" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A124" s="410" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B124" s="439" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C124" s="411"/>
       <c r="D124" s="412"/>
@@ -10338,10 +10338,10 @@
     </row>
     <row r="125" spans="1:13" ht="45" x14ac:dyDescent="0.5">
       <c r="A125" s="427" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B125" s="219" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C125" s="305">
         <v>1</v>
@@ -10353,7 +10353,7 @@
         <v>2</v>
       </c>
       <c r="F125" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G125" s="309">
         <v>1</v>
@@ -10375,10 +10375,10 @@
     </row>
     <row r="126" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A126" s="427" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B126" s="219" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C126" s="305">
         <v>1</v>
@@ -10390,7 +10390,7 @@
         <v>2</v>
       </c>
       <c r="F126" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G126" s="309">
         <v>1</v>
@@ -10408,10 +10408,10 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A127" s="427" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B127" s="219" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C127" s="305">
         <v>3</v>
@@ -10423,7 +10423,7 @@
         <v>3</v>
       </c>
       <c r="F127" s="435" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G127" s="309">
         <v>2</v>
@@ -10441,10 +10441,10 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A128" s="427" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B128" s="219" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C128" s="305">
         <v>2</v>
@@ -10456,7 +10456,7 @@
         <v>4</v>
       </c>
       <c r="F128" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G128" s="309">
         <v>2</v>
@@ -10474,7 +10474,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A129" s="427" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C129" s="305">
         <v>6</v>
@@ -10486,7 +10486,7 @@
         <v>5</v>
       </c>
       <c r="F129" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G129" s="309">
         <v>3</v>
@@ -10502,10 +10502,10 @@
     </row>
     <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A130" s="427" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B130" s="219" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C130" s="305">
         <v>3</v>
@@ -10517,7 +10517,7 @@
         <v>5</v>
       </c>
       <c r="F130" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G130" s="309">
         <v>4</v>
@@ -10535,10 +10535,10 @@
     </row>
     <row r="131" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="428" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B131" s="232" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C131" s="339">
         <v>5</v>
@@ -10550,7 +10550,7 @@
         <v>6</v>
       </c>
       <c r="F131" s="436" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G131" s="343">
         <v>5</v>
@@ -10568,10 +10568,10 @@
     </row>
     <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A132" s="410" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B132" s="439" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C132" s="411"/>
       <c r="D132" s="412"/>
@@ -10586,7 +10586,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A133" s="423" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C133" s="305">
         <v>1</v>
@@ -10598,7 +10598,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="435" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G133" s="309">
         <v>1</v>
@@ -10618,10 +10618,10 @@
     </row>
     <row r="134" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A134" s="423" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B134" s="219" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C134" s="305">
         <v>2</v>
@@ -10633,7 +10633,7 @@
         <v>3</v>
       </c>
       <c r="F134" s="435" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G134" s="309">
         <v>1</v>
@@ -10651,10 +10651,10 @@
     </row>
     <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A135" s="423" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B135" s="219" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C135" s="305">
         <v>1</v>
@@ -10666,7 +10666,7 @@
         <v>2</v>
       </c>
       <c r="F135" s="435" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G135" s="309">
         <v>2</v>
@@ -10684,10 +10684,10 @@
     </row>
     <row r="136" spans="1:13" ht="45" x14ac:dyDescent="0.5">
       <c r="A136" s="423" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B136" s="219" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C136" s="305">
         <v>2</v>
@@ -10699,7 +10699,7 @@
         <v>4</v>
       </c>
       <c r="F136" s="435" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G136" s="309">
         <v>2</v>
@@ -10717,10 +10717,10 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A137" s="423" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B137" s="219" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C137" s="305">
         <v>3</v>
@@ -10732,7 +10732,7 @@
         <v>4</v>
       </c>
       <c r="F137" s="435" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G137" s="309">
         <v>3</v>
@@ -10750,10 +10750,10 @@
     </row>
     <row r="138" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A138" s="423" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B138" s="219" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C138" s="305">
         <v>5</v>
@@ -10765,7 +10765,7 @@
         <v>6</v>
       </c>
       <c r="F138" s="435" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G138" s="309">
         <v>4</v>
@@ -10783,10 +10783,10 @@
     </row>
     <row r="139" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="424" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B139" s="232" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C139" s="339">
         <v>7</v>
@@ -10798,7 +10798,7 @@
         <v>8</v>
       </c>
       <c r="F139" s="436" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G139" s="343">
         <v>5</v>
@@ -10816,10 +10816,10 @@
     </row>
     <row r="140" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A140" s="410" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B140" s="439" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C140" s="411"/>
       <c r="D140" s="412"/>
@@ -10834,10 +10834,10 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A141" s="429" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B141" s="219" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C141" s="305">
         <v>1</v>
@@ -10849,7 +10849,7 @@
         <v>2</v>
       </c>
       <c r="F141" s="435" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G141" s="309">
         <v>1</v>
@@ -10871,10 +10871,10 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A142" s="429" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B142" s="219" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C142" s="305">
         <v>2</v>
@@ -10886,7 +10886,7 @@
         <v>3</v>
       </c>
       <c r="F142" s="435" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G142" s="309">
         <v>1</v>
@@ -10904,10 +10904,10 @@
     </row>
     <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A143" s="429" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B143" s="219" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C143" s="305">
         <v>3</v>
@@ -10919,7 +10919,7 @@
         <v>4</v>
       </c>
       <c r="F143" s="435" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G143" s="309">
         <v>2</v>
@@ -10937,10 +10937,10 @@
     </row>
     <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A144" s="429" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B144" s="219" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C144" s="305">
         <v>5</v>
@@ -10952,7 +10952,7 @@
         <v>4</v>
       </c>
       <c r="F144" s="435" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G144" s="309">
         <v>2</v>
@@ -10970,10 +10970,10 @@
     </row>
     <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A145" s="429" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B145" s="219" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C145" s="305">
         <v>4</v>
@@ -10985,7 +10985,7 @@
         <v>6</v>
       </c>
       <c r="F145" s="435" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G145" s="309">
         <v>3</v>
@@ -11003,10 +11003,10 @@
     </row>
     <row r="146" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A146" s="429" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B146" s="219" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C146" s="305">
         <v>4</v>
@@ -11018,7 +11018,7 @@
         <v>6</v>
       </c>
       <c r="F146" s="435" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G146" s="309">
         <v>4</v>
@@ -11036,10 +11036,10 @@
     </row>
     <row r="147" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="430" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B147" s="232" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C147" s="339">
         <v>5</v>
@@ -11051,7 +11051,7 @@
         <v>7</v>
       </c>
       <c r="F147" s="436" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G147" s="343">
         <v>5</v>
@@ -11069,10 +11069,10 @@
     </row>
     <row r="148" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A148" s="410" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B148" s="439" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C148" s="411"/>
       <c r="D148" s="412"/>
@@ -11087,10 +11087,10 @@
     </row>
     <row r="149" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A149" s="432" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B149" s="219" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C149" s="305">
         <v>1</v>
@@ -11102,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G149" s="309">
         <v>1</v>
@@ -11124,10 +11124,10 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A150" s="432" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B150" s="219" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C150" s="305">
         <v>2</v>
@@ -11139,7 +11139,7 @@
         <v>2</v>
       </c>
       <c r="F150" s="435" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G150" s="309">
         <v>1</v>
@@ -11157,10 +11157,10 @@
     </row>
     <row r="151" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A151" s="432" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B151" s="219" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C151" s="305">
         <v>2</v>
@@ -11172,7 +11172,7 @@
         <v>4</v>
       </c>
       <c r="F151" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G151" s="309">
         <v>2</v>
@@ -11190,10 +11190,10 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A152" s="432" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B152" s="219" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C152" s="305">
         <v>3</v>
@@ -11205,7 +11205,7 @@
         <v>5</v>
       </c>
       <c r="F152" s="435" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G152" s="309">
         <v>2</v>
@@ -11223,10 +11223,10 @@
     </row>
     <row r="153" spans="1:13" ht="45" x14ac:dyDescent="0.5">
       <c r="A153" s="432" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B153" s="219" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C153" s="305">
         <v>3</v>
@@ -11238,7 +11238,7 @@
         <v>5</v>
       </c>
       <c r="F153" s="435" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G153" s="309">
         <v>3</v>
@@ -11256,10 +11256,10 @@
     </row>
     <row r="154" spans="1:13" ht="45" x14ac:dyDescent="0.5">
       <c r="A154" s="432" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B154" s="219" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C154" s="305">
         <v>4</v>
@@ -11271,7 +11271,7 @@
         <v>6</v>
       </c>
       <c r="F154" s="435" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G154" s="309">
         <v>4</v>
@@ -11292,7 +11292,7 @@
         <v>143</v>
       </c>
       <c r="B155" s="232" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C155" s="339">
         <v>5</v>
@@ -11304,7 +11304,7 @@
         <v>9</v>
       </c>
       <c r="F155" s="436" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G155" s="343">
         <v>5</v>
@@ -11322,10 +11322,10 @@
     </row>
     <row r="156" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A156" s="410" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B156" s="439" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C156" s="411"/>
       <c r="D156" s="412"/>
@@ -11340,10 +11340,10 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A157" s="397" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B157" s="219" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C157" s="305">
         <v>2</v>
@@ -11355,7 +11355,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G157" s="309">
         <v>1</v>
@@ -11377,10 +11377,10 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A158" s="397" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B158" s="219" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C158" s="305">
         <v>2</v>
@@ -11392,7 +11392,7 @@
         <v>2</v>
       </c>
       <c r="F158" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G158" s="309">
         <v>1</v>
@@ -11410,7 +11410,7 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A159" s="397" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C159" s="305">
         <v>4</v>
@@ -11422,7 +11422,7 @@
         <v>4</v>
       </c>
       <c r="F159" s="435" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G159" s="309">
         <v>2</v>
@@ -11438,10 +11438,10 @@
     </row>
     <row r="160" spans="1:13" ht="30" x14ac:dyDescent="0.5">
       <c r="A160" s="397" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B160" s="219" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C160" s="305">
         <v>2</v>
@@ -11451,7 +11451,7 @@
       </c>
       <c r="E160" s="307"/>
       <c r="F160" s="435" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G160" s="309">
         <v>2</v>
@@ -11469,10 +11469,10 @@
     </row>
     <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.5">
       <c r="A161" s="397" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B161" s="219" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C161" s="305">
         <v>4</v>
@@ -11482,7 +11482,7 @@
       </c>
       <c r="E161" s="307"/>
       <c r="F161" s="435" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G161" s="309">
         <v>3</v>
@@ -11500,10 +11500,10 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A162" s="397" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B162" s="219" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C162" s="305">
         <v>5</v>
@@ -11513,7 +11513,7 @@
       </c>
       <c r="E162" s="307"/>
       <c r="F162" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G162" s="309">
         <v>4</v>
@@ -11531,10 +11531,10 @@
     </row>
     <row r="163" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="431" t="s">
+        <v>927</v>
+      </c>
+      <c r="B163" s="232" t="s">
         <v>928</v>
-      </c>
-      <c r="B163" s="232" t="s">
-        <v>929</v>
       </c>
       <c r="C163" s="339">
         <v>8</v>
@@ -11544,7 +11544,7 @@
       </c>
       <c r="E163" s="341"/>
       <c r="F163" s="436" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G163" s="343">
         <v>5</v>
@@ -11562,7 +11562,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A165" s="381" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C165" s="305">
         <v>1</v>
@@ -11574,7 +11574,7 @@
         <v>0</v>
       </c>
       <c r="F165" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G165" s="309">
         <v>1</v>
@@ -11590,11 +11590,11 @@
     </row>
     <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.5">
       <c r="A166" s="381" t="s">
+        <v>960</v>
+      </c>
+      <c r="B166" s="219" t="s">
         <v>961</v>
       </c>
-      <c r="B166" s="219" t="s">
-        <v>962</v>
-      </c>
       <c r="C166" s="305">
         <v>1</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G166" s="309">
         <v>1</v>
@@ -11623,10 +11623,10 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A167" s="381" t="s">
+        <v>962</v>
+      </c>
+      <c r="B167" s="219" t="s">
         <v>963</v>
-      </c>
-      <c r="B167" s="219" t="s">
-        <v>964</v>
       </c>
       <c r="C167" s="305">
         <v>0</v>
@@ -11638,7 +11638,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G167" s="309">
         <v>1</v>
@@ -11654,7 +11654,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A168" s="381" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C168" s="305">
         <v>0</v>
@@ -11666,7 +11666,7 @@
         <v>0</v>
       </c>
       <c r="F168" s="435" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G168" s="309">
         <v>1</v>
@@ -11682,10 +11682,10 @@
     </row>
     <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.5">
       <c r="A169" s="381" t="s">
+        <v>965</v>
+      </c>
+      <c r="B169" s="219" t="s">
         <v>966</v>
-      </c>
-      <c r="B169" s="219" t="s">
-        <v>967</v>
       </c>
       <c r="C169" s="305">
         <v>2</v>
@@ -11697,7 +11697,7 @@
         <v>2</v>
       </c>
       <c r="F169" s="435" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G169" s="309">
         <v>1</v>
@@ -11713,10 +11713,10 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A170" s="381" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B170" s="219" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C170" s="305">
         <v>2</v>
@@ -11728,7 +11728,7 @@
         <v>3</v>
       </c>
       <c r="F170" s="435" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G170" s="309">
         <v>1</v>
@@ -11744,7 +11744,7 @@
     </row>
     <row r="171" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="382" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B171" s="232"/>
       <c r="C171" s="339">
@@ -11757,7 +11757,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="436" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G171" s="343">
         <v>1</v>
@@ -11773,10 +11773,10 @@
     </row>
     <row r="172" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="382" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B172" s="232" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C172" s="339">
         <v>2</v>
@@ -11788,7 +11788,7 @@
         <v>2</v>
       </c>
       <c r="F172" s="436" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G172" s="343">
         <v>1</v>
@@ -11804,10 +11804,10 @@
     </row>
     <row r="173" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="382" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B173" s="232" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C173" s="339">
         <v>2</v>
@@ -11819,7 +11819,7 @@
         <v>4</v>
       </c>
       <c r="F173" s="436" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G173" s="343">
         <v>1</v>
@@ -11835,7 +11835,7 @@
     </row>
     <row r="174" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="382" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B174" s="232"/>
       <c r="C174" s="339">
@@ -11848,7 +11848,7 @@
         <v>3</v>
       </c>
       <c r="F174" s="436" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G174" s="343">
         <v>1</v>
@@ -11864,10 +11864,10 @@
     </row>
     <row r="175" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="382" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B175" s="232" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C175" s="339">
         <v>2</v>
@@ -11879,7 +11879,7 @@
         <v>4</v>
       </c>
       <c r="F175" s="436" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G175" s="343">
         <v>1</v>
@@ -11895,10 +11895,10 @@
     </row>
     <row r="176" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="382" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B176" s="232" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C176" s="339">
         <v>2</v>
@@ -11910,7 +11910,7 @@
         <v>4</v>
       </c>
       <c r="F176" s="436" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G176" s="343">
         <v>1</v>
@@ -11926,10 +11926,10 @@
     </row>
     <row r="177" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="382" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B177" s="232" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C177" s="339">
         <v>3</v>
@@ -11941,7 +11941,7 @@
         <v>3</v>
       </c>
       <c r="F177" s="436" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G177" s="343">
         <v>1</v>
@@ -11980,18 +11980,18 @@
   <sheetData>
     <row r="1" spans="1:7" s="248" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="263" t="s">
+        <v>505</v>
+      </c>
+      <c r="B1" s="218" t="s">
         <v>506</v>
-      </c>
-      <c r="B1" s="218" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="116" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B2" s="264" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11999,7 +11999,7 @@
         <v>459</v>
       </c>
       <c r="B3" s="264" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12007,47 +12007,47 @@
         <v>461</v>
       </c>
       <c r="B4" s="264" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B5" s="264" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B6" s="264" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" s="254" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G7" s="254" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="262" t="s">
+        <v>514</v>
+      </c>
+      <c r="B9" s="265" t="s">
         <v>515</v>
-      </c>
-      <c r="B9" s="265" t="s">
-        <v>516</v>
       </c>
       <c r="C9" s="265" t="s">
         <v>203</v>
@@ -12056,108 +12056,108 @@
         <v>459</v>
       </c>
       <c r="G9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="266" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B10" s="282" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C10" s="267" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F10" t="s">
         <v>461</v>
       </c>
       <c r="G10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="268" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B11" s="214" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C11" s="269" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="268" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B12" s="214" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C12" s="269" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="275" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B13" s="276" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C13" s="277" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F13" t="s">
+        <v>648</v>
+      </c>
+      <c r="G13" t="s">
         <v>649</v>
-      </c>
-      <c r="G13" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="278" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B14" s="281" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C14" s="279" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="268" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B15" s="214" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C15" s="269" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="275" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B16" s="276" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C16" s="277" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F16" t="s">
         <v>4</v>
@@ -12168,13 +12168,13 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="273" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B17" s="280" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C17" s="274" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -12185,13 +12185,13 @@
     </row>
     <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="283" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B18" s="284" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C18" s="285" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
@@ -12205,13 +12205,13 @@
         <v>459</v>
       </c>
       <c r="B19" s="282" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C19" s="267" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F19" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -12222,13 +12222,13 @@
         <v>459</v>
       </c>
       <c r="B20" s="214" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C20" s="269" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F20" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -12239,10 +12239,10 @@
         <v>459</v>
       </c>
       <c r="B21" s="214" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C21" s="269" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12250,10 +12250,10 @@
         <v>459</v>
       </c>
       <c r="B22" s="276" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C22" s="277" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -12261,10 +12261,10 @@
         <v>459</v>
       </c>
       <c r="B23" s="280" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C23" s="274" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12272,10 +12272,10 @@
         <v>459</v>
       </c>
       <c r="B24" s="214" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C24" s="269" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12283,10 +12283,10 @@
         <v>459</v>
       </c>
       <c r="B25" s="276" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C25" s="277" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -12294,10 +12294,10 @@
         <v>459</v>
       </c>
       <c r="B26" s="280" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C26" s="274" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12305,208 +12305,208 @@
         <v>459</v>
       </c>
       <c r="B27" s="271" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C27" s="272" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="266" t="s">
+        <v>537</v>
+      </c>
+      <c r="B28" s="282" t="s">
         <v>538</v>
       </c>
-      <c r="B28" s="282" t="s">
-        <v>539</v>
-      </c>
       <c r="C28" s="267" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="268" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B29" s="214" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C29" s="269" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="268" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B30" s="214" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C30" s="269" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="275" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B31" s="276" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C31" s="277" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="273" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B32" s="280" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C32" s="274" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="268" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B33" s="214" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C33" s="269" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="275" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B34" s="276" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C34" s="277" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" s="273" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B35" s="280" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C35" s="274" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="270" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B36" s="271" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C36" s="272" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="266" t="s">
+        <v>549</v>
+      </c>
+      <c r="B37" s="282" t="s">
         <v>550</v>
       </c>
-      <c r="B37" s="282" t="s">
-        <v>551</v>
-      </c>
       <c r="C37" s="267" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="268" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B38" s="214" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C38" s="269" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="268" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B39" s="214" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C39" s="269" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="275" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B40" s="276" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C40" s="277" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="273" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B41" s="280" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C41" s="274" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="268" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B42" s="214" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C42" s="269" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="275" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B43" s="276" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C43" s="277" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A44" s="273" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B44" s="280" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C44" s="274" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="270" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B45" s="271" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C45" s="272" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -12533,10 +12533,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B1" s="261" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -12778,7 +12778,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="484" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B24" s="484"/>
       <c r="C24" s="484"/>
@@ -12786,7 +12786,7 @@
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="260" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B25" s="258">
         <v>1</v>
@@ -12802,7 +12802,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="260" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B26" s="258">
         <v>0</v>
@@ -12815,7 +12815,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="260" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B27" s="258">
         <v>0</v>
@@ -12828,7 +12828,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="260" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B28" s="258">
         <v>0</v>
@@ -12841,7 +12841,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="260" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B29" s="258">
         <v>0</v>
@@ -12854,7 +12854,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="260" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B30" s="258">
         <v>0</v>
@@ -12867,7 +12867,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="260" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B31" s="258">
         <v>0</v>
@@ -12880,7 +12880,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="260" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B32" s="258">
         <v>0</v>
@@ -12893,7 +12893,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="260" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B33" s="258">
         <v>0</v>
@@ -12906,7 +12906,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="260" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B34" s="258">
         <v>0</v>
@@ -12919,7 +12919,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="260" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B35" s="258">
         <v>0</v>
@@ -12932,7 +12932,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="260" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B36" s="258">
         <v>0</v>
@@ -12945,7 +12945,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="260" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B37" s="258">
         <v>0</v>
@@ -12958,7 +12958,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="260" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B38" s="258">
         <v>0</v>
@@ -12968,7 +12968,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="260" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B39" s="258">
         <v>0</v>
@@ -12978,7 +12978,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="260" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B40" s="258">
         <v>0</v>
@@ -12988,7 +12988,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="260" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B41" s="258">
         <v>0</v>
@@ -12998,7 +12998,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="260" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B42" s="258">
         <v>0</v>
@@ -13008,7 +13008,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="260" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B43" s="258">
         <v>0</v>
@@ -13018,7 +13018,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="260" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B44" s="258">
         <v>0</v>
@@ -13028,7 +13028,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="484" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B45" s="484"/>
       <c r="C45" s="484"/>
@@ -13036,7 +13036,7 @@
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="260" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B46" s="258">
         <v>1</v>
@@ -13049,7 +13049,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="260" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B47" s="258">
         <v>1</v>
@@ -13059,7 +13059,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="260" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B48" s="258">
         <v>0</v>
@@ -13070,7 +13070,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="260" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B49" s="258">
         <v>0</v>
@@ -13081,7 +13081,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="260" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B50" s="258">
         <v>0</v>
@@ -13103,7 +13103,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="260" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B52" s="258">
         <v>1</v>
@@ -13497,7 +13497,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="260" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B88" s="259">
         <v>0</v>
@@ -13541,7 +13541,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="260" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B92" s="259">
         <v>0</v>
@@ -13629,7 +13629,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="260" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B100" s="259">
         <v>0</v>
@@ -13810,7 +13810,7 @@
         <v>440</v>
       </c>
       <c r="C1" s="296" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -13830,7 +13830,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="214" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -13842,7 +13842,7 @@
         <v>55</v>
       </c>
       <c r="C4" s="214" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -13854,7 +13854,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="214" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -13866,7 +13866,7 @@
         <v>160</v>
       </c>
       <c r="C6" s="214" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -13887,7 +13887,7 @@
         <v>325</v>
       </c>
       <c r="C8" s="214" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -13908,7 +13908,7 @@
         <v>550</v>
       </c>
       <c r="C10" s="214" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -13920,7 +13920,7 @@
         <v>685</v>
       </c>
       <c r="C11" s="214" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -13941,7 +13941,7 @@
         <v>1000</v>
       </c>
       <c r="C13" s="214" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -13953,7 +13953,7 @@
         <v>1180</v>
       </c>
       <c r="C14" s="214" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -13974,7 +13974,7 @@
         <v>1585</v>
       </c>
       <c r="C16" s="214" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -13995,7 +13995,7 @@
         <v>2050</v>
       </c>
       <c r="C18" s="214" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -14016,7 +14016,7 @@
         <v>2575</v>
       </c>
       <c r="C20" s="214" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -14028,7 +14028,7 @@
         <v>2860</v>
       </c>
       <c r="C21" s="214" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -14049,7 +14049,7 @@
         <v>3475</v>
       </c>
       <c r="C23" s="214" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -14070,7 +14070,7 @@
         <v>4150</v>
       </c>
       <c r="C25" s="214" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -14091,7 +14091,7 @@
         <v>4885</v>
       </c>
       <c r="C27" s="214" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -14112,7 +14112,7 @@
         <v>5680</v>
       </c>
       <c r="C29" s="214" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -14133,7 +14133,7 @@
         <v>6535</v>
       </c>
       <c r="C31" s="214" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -14158,130 +14158,130 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="297" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B1" s="299" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C1" s="299" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="487" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B2" s="485" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C2" s="214" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="488"/>
       <c r="B3" s="486"/>
       <c r="C3" s="214" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="487" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B4" s="485" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C4" s="214" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="490"/>
       <c r="B5" s="489"/>
       <c r="C5" s="214" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="490"/>
       <c r="B6" s="489"/>
       <c r="C6" s="214" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="488"/>
       <c r="B7" s="486"/>
       <c r="C7" s="214" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="487" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B8" s="485" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C8" s="214" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="490"/>
       <c r="B9" s="489"/>
       <c r="C9" s="214" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="490"/>
       <c r="B10" s="489"/>
       <c r="C10" s="214" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="490"/>
       <c r="B11" s="489"/>
       <c r="C11" s="214" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="490"/>
       <c r="B12" s="489"/>
       <c r="C12" s="214" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="490"/>
       <c r="B13" s="489"/>
       <c r="C13" s="214" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="490"/>
       <c r="B14" s="489"/>
       <c r="C14" s="214" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="490"/>
       <c r="B15" s="489"/>
       <c r="C15" s="214" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="488"/>
       <c r="B16" s="486"/>
       <c r="C16" s="214" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -14315,7 +14315,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="491" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B1" s="491"/>
       <c r="C1" s="389"/>
@@ -14324,93 +14324,93 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="296" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B2" s="390" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="222" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B3" s="222" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="222" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B4" s="222" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="222" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B5" s="222" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="222" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B6" s="222" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="222" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B7" s="222" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="222" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B8" s="222" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="222" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B9" s="222"/>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="222" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B10" s="222"/>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="222" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B11" s="222"/>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="222" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B12" s="222"/>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="222" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B13" s="222"/>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="222" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B14" s="222"/>
     </row>
@@ -14425,7 +14425,7 @@
     </row>
     <row r="18" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A18" s="393" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B18" s="222"/>
     </row>
@@ -15672,7 +15672,7 @@
     </row>
     <row r="8" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="397" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B8" s="93" t="s">
         <v>82</v>
@@ -16003,7 +16003,7 @@
         <v>98</v>
       </c>
       <c r="B16" s="93" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C16" s="6">
         <v>90</v>
@@ -16290,7 +16290,7 @@
         <v>112</v>
       </c>
       <c r="B23" s="93" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C23" s="6">
         <v>80</v>
@@ -17132,7 +17132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -17175,7 +17175,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C3" s="81">
         <v>300</v>
@@ -18317,7 +18317,7 @@
         <v>286</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18328,7 +18328,7 @@
         <v>302</v>
       </c>
       <c r="C2" s="152" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -18339,7 +18339,7 @@
         <v>292</v>
       </c>
       <c r="C3" s="153" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -18350,7 +18350,7 @@
         <v>303</v>
       </c>
       <c r="C4" s="153" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18361,7 +18361,7 @@
         <v>301</v>
       </c>
       <c r="C5" s="153" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -18560,7 +18560,7 @@
         <v>233</v>
       </c>
       <c r="G1" s="220" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1" s="220" t="s">
         <v>80</v>
@@ -18586,7 +18586,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="301" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H2" s="301">
         <v>13</v>
@@ -18610,7 +18610,7 @@
         <v>50</v>
       </c>
       <c r="G3" s="301" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H3" s="301">
         <v>17</v>
@@ -18634,7 +18634,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="301" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H4" s="301">
         <v>28</v>
@@ -18658,7 +18658,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="301" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H5" s="301">
         <v>8</v>
@@ -18682,7 +18682,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="300" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H6" s="300">
         <f>SUM(H2:H5)</f>
@@ -19120,7 +19120,7 @@
         <v>406</v>
       </c>
       <c r="D35" s="460" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E35" s="235">
         <v>25</v>
@@ -19182,7 +19182,7 @@
         <v>407</v>
       </c>
       <c r="D39" s="460" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E39" s="235">
         <v>25</v>
@@ -19238,7 +19238,7 @@
         <v>427</v>
       </c>
       <c r="B43" s="229" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C43" s="234" t="s">
         <v>403</v>
@@ -19255,7 +19255,7 @@
         <v>428</v>
       </c>
       <c r="B44" s="219" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C44" s="225" t="s">
         <v>403</v>
@@ -19270,7 +19270,7 @@
         <v>429</v>
       </c>
       <c r="B45" s="219" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C45" s="225" t="s">
         <v>403</v>
@@ -19300,7 +19300,7 @@
         <v>431</v>
       </c>
       <c r="B47" s="219" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C47" s="225" t="s">
         <v>403</v>
@@ -19315,7 +19315,7 @@
         <v>432</v>
       </c>
       <c r="B48" s="219" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C48" s="225" t="s">
         <v>403</v>
@@ -19330,7 +19330,7 @@
         <v>433</v>
       </c>
       <c r="B49" s="219" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C49" s="225" t="s">
         <v>403</v>
@@ -19345,7 +19345,7 @@
         <v>434</v>
       </c>
       <c r="B50" s="219" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C50" s="225" t="s">
         <v>403</v>
@@ -19380,7 +19380,7 @@
         <v>458</v>
       </c>
       <c r="D52" s="467" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -19421,72 +19421,72 @@
     </row>
     <row r="56" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B56" s="230" t="s">
         <v>408</v>
       </c>
       <c r="C56" s="287" t="s">
+        <v>564</v>
+      </c>
+      <c r="D56" s="457" t="s">
         <v>565</v>
-      </c>
-      <c r="D56" s="457" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B57" s="219" t="s">
         <v>408</v>
       </c>
       <c r="C57" s="224" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D57" s="458"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B58" s="219" t="s">
         <v>408</v>
       </c>
       <c r="C58" s="224" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D58" s="458"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B59" s="219" t="s">
         <v>408</v>
       </c>
       <c r="C59" s="224" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D59" s="458"/>
     </row>
     <row r="60" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B60" s="232" t="s">
         <v>408</v>
       </c>
       <c r="C60" s="294" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D60" s="459"/>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B61" s="219" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C61" s="223" t="s">
         <v>385</v>
@@ -19495,10 +19495,10 @@
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B62" s="219" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C62" s="223" t="s">
         <v>385</v>
@@ -19506,10 +19506,10 @@
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B63" s="219" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C63" s="223" t="s">
         <v>385</v>
@@ -19517,10 +19517,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B64" s="219" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C64" s="223" t="s">
         <v>385</v>
@@ -19528,10 +19528,10 @@
     </row>
     <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B65" s="219" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C65" s="223" t="s">
         <v>385</v>
@@ -19539,10 +19539,10 @@
     </row>
     <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B66" s="219" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C66" s="223" t="s">
         <v>385</v>
@@ -19550,10 +19550,10 @@
     </row>
     <row r="67" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="B67" s="219" t="s">
         <v>605</v>
-      </c>
-      <c r="B67" s="219" t="s">
-        <v>606</v>
       </c>
       <c r="C67" s="223" t="s">
         <v>385</v>
@@ -19751,22 +19751,22 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="217" t="s">
+        <v>571</v>
+      </c>
+      <c r="B1" s="218" t="s">
         <v>572</v>
-      </c>
-      <c r="B1" s="218" t="s">
-        <v>573</v>
       </c>
       <c r="C1" s="220" t="s">
         <v>440</v>
       </c>
       <c r="D1" s="288" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E1" s="288"/>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="472" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>347</v>
@@ -19775,7 +19775,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="474" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E2" s="289"/>
     </row>
@@ -19889,7 +19889,7 @@
     </row>
     <row r="15" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="472" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>374</v>
@@ -19945,7 +19945,7 @@
     <row r="21" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="473"/>
       <c r="B21" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C21" s="470"/>
       <c r="E21" s="289"/>
@@ -19953,14 +19953,14 @@
     <row r="22" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="466"/>
       <c r="B22" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C22" s="471"/>
       <c r="E22" s="289"/>
     </row>
     <row r="23" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="472" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>377</v>
@@ -20005,7 +20005,7 @@
     <row r="28" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="473"/>
       <c r="B28" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C28" s="470"/>
       <c r="E28" s="289"/>
@@ -20013,7 +20013,7 @@
     <row r="29" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A29" s="466"/>
       <c r="B29" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C29" s="471"/>
       <c r="D29" s="293"/>
@@ -20021,7 +20021,7 @@
     </row>
     <row r="30" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A30" s="472" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>378</v>
@@ -20067,7 +20067,7 @@
     <row r="35" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A35" s="473"/>
       <c r="B35" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C35" s="470"/>
       <c r="E35" s="289"/>
@@ -20075,7 +20075,7 @@
     <row r="36" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A36" s="466"/>
       <c r="B36" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C36" s="471"/>
       <c r="D36" s="293"/>
@@ -20083,7 +20083,7 @@
     </row>
     <row r="37" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A37" s="472" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>383</v>
@@ -20121,7 +20121,7 @@
     <row r="41" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="473"/>
       <c r="B41" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C41" s="470"/>
       <c r="E41" s="289"/>
@@ -20129,7 +20129,7 @@
     <row r="42" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="473"/>
       <c r="B42" s="303" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C42" s="470"/>
       <c r="E42" s="289"/>
@@ -20137,7 +20137,7 @@
     <row r="43" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A43" s="473"/>
       <c r="B43" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C43" s="470"/>
       <c r="E43" s="289"/>
@@ -20145,14 +20145,14 @@
     <row r="44" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A44" s="466"/>
       <c r="B44" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C44" s="471"/>
       <c r="E44" s="289"/>
     </row>
     <row r="45" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A45" s="463" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>384</v>
@@ -20181,7 +20181,7 @@
     <row r="48" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A48" s="463"/>
       <c r="B48" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C48" s="470"/>
       <c r="E48" s="289"/>
@@ -20189,7 +20189,7 @@
     <row r="49" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A49" s="463"/>
       <c r="B49" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C49" s="470"/>
       <c r="E49" s="289"/>
@@ -20197,7 +20197,7 @@
     <row r="50" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A50" s="463"/>
       <c r="B50" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C50" s="470"/>
       <c r="E50" s="289"/>
@@ -20205,21 +20205,21 @@
     <row r="51" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="463"/>
       <c r="B51" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C51" s="470"/>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="463"/>
       <c r="B52" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C52" s="471"/>
       <c r="D52" s="293"/>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="463" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>380</v>
@@ -20248,7 +20248,7 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="463"/>
       <c r="B56" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C56" s="470"/>
       <c r="D56" s="293"/>
@@ -20256,7 +20256,7 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="463"/>
       <c r="B57" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C57" s="470"/>
       <c r="D57" s="293"/>
@@ -20264,7 +20264,7 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="463"/>
       <c r="B58" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C58" s="470"/>
       <c r="D58" s="293"/>
@@ -20272,7 +20272,7 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="463"/>
       <c r="B59" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C59" s="470"/>
       <c r="D59" s="293"/>
@@ -20280,14 +20280,14 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="463"/>
       <c r="B60" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C60" s="471"/>
       <c r="D60" s="293"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="463" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>451</v>
@@ -20314,21 +20314,21 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="463"/>
       <c r="B64" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C64" s="470"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="463"/>
       <c r="B65" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C65" s="470"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="463"/>
       <c r="B66" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C66" s="471"/>
     </row>
